--- a/Divisions/E0.xlsx
+++ b/Divisions/E0.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\Divisions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4500" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" r:id="rId3" sheetId="1"/>
-    <sheet name="Form" r:id="rId4" sheetId="2"/>
-    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
-    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
-    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
-    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Form" sheetId="2" r:id="rId2"/>
+    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
+    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
+    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
+    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
+    <sheet name="L6" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11082" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11186" uniqueCount="355">
   <si>
     <t>Team</t>
   </si>
@@ -830,16 +838,267 @@
   </si>
   <si>
     <t>2.3235</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Arsenal,D L W D L W</t>
+  </si>
+  <si>
+    <t>Aston Villa,L W L L D W</t>
+  </si>
+  <si>
+    <t>Brighton,W L D D L W</t>
+  </si>
+  <si>
+    <t>Burnley,W L L L W L</t>
+  </si>
+  <si>
+    <t>Chelsea,D L W D W W</t>
+  </si>
+  <si>
+    <t>Crystal Palace,L W D L L L</t>
+  </si>
+  <si>
+    <t>Everton,L D D D W L</t>
+  </si>
+  <si>
+    <t>Fulham,L L L L D L</t>
+  </si>
+  <si>
+    <t>Leeds,W W W D D L</t>
+  </si>
+  <si>
+    <t>Leicester,W L L W W D</t>
+  </si>
+  <si>
+    <t>Liverpool,L W W W D D</t>
+  </si>
+  <si>
+    <t>Man City,W W W L W W</t>
+  </si>
+  <si>
+    <t>Man United,W W W W W D</t>
+  </si>
+  <si>
+    <t>Newcastle,L D W W D L</t>
+  </si>
+  <si>
+    <t>Sheffield United,L L L L W L</t>
+  </si>
+  <si>
+    <t>Southampton,L L W L L D</t>
+  </si>
+  <si>
+    <t>Tottenham,W D L D W W</t>
+  </si>
+  <si>
+    <t>West Brom,L W W L D D</t>
+  </si>
+  <si>
+    <t>West Ham,D W W L L W</t>
+  </si>
+  <si>
+    <t>Wolves,L L W W L D</t>
+  </si>
+  <si>
+    <t>Arsenal,3 0 3 1 0 2</t>
+  </si>
+  <si>
+    <t>Aston Villa,0 3 1 1 2 2</t>
+  </si>
+  <si>
+    <t>Brighton,3 1 0 0 0 2</t>
+  </si>
+  <si>
+    <t>Burnley,2 2 1 1 4 1</t>
+  </si>
+  <si>
+    <t>Chelsea,0 2 4 0 1 2</t>
+  </si>
+  <si>
+    <t>Crystal Palace,1 1 1 1 1 0</t>
+  </si>
+  <si>
+    <t>Everton,1 1 0 2 1 1</t>
+  </si>
+  <si>
+    <t>Fulham,0 1 1 0 1 0</t>
+  </si>
+  <si>
+    <t>Leeds,2 2 2 1 0 0</t>
+  </si>
+  <si>
+    <t>Leicester,5 0 2 3 2 1</t>
+  </si>
+  <si>
+    <t>Liverpool,0 1 3 2 1 1</t>
+  </si>
+  <si>
+    <t>Man City,5 3 2 1 2 2</t>
+  </si>
+  <si>
+    <t>Man United,2 1 2 3 3 0</t>
+  </si>
+  <si>
+    <t>Newcastle,0 2 2 3 1 0</t>
+  </si>
+  <si>
+    <t>Sheffield United,0 1 0 0 1 0</t>
+  </si>
+  <si>
+    <t>Southampton,2 1 3 0 1 1</t>
+  </si>
+  <si>
+    <t>Tottenham,2 2 1 2 2 4</t>
+  </si>
+  <si>
+    <t>West Brom,0 5 3 0 2 1</t>
+  </si>
+  <si>
+    <t>West Ham,3 3 3 2 0 2</t>
+  </si>
+  <si>
+    <t>Wolves,0 2 1 1 0 1</t>
+  </si>
+  <si>
+    <t>Arsenal,3 3 0 1 1 0</t>
+  </si>
+  <si>
+    <t>Aston Villa,2 1 2 2 2 1</t>
+  </si>
+  <si>
+    <t>Brighton,0 2 0 0 1 0</t>
+  </si>
+  <si>
+    <t>Burnley,1 3 2 3 0 2</t>
+  </si>
+  <si>
+    <t>Chelsea,0 5 1 0 0 0</t>
+  </si>
+  <si>
+    <t>Crystal Palace,4 0 1 4 2 2</t>
+  </si>
+  <si>
+    <t>Everton,2 1 0 2 0 2</t>
+  </si>
+  <si>
+    <t>Fulham,3 2 3 1 1 2</t>
+  </si>
+  <si>
+    <t>Leeds,1 1 1 1 0 2</t>
+  </si>
+  <si>
+    <t>Leicester,0 2 3 0 1 1</t>
+  </si>
+  <si>
+    <t>Liverpool,1 0 0 1 1 1</t>
+  </si>
+  <si>
+    <t>Man City,2 0 0 2 1 0</t>
+  </si>
+  <si>
+    <t>Man United,0 0 1 1 1 0</t>
+  </si>
+  <si>
+    <t>Newcastle,3 2 1 2 1 2</t>
+  </si>
+  <si>
+    <t>Sheffield United,5 2 3 1 0 4</t>
+  </si>
+  <si>
+    <t>Southampton,5 2 2 3 2 1</t>
+  </si>
+  <si>
+    <t>Tottenham,0 2 3 2 1 0</t>
+  </si>
+  <si>
+    <t>West Brom,1 2 0 3 2 1</t>
+  </si>
+  <si>
+    <t>West Ham,3 2 2 3 1 1</t>
+  </si>
+  <si>
+    <t>Wolves,1 3 0 0 4 1</t>
+  </si>
+  <si>
+    <t>Arsenal,6 3 3 2 1 2</t>
+  </si>
+  <si>
+    <t>Aston Villa,2 4 3 3 4 3</t>
+  </si>
+  <si>
+    <t>Brighton,3 3 0 0 1 2</t>
+  </si>
+  <si>
+    <t>Burnley,3 5 3 4 4 3</t>
+  </si>
+  <si>
+    <t>Chelsea,0 7 5 0 1 2</t>
+  </si>
+  <si>
+    <t>Crystal Palace,5 1 2 5 3 2</t>
+  </si>
+  <si>
+    <t>Everton,3 2 0 4 1 3</t>
+  </si>
+  <si>
+    <t>Fulham,3 3 4 1 2 2</t>
+  </si>
+  <si>
+    <t>Leeds,3 3 3 2 0 2</t>
+  </si>
+  <si>
+    <t>Leicester,5 2 5 3 3 2</t>
+  </si>
+  <si>
+    <t>Liverpool,1 1 3 3 2 2</t>
+  </si>
+  <si>
+    <t>Man City,7 3 2 3 3 2</t>
+  </si>
+  <si>
+    <t>Man United,2 1 3 4 4 0</t>
+  </si>
+  <si>
+    <t>Newcastle,3 4 3 5 2 2</t>
+  </si>
+  <si>
+    <t>Sheffield United,5 3 3 1 1 4</t>
+  </si>
+  <si>
+    <t>Southampton,7 3 5 3 3 2</t>
+  </si>
+  <si>
+    <t>Tottenham,2 4 4 4 3 4</t>
+  </si>
+  <si>
+    <t>West Brom,1 7 3 3 4 2</t>
+  </si>
+  <si>
+    <t>West Ham,6 5 5 5 1 3</t>
+  </si>
+  <si>
+    <t>Wolves,1 5 1 1 4 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -851,7 +1110,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -869,19 +1128,292 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -910,7 +1442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -942,7 +1474,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -974,7 +1506,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1538,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1038,7 +1570,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1070,7 +1602,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1102,7 +1634,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1134,7 +1666,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1166,7 +1698,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1198,7 +1730,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1230,7 +1762,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1262,7 +1794,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1294,7 +1826,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1326,7 +1858,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1358,7 +1890,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1390,7 +1922,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1422,7 +1954,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1454,7 +1986,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1486,7 +2018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1518,7 +2050,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1551,20 +2083,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DS21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:123" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>97</v>
       </c>
@@ -1932,7 +2463,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2303,7 +2834,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2674,7 +3205,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -3045,7 +3576,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -3416,7 +3947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -3787,7 +4318,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -4158,7 +4689,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -4529,7 +5060,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -4900,7 +5431,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -5271,7 +5802,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -5642,7 +6173,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -6013,7 +6544,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -6384,7 +6915,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -6755,7 +7286,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -7126,7 +7657,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -7497,7 +8028,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -7868,7 +8399,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -8239,7 +8770,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -8610,7 +9141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -8981,7 +9512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -9353,20 +9884,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DS21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:123" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>97</v>
       </c>
@@ -9734,7 +10264,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -10105,7 +10635,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -10476,7 +11006,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -10847,7 +11377,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -11218,7 +11748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -11589,7 +12119,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -11960,7 +12490,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -12331,7 +12861,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -12702,7 +13232,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -13073,7 +13603,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -13444,7 +13974,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -13815,7 +14345,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -14186,7 +14716,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -14557,7 +15087,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -14928,7 +15458,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -15299,7 +15829,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -15670,7 +16200,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -16041,7 +16571,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -16412,7 +16942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -16783,7 +17313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -17155,20 +17685,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DS21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:123" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>97</v>
       </c>
@@ -17536,7 +18065,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -17907,7 +18436,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -18278,7 +18807,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -18649,7 +19178,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -19020,7 +19549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -19391,7 +19920,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -19762,7 +20291,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -20133,7 +20662,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -20504,7 +21033,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -20875,7 +21404,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -21246,7 +21775,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -21617,7 +22146,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -21988,7 +22517,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -22359,7 +22888,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -22730,7 +23259,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -23101,7 +23630,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -23472,7 +24001,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -23843,7 +24372,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -24214,7 +24743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -24585,7 +25114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -24957,20 +25486,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DS21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:123" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>97</v>
       </c>
@@ -25338,7 +25866,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -25709,7 +26237,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -26080,7 +26608,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -26451,7 +26979,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -26822,7 +27350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -27193,7 +27721,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -27564,7 +28092,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -27935,7 +28463,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -28306,7 +28834,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -28677,7 +29205,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -29048,7 +29576,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -29419,7 +29947,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -29790,7 +30318,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -30161,7 +30689,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -30532,7 +31060,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -30903,7 +31431,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -31274,7 +31802,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -31645,7 +32173,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -32016,7 +32544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -32387,7 +32915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -32759,20 +33287,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>37</v>
       </c>
@@ -32849,7 +33376,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -32929,7 +33456,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -33009,7 +33536,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -33089,7 +33616,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -33169,7 +33696,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -33249,7 +33776,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -33329,7 +33856,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -33409,7 +33936,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -33489,7 +34016,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -33569,7 +34096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -33649,7 +34176,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -33729,7 +34256,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -33809,7 +34336,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -33889,7 +34416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -33969,7 +34496,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -34049,7 +34576,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -34129,7 +34656,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -34209,7 +34736,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -34289,7 +34816,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -34369,7 +34896,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -34450,6 +34977,381 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" t="s">
+        <v>327</v>
+      </c>
+      <c r="E14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" t="s">
+        <v>329</v>
+      </c>
+      <c r="E16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" t="s">
+        <v>330</v>
+      </c>
+      <c r="E17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" t="s">
+        <v>331</v>
+      </c>
+      <c r="E18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Divisions/E0.xlsx
+++ b/Divisions/E0.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\Divisions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" r:id="rId3" sheetId="1"/>
-    <sheet name="Form" r:id="rId4" sheetId="2"/>
-    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
-    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
-    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
-    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
-    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
-    <sheet name="L6" r:id="rId10" sheetId="8"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Form" sheetId="2" r:id="rId2"/>
+    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
+    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
+    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
+    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
+    <sheet name="Shots Analysis" sheetId="7" r:id="rId7"/>
+    <sheet name="L6" sheetId="8" r:id="rId8"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11622" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11036" uniqueCount="340">
   <si>
     <t>Team</t>
   </si>
@@ -720,102 +727,6 @@
     <t>e0_avg_totalgoals</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>2.4857</t>
-  </si>
-  <si>
-    <t>2.6471</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.2941</t>
-  </si>
-  <si>
-    <t>2.7059</t>
-  </si>
-  <si>
-    <t>2.5882</t>
-  </si>
-  <si>
-    <t>2.0588</t>
-  </si>
-  <si>
-    <t>3.0286</t>
-  </si>
-  <si>
-    <t>2.8235</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>3.0294</t>
-  </si>
-  <si>
-    <t>2.2857</t>
-  </si>
-  <si>
-    <t>2.9143</t>
-  </si>
-  <si>
-    <t>2.8571</t>
-  </si>
-  <si>
-    <t>2.3429</t>
-  </si>
-  <si>
     <t>Group.1</t>
   </si>
   <si>
@@ -883,330 +794,6 @@
   </si>
   <si>
     <t>TSCC</t>
-  </si>
-  <si>
-    <t>30.56%</t>
-  </si>
-  <si>
-    <t>30.00%</t>
-  </si>
-  <si>
-    <t>25.00%</t>
-  </si>
-  <si>
-    <t>25.45%</t>
-  </si>
-  <si>
-    <t>28.71%</t>
-  </si>
-  <si>
-    <t>34.78%</t>
-  </si>
-  <si>
-    <t>34.85%</t>
-  </si>
-  <si>
-    <t>15.00%</t>
-  </si>
-  <si>
-    <t>25.51%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>25.96%</t>
-  </si>
-  <si>
-    <t>34.86%</t>
-  </si>
-  <si>
-    <t>35.05%</t>
-  </si>
-  <si>
-    <t>31.88%</t>
-  </si>
-  <si>
-    <t>19.64%</t>
-  </si>
-  <si>
-    <t>28.21%</t>
-  </si>
-  <si>
-    <t>37.21%</t>
-  </si>
-  <si>
-    <t>39.19%</t>
-  </si>
-  <si>
-    <t>23.53%</t>
-  </si>
-  <si>
-    <t>38.57%</t>
-  </si>
-  <si>
-    <t>26.51%</t>
-  </si>
-  <si>
-    <t>29.03%</t>
-  </si>
-  <si>
-    <t>28.81%</t>
-  </si>
-  <si>
-    <t>28.89%</t>
-  </si>
-  <si>
-    <t>31.75%</t>
-  </si>
-  <si>
-    <t>35.94%</t>
-  </si>
-  <si>
-    <t>24.62%</t>
-  </si>
-  <si>
-    <t>35.44%</t>
-  </si>
-  <si>
-    <t>36.47%</t>
-  </si>
-  <si>
-    <t>34.09%</t>
-  </si>
-  <si>
-    <t>38.20%</t>
-  </si>
-  <si>
-    <t>32.67%</t>
-  </si>
-  <si>
-    <t>30.51%</t>
-  </si>
-  <si>
-    <t>19.44%</t>
-  </si>
-  <si>
-    <t>28.36%</t>
-  </si>
-  <si>
-    <t>42.03%</t>
-  </si>
-  <si>
-    <t>39.58%</t>
-  </si>
-  <si>
-    <t>36.11%</t>
-  </si>
-  <si>
-    <t>25.42%</t>
-  </si>
-  <si>
-    <t>34.51%</t>
-  </si>
-  <si>
-    <t>28.32%</t>
-  </si>
-  <si>
-    <t>26.87%</t>
-  </si>
-  <si>
-    <t>27.19%</t>
-  </si>
-  <si>
-    <t>28.80%</t>
-  </si>
-  <si>
-    <t>33.03%</t>
-  </si>
-  <si>
-    <t>35.38%</t>
-  </si>
-  <si>
-    <t>20.00%</t>
-  </si>
-  <si>
-    <t>29.94%</t>
-  </si>
-  <si>
-    <t>36.42%</t>
-  </si>
-  <si>
-    <t>29.69%</t>
-  </si>
-  <si>
-    <t>33.84%</t>
-  </si>
-  <si>
-    <t>31.25%</t>
-  </si>
-  <si>
-    <t>19.57%</t>
-  </si>
-  <si>
-    <t>28.28%</t>
-  </si>
-  <si>
-    <t>39.35%</t>
-  </si>
-  <si>
-    <t>32.00%</t>
-  </si>
-  <si>
-    <t>37.67%</t>
-  </si>
-  <si>
-    <t>24.31%</t>
-  </si>
-  <si>
-    <t>39.62%</t>
-  </si>
-  <si>
-    <t>31.71%</t>
-  </si>
-  <si>
-    <t>42.22%</t>
-  </si>
-  <si>
-    <t>25.97%</t>
-  </si>
-  <si>
-    <t>33.33%</t>
-  </si>
-  <si>
-    <t>35.53%</t>
-  </si>
-  <si>
-    <t>31.58%</t>
-  </si>
-  <si>
-    <t>24.39%</t>
-  </si>
-  <si>
-    <t>28.99%</t>
-  </si>
-  <si>
-    <t>34.00%</t>
-  </si>
-  <si>
-    <t>40.38%</t>
-  </si>
-  <si>
-    <t>36.25%</t>
-  </si>
-  <si>
-    <t>28.72%</t>
-  </si>
-  <si>
-    <t>31.03%</t>
-  </si>
-  <si>
-    <t>29.82%</t>
-  </si>
-  <si>
-    <t>30.14%</t>
-  </si>
-  <si>
-    <t>33.82%</t>
-  </si>
-  <si>
-    <t>25.37%</t>
-  </si>
-  <si>
-    <t>18.07%</t>
-  </si>
-  <si>
-    <t>31.43%</t>
-  </si>
-  <si>
-    <t>28.42%</t>
-  </si>
-  <si>
-    <t>30.19%</t>
-  </si>
-  <si>
-    <t>35.37%</t>
-  </si>
-  <si>
-    <t>22.06%</t>
-  </si>
-  <si>
-    <t>28.00%</t>
-  </si>
-  <si>
-    <t>30.84%</t>
-  </si>
-  <si>
-    <t>30.36%</t>
-  </si>
-  <si>
-    <t>31.15%</t>
-  </si>
-  <si>
-    <t>27.36%</t>
-  </si>
-  <si>
-    <t>33.65%</t>
-  </si>
-  <si>
-    <t>41.67%</t>
-  </si>
-  <si>
-    <t>26.44%</t>
-  </si>
-  <si>
-    <t>31.48%</t>
-  </si>
-  <si>
-    <t>35.29%</t>
-  </si>
-  <si>
-    <t>31.67%</t>
-  </si>
-  <si>
-    <t>24.85%</t>
-  </si>
-  <si>
-    <t>35.65%</t>
-  </si>
-  <si>
-    <t>27.33%</t>
-  </si>
-  <si>
-    <t>31.68%</t>
-  </si>
-  <si>
-    <t>29.17%</t>
-  </si>
-  <si>
-    <t>29.80%</t>
-  </si>
-  <si>
-    <t>28.04%</t>
-  </si>
-  <si>
-    <t>33.59%</t>
-  </si>
-  <si>
-    <t>30.23%</t>
-  </si>
-  <si>
-    <t>31.18%</t>
-  </si>
-  <si>
-    <t>31.31%</t>
-  </si>
-  <si>
-    <t>38.36%</t>
-  </si>
-  <si>
-    <t>30.63%</t>
-  </si>
-  <si>
-    <t>31.91%</t>
-  </si>
-  <si>
-    <t>34.56%</t>
   </si>
   <si>
     <t>Form</t>
@@ -1464,11 +1051,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1480,7 +1066,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1495,22 +1081,297 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1571,7 +1432,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1603,7 +1464,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1635,7 +1496,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1667,7 +1528,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1699,7 +1560,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1731,7 +1592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1624,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1795,7 +1656,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1827,7 +1688,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1859,7 +1720,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1891,7 +1752,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1923,7 +1784,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1955,7 +1816,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1987,7 +1848,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2019,7 +1880,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2051,7 +1912,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2083,7 +1944,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2115,7 +1976,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2147,7 +2008,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2180,20 +2041,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DV21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:126" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>95</v>
       </c>
@@ -2570,7 +2430,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2950,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3330,7 +3190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3710,7 +3570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -4090,7 +3950,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -4470,7 +4330,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -4850,7 +4710,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -5230,7 +5090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5610,7 +5470,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -5990,7 +5850,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -6370,7 +6230,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -6750,7 +6610,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -7130,7 +6990,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -7510,7 +7370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -7890,7 +7750,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -8270,7 +8130,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -8650,7 +8510,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -9030,7 +8890,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -9410,7 +9270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -9790,7 +9650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -10171,20 +10031,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DV21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:126" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>95</v>
       </c>
@@ -10561,7 +10420,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -10941,7 +10800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -11321,7 +11180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -11701,7 +11560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -12081,7 +11940,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -12461,7 +12320,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -12841,7 +12700,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -13221,7 +13080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -13601,7 +13460,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -13981,7 +13840,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -14361,7 +14220,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -14741,7 +14600,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -15121,7 +14980,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -15501,7 +15360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -15881,7 +15740,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -16261,7 +16120,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -16641,7 +16500,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -17021,7 +16880,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -17401,7 +17260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -17781,7 +17640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -18162,20 +18021,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DV21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:126" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>95</v>
       </c>
@@ -18552,7 +18410,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -18932,7 +18790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -19312,7 +19170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -19692,7 +19550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -20072,7 +19930,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -20452,7 +20310,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -20832,7 +20690,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -21212,7 +21070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -21592,7 +21450,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -21972,7 +21830,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -22352,7 +22210,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -22732,7 +22590,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -23112,7 +22970,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -23492,7 +23350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -23872,7 +23730,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -24252,7 +24110,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -24632,7 +24490,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -25012,7 +24870,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -25392,7 +25250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -25772,7 +25630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -26153,20 +26011,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DV21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:126" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>95</v>
       </c>
@@ -26543,7 +26400,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -26923,7 +26780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -27303,7 +27160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -27683,7 +27540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -28063,7 +27920,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -28443,7 +28300,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -28823,7 +28680,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -29203,7 +29060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -29583,7 +29440,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -29963,7 +29820,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -30343,7 +30200,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -30723,7 +30580,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -31103,7 +30960,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -31483,7 +31340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -31863,7 +31720,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -32243,7 +32100,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -32623,7 +32480,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -33003,7 +32860,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -33383,7 +33240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -33763,7 +33620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -34144,20 +34001,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="26" max="26" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>37</v>
       </c>
@@ -34234,3603 +34095,3641 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="1">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>9</v>
+      </c>
+      <c r="R2" s="1">
+        <v>7</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>55</v>
+      </c>
+      <c r="W2" s="1">
+        <v>48</v>
+      </c>
+      <c r="X2" s="1">
+        <v>103</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>3.0293999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>7</v>
+      </c>
+      <c r="P3" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>220</v>
+      </c>
+      <c r="T3" s="1">
+        <v>3</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>45</v>
+      </c>
+      <c r="W3" s="1">
+        <v>61</v>
+      </c>
+      <c r="X3" s="1">
+        <v>106</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>3.0286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>220</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1">
+        <v>3</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>58</v>
+      </c>
+      <c r="W4" s="1">
+        <v>48</v>
+      </c>
+      <c r="X4" s="1">
+        <v>106</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>3.0286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J5" t="s">
+        <v>220</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>220</v>
+      </c>
+      <c r="R5" s="1">
+        <v>7</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>3</v>
+      </c>
+      <c r="V5" s="1">
+        <v>43</v>
+      </c>
+      <c r="W5" s="1">
+        <v>59</v>
+      </c>
+      <c r="X5" s="1">
+        <v>102</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>220</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>6</v>
+      </c>
+      <c r="U6" t="s">
+        <v>220</v>
+      </c>
+      <c r="V6" s="1">
+        <v>50</v>
+      </c>
+      <c r="W6" s="1">
+        <v>52</v>
+      </c>
+      <c r="X6" s="1">
+        <v>102</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>2.9142999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
+        <v>220</v>
+      </c>
+      <c r="T7" t="s">
+        <v>220</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>47</v>
+      </c>
+      <c r="W7" s="1">
+        <v>53</v>
+      </c>
+      <c r="X7" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>2.8571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>220</v>
+      </c>
+      <c r="R8" s="1">
+        <v>3</v>
+      </c>
+      <c r="S8" s="1">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>220</v>
+      </c>
+      <c r="U8" s="1">
+        <v>4</v>
+      </c>
+      <c r="V8" s="1">
+        <v>51</v>
+      </c>
+      <c r="W8" s="1">
+        <v>49</v>
+      </c>
+      <c r="X8" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>2.8571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2</v>
+      </c>
+      <c r="R9" s="1">
+        <v>3</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2</v>
+      </c>
+      <c r="T9" s="1">
+        <v>3</v>
+      </c>
+      <c r="U9" s="1">
+        <v>4</v>
+      </c>
+      <c r="V9" s="1">
+        <v>47</v>
+      </c>
+      <c r="W9" s="1">
+        <v>49</v>
+      </c>
+      <c r="X9" s="1">
+        <v>96</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>34</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>2.8235000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>220</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>7</v>
+      </c>
+      <c r="R10" s="1">
+        <v>3</v>
+      </c>
+      <c r="S10" s="1">
+        <v>2</v>
+      </c>
+      <c r="T10" s="1">
+        <v>3</v>
+      </c>
+      <c r="U10" s="1">
+        <v>5</v>
+      </c>
+      <c r="V10" s="1">
+        <v>55</v>
+      </c>
+      <c r="W10" s="1">
+        <v>43</v>
+      </c>
+      <c r="X10" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>220</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5</v>
+      </c>
+      <c r="O11" t="s">
+        <v>220</v>
+      </c>
+      <c r="P11" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>5</v>
+      </c>
+      <c r="R11" s="1">
+        <v>4</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>5</v>
+      </c>
+      <c r="U11" s="1">
+        <v>2</v>
+      </c>
+      <c r="V11" s="1">
+        <v>51</v>
+      </c>
+      <c r="W11" s="1">
+        <v>47</v>
+      </c>
+      <c r="X11" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>5</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>43</v>
+      </c>
+      <c r="W12" s="1">
+        <v>49</v>
+      </c>
+      <c r="X12" s="1">
+        <v>92</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>34</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>2.7059000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>7</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4</v>
+      </c>
+      <c r="T13" s="1">
+        <v>4</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>53</v>
+      </c>
+      <c r="W13" s="1">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" t="s">
-        <v>235</v>
-      </c>
-      <c r="X2" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>250</v>
+      <c r="X13" s="1">
+        <v>90</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>34</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>2.6471</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>220</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>4</v>
+      </c>
+      <c r="S14" s="1">
+        <v>7</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" t="s">
+        <v>220</v>
+      </c>
+      <c r="V14" s="1">
+        <v>50</v>
+      </c>
+      <c r="W14" s="1">
+        <v>38</v>
+      </c>
+      <c r="X14" s="1">
+        <v>88</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>34</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>2.5882000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+      <c r="P15" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>3</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>3</v>
+      </c>
+      <c r="U15" s="1">
+        <v>3</v>
+      </c>
+      <c r="V15" s="1">
+        <v>43</v>
+      </c>
+      <c r="W15" s="1">
+        <v>44</v>
+      </c>
+      <c r="X15" s="1">
+        <v>87</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>2.4857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>220</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>4</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>6</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>7</v>
+      </c>
+      <c r="T16" s="1">
+        <v>3</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>45</v>
+      </c>
+      <c r="W16" s="1">
+        <v>42</v>
+      </c>
+      <c r="X16" s="1">
+        <v>87</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>2.4857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>220</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>5</v>
+      </c>
+      <c r="T17" s="1">
+        <v>5</v>
+      </c>
+      <c r="U17" t="s">
+        <v>220</v>
+      </c>
+      <c r="V17" s="1">
+        <v>43</v>
+      </c>
+      <c r="W17" s="1">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" t="s">
-        <v>79</v>
-      </c>
-      <c r="V3" t="s">
-        <v>61</v>
-      </c>
-      <c r="W3" t="s">
-        <v>93</v>
-      </c>
-      <c r="X3" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>251</v>
+      <c r="X17" s="1">
+        <v>82</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>2.3429000000000002</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>220</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>220</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>3</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>3</v>
+      </c>
+      <c r="U18" s="1">
+        <v>3</v>
+      </c>
+      <c r="V18" s="1">
+        <v>34</v>
+      </c>
+      <c r="W18" s="1">
+        <v>44</v>
+      </c>
+      <c r="X18" s="1">
+        <v>78</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>34</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>2.2940999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>4</v>
+      </c>
+      <c r="S19" s="1">
+        <v>3</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>2</v>
+      </c>
+      <c r="V19" s="1">
+        <v>38</v>
+      </c>
+      <c r="W19" s="1">
+        <v>42</v>
+      </c>
+      <c r="X19" s="1">
+        <v>80</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>2.2856999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>220</v>
-      </c>
-      <c r="N4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" t="s">
-        <v>220</v>
-      </c>
-      <c r="U4" t="s">
-        <v>14</v>
-      </c>
-      <c r="V4" t="s">
-        <v>93</v>
-      </c>
-      <c r="W4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>252</v>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>220</v>
+      </c>
+      <c r="N20" s="1">
+        <v>5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>3</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s">
+        <v>220</v>
+      </c>
+      <c r="U20" s="1">
+        <v>6</v>
+      </c>
+      <c r="V20" s="1">
+        <v>37</v>
+      </c>
+      <c r="W20" s="1">
+        <v>40</v>
+      </c>
+      <c r="X20" s="1">
+        <v>77</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>35</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>220</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>220</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T5" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" t="s">
-        <v>11</v>
-      </c>
-      <c r="V5" t="s">
-        <v>50</v>
-      </c>
-      <c r="W5" t="s">
-        <v>235</v>
-      </c>
-      <c r="X5" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>220</v>
-      </c>
-      <c r="L6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S6" t="s">
-        <v>15</v>
-      </c>
-      <c r="T6" t="s">
-        <v>11</v>
-      </c>
-      <c r="U6" t="s">
-        <v>79</v>
-      </c>
-      <c r="V6" t="s">
-        <v>69</v>
-      </c>
-      <c r="W6" t="s">
-        <v>71</v>
-      </c>
-      <c r="X6" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
-      <c r="O7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" t="s">
-        <v>13</v>
-      </c>
-      <c r="U7" t="s">
-        <v>9</v>
-      </c>
-      <c r="V7" t="s">
-        <v>68</v>
-      </c>
-      <c r="W7" t="s">
-        <v>60</v>
-      </c>
-      <c r="X7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>220</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" t="s">
-        <v>15</v>
-      </c>
-      <c r="T8" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" t="s">
-        <v>220</v>
-      </c>
-      <c r="V8" t="s">
-        <v>91</v>
-      </c>
-      <c r="W8" t="s">
-        <v>72</v>
-      </c>
-      <c r="X8" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>220</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>220</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" t="s">
-        <v>11</v>
-      </c>
-      <c r="O9" t="s">
-        <v>220</v>
-      </c>
-      <c r="P9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>79</v>
-      </c>
-      <c r="R9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" t="s">
-        <v>10</v>
-      </c>
-      <c r="T9" t="s">
-        <v>79</v>
-      </c>
-      <c r="U9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V9" t="s">
-        <v>233</v>
-      </c>
-      <c r="W9" t="s">
-        <v>93</v>
-      </c>
-      <c r="X9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>220</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R10" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" t="s">
-        <v>220</v>
-      </c>
-      <c r="T10" t="s">
-        <v>11</v>
-      </c>
-      <c r="U10" t="s">
-        <v>9</v>
-      </c>
-      <c r="V10" t="s">
-        <v>69</v>
-      </c>
-      <c r="W10" t="s">
-        <v>58</v>
-      </c>
-      <c r="X10" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>220</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" t="s">
-        <v>220</v>
-      </c>
-      <c r="S11" t="s">
-        <v>11</v>
-      </c>
-      <c r="T11" t="s">
-        <v>11</v>
-      </c>
-      <c r="U11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V11" t="s">
-        <v>75</v>
-      </c>
-      <c r="W11" t="s">
-        <v>92</v>
-      </c>
-      <c r="X11" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>220</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>220</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>2</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1</v>
+      </c>
+      <c r="V21" s="1">
+        <v>33</v>
+      </c>
+      <c r="W21" s="1">
+        <v>37</v>
+      </c>
+      <c r="X21" s="1">
+        <v>70</v>
+      </c>
+      <c r="Y21" s="1">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>220</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" t="s">
-        <v>220</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O12" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" t="s">
-        <v>10</v>
-      </c>
-      <c r="T12" t="s">
-        <v>11</v>
-      </c>
-      <c r="U12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" t="s">
-        <v>73</v>
-      </c>
-      <c r="W12" t="s">
-        <v>60</v>
-      </c>
-      <c r="X12" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>220</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" t="s">
-        <v>220</v>
-      </c>
-      <c r="N13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T13" t="s">
-        <v>11</v>
-      </c>
-      <c r="U13" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W13" t="s">
-        <v>68</v>
-      </c>
-      <c r="X13" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>220</v>
-      </c>
-      <c r="J14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" t="s">
-        <v>220</v>
-      </c>
-      <c r="L14" t="s">
-        <v>220</v>
-      </c>
-      <c r="M14" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" t="s">
-        <v>220</v>
-      </c>
-      <c r="O14" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>17</v>
-      </c>
-      <c r="R14" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" t="s">
-        <v>9</v>
-      </c>
-      <c r="T14" t="s">
-        <v>9</v>
-      </c>
-      <c r="U14" t="s">
-        <v>9</v>
-      </c>
-      <c r="V14" t="s">
-        <v>55</v>
-      </c>
-      <c r="W14" t="s">
-        <v>92</v>
-      </c>
-      <c r="X14" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" t="s">
-        <v>220</v>
-      </c>
-      <c r="N15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" t="s">
-        <v>220</v>
-      </c>
-      <c r="P15" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>13</v>
-      </c>
-      <c r="R15" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" t="s">
-        <v>11</v>
-      </c>
-      <c r="T15" t="s">
-        <v>13</v>
-      </c>
-      <c r="U15" t="s">
-        <v>10</v>
-      </c>
-      <c r="V15" t="s">
-        <v>234</v>
-      </c>
-      <c r="W15" t="s">
-        <v>73</v>
-      </c>
-      <c r="X15" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N16" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>10</v>
-      </c>
-      <c r="R16" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" t="s">
-        <v>11</v>
-      </c>
-      <c r="T16" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" t="s">
-        <v>10</v>
-      </c>
-      <c r="V16" t="s">
-        <v>72</v>
-      </c>
-      <c r="W16" t="s">
-        <v>71</v>
-      </c>
-      <c r="X16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>220</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>220</v>
-      </c>
-      <c r="J17" t="s">
-        <v>220</v>
-      </c>
-      <c r="K17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" t="s">
-        <v>9</v>
-      </c>
-      <c r="N17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>220</v>
-      </c>
-      <c r="R17" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" t="s">
-        <v>10</v>
-      </c>
-      <c r="T17" t="s">
-        <v>79</v>
-      </c>
-      <c r="U17" t="s">
-        <v>11</v>
-      </c>
-      <c r="V17" t="s">
-        <v>68</v>
-      </c>
-      <c r="W17" t="s">
-        <v>236</v>
-      </c>
-      <c r="X17" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>11</v>
-      </c>
-      <c r="R18" t="s">
-        <v>220</v>
-      </c>
-      <c r="S18" t="s">
-        <v>10</v>
-      </c>
-      <c r="T18" t="s">
-        <v>14</v>
-      </c>
-      <c r="U18" t="s">
-        <v>220</v>
-      </c>
-      <c r="V18" t="s">
-        <v>91</v>
-      </c>
-      <c r="W18" t="s">
-        <v>90</v>
-      </c>
-      <c r="X18" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" t="s">
-        <v>79</v>
-      </c>
-      <c r="P19" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>11</v>
-      </c>
-      <c r="R19" t="s">
-        <v>9</v>
-      </c>
-      <c r="S19" t="s">
-        <v>220</v>
-      </c>
-      <c r="T19" t="s">
-        <v>220</v>
-      </c>
-      <c r="U19" t="s">
-        <v>10</v>
-      </c>
-      <c r="V19" t="s">
-        <v>73</v>
-      </c>
-      <c r="W19" t="s">
-        <v>61</v>
-      </c>
-      <c r="X19" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>220</v>
-      </c>
-      <c r="R20" t="s">
-        <v>11</v>
-      </c>
-      <c r="S20" t="s">
-        <v>11</v>
-      </c>
-      <c r="T20" t="s">
-        <v>220</v>
-      </c>
-      <c r="U20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V20" t="s">
-        <v>234</v>
-      </c>
-      <c r="W20" t="s">
-        <v>60</v>
-      </c>
-      <c r="X20" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" t="s">
-        <v>220</v>
-      </c>
-      <c r="O21" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R21" t="s">
-        <v>10</v>
-      </c>
-      <c r="S21" t="s">
-        <v>13</v>
-      </c>
-      <c r="T21" t="s">
-        <v>13</v>
-      </c>
-      <c r="U21" t="s">
-        <v>220</v>
-      </c>
-      <c r="V21" t="s">
-        <v>68</v>
-      </c>
-      <c r="W21" t="s">
-        <v>70</v>
-      </c>
-      <c r="X21" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>264</v>
+      <c r="Z21" s="1">
+        <v>2.0588000000000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sortState ref="A2:Z21">
+    <sortCondition descending="1" ref="Z2:Z21"/>
+  </sortState>
+  <conditionalFormatting sqref="B2:U21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A11" activeCellId="1" sqref="A14:XFD14 A11:XFD11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="D1" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="G1" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="H1" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="I1" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="J1" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="K1" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="L1" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="M1" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="N1" t="s">
         <v>231</v>
       </c>
       <c r="O1" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="P1" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="Q1" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="R1" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="S1" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="T1" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="U1" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="V1" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="W1" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="X1" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="Y1" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="C2">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>70</v>
+      </c>
+      <c r="E2">
+        <v>142</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
         <v>1.2222222222222223</v>
       </c>
-      <c r="H2" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>27</v>
+      </c>
+      <c r="I2">
         <v>1.588235294117647</v>
       </c>
-      <c r="J2" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L2" t="s">
-        <v>307</v>
-      </c>
-      <c r="M2" t="s">
-        <v>327</v>
-      </c>
-      <c r="N2" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="J2">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="N2">
+        <v>35</v>
+      </c>
+      <c r="O2">
+        <v>53</v>
+      </c>
+      <c r="P2">
+        <v>67</v>
+      </c>
+      <c r="Q2">
+        <v>120</v>
+      </c>
+      <c r="R2">
+        <v>21</v>
+      </c>
+      <c r="S2">
         <v>1.1666666666666667</v>
       </c>
-      <c r="T2" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>346</v>
-      </c>
-      <c r="X2" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>380</v>
+      <c r="T2">
+        <v>17</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>38</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.3962</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.25369999999999998</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.31669999999999998</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>173.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>83</v>
+      </c>
+      <c r="E3">
+        <v>173</v>
+      </c>
+      <c r="F3">
+        <v>27</v>
+      </c>
+      <c r="G3">
         <v>1.588235294117647</v>
       </c>
-      <c r="H3" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3">
+        <v>22</v>
+      </c>
+      <c r="I3">
         <v>1.2941176470588236</v>
       </c>
-      <c r="J3" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>289</v>
-      </c>
-      <c r="L3" t="s">
-        <v>308</v>
-      </c>
-      <c r="M3" t="s">
-        <v>328</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>165.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="J3">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.2651</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="N3">
+        <v>34</v>
+      </c>
+      <c r="O3">
+        <v>82</v>
+      </c>
+      <c r="P3">
+        <v>83</v>
+      </c>
+      <c r="Q3">
+        <v>165</v>
+      </c>
+      <c r="R3">
+        <v>26</v>
+      </c>
+      <c r="S3">
         <v>1.5294117647058822</v>
       </c>
-      <c r="T3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="V3" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="W3" t="s">
-        <v>347</v>
-      </c>
-      <c r="X3" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>381</v>
+      <c r="T3">
+        <v>15</v>
+      </c>
+      <c r="U3">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="V3">
+        <v>41</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.31709999999999999</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.1807</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.2485</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>11</v>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="C4">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>62</v>
+      </c>
+      <c r="E4">
+        <v>134</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
         <v>1.0588235294117647</v>
       </c>
-      <c r="H4" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>290</v>
-      </c>
-      <c r="L4" t="s">
-        <v>309</v>
-      </c>
-      <c r="M4" t="s">
-        <v>329</v>
-      </c>
-      <c r="N4" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>115.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.2903</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.26869999999999999</v>
+      </c>
+      <c r="N4">
+        <v>35</v>
+      </c>
+      <c r="O4">
+        <v>45</v>
+      </c>
+      <c r="P4">
+        <v>70</v>
+      </c>
+      <c r="Q4">
+        <v>115</v>
+      </c>
+      <c r="R4">
+        <v>19</v>
+      </c>
+      <c r="S4">
         <v>1.1176470588235294</v>
       </c>
-      <c r="T4" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="T4">
+        <v>22</v>
+      </c>
+      <c r="U4">
         <v>1.2222222222222223</v>
       </c>
-      <c r="V4" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>348</v>
-      </c>
-      <c r="X4" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>382</v>
+      <c r="V4">
+        <v>41</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.35649999999999998</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>12</v>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="C5" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>114.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="H5" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>291</v>
-      </c>
-      <c r="L5" t="s">
-        <v>310</v>
-      </c>
-      <c r="M5" t="s">
-        <v>330</v>
-      </c>
-      <c r="N5" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>172.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <v>114</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.2545</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.28810000000000002</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.27189999999999998</v>
+      </c>
+      <c r="N5">
+        <v>34</v>
+      </c>
+      <c r="O5">
+        <v>77</v>
+      </c>
+      <c r="P5">
+        <v>95</v>
+      </c>
+      <c r="Q5">
+        <v>172</v>
+      </c>
+      <c r="R5">
+        <v>20</v>
+      </c>
+      <c r="S5">
         <v>1.1764705882352942</v>
       </c>
-      <c r="T5" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="T5">
+        <v>27</v>
+      </c>
+      <c r="U5">
         <v>1.588235294117647</v>
       </c>
-      <c r="V5" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>349</v>
-      </c>
-      <c r="X5" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>383</v>
+      <c r="V5">
+        <v>47</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.28420000000000001</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.27329999999999999</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>191.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="C6">
+        <v>101</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>191</v>
+      </c>
+      <c r="F6">
+        <v>29</v>
+      </c>
+      <c r="G6">
         <v>1.7058823529411764</v>
       </c>
-      <c r="H6" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6">
+        <v>26</v>
+      </c>
+      <c r="I6">
         <v>1.4444444444444444</v>
       </c>
-      <c r="J6" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>292</v>
-      </c>
-      <c r="L6" t="s">
-        <v>311</v>
-      </c>
-      <c r="M6" t="s">
-        <v>331</v>
-      </c>
-      <c r="N6" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-      <c r="T6" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="V6" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="W6" t="s">
-        <v>350</v>
-      </c>
-      <c r="X6" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>384</v>
+      <c r="J6">
+        <v>55</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.28710000000000002</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.28889999999999999</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="N6">
+        <v>35</v>
+      </c>
+      <c r="O6">
+        <v>48</v>
+      </c>
+      <c r="P6">
+        <v>53</v>
+      </c>
+      <c r="Q6">
+        <v>101</v>
+      </c>
+      <c r="R6">
+        <v>16</v>
+      </c>
+      <c r="S6">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="T6">
+        <v>16</v>
+      </c>
+      <c r="U6">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="V6">
+        <v>32</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.3019</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.31680000000000003</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>14</v>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-      <c r="H7" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="C7">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>63</v>
+      </c>
+      <c r="E7">
+        <v>109</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
         <v>1.1764705882352942</v>
       </c>
-      <c r="J7" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M7" t="s">
-        <v>332</v>
-      </c>
-      <c r="N7" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>158.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="J7">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.3478</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.3175</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.33029999999999998</v>
+      </c>
+      <c r="N7">
+        <v>34</v>
+      </c>
+      <c r="O7">
+        <v>76</v>
+      </c>
+      <c r="P7">
+        <v>82</v>
+      </c>
+      <c r="Q7">
+        <v>158</v>
+      </c>
+      <c r="R7">
+        <v>27</v>
+      </c>
+      <c r="S7">
         <v>1.588235294117647</v>
       </c>
-      <c r="T7" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="T7">
+        <v>29</v>
+      </c>
+      <c r="U7">
         <v>1.7058823529411764</v>
       </c>
-      <c r="V7" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>351</v>
-      </c>
-      <c r="X7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>315</v>
+      <c r="V7">
+        <v>56</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0.3553</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0.35439999999999999</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="C8">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>130</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8">
         <v>1.3529411764705883</v>
       </c>
-      <c r="H8" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>23</v>
+      </c>
+      <c r="I8">
         <v>1.3529411764705883</v>
       </c>
-      <c r="J8" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>294</v>
-      </c>
-      <c r="L8" t="s">
-        <v>313</v>
-      </c>
-      <c r="M8" t="s">
-        <v>333</v>
-      </c>
-      <c r="N8" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>144.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="J8">
+        <v>46</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.3594</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.3538</v>
+      </c>
+      <c r="N8">
+        <v>34</v>
+      </c>
+      <c r="O8">
+        <v>76</v>
+      </c>
+      <c r="P8">
+        <v>68</v>
+      </c>
+      <c r="Q8">
+        <v>144</v>
+      </c>
+      <c r="R8">
+        <v>27</v>
+      </c>
+      <c r="S8">
         <v>1.588235294117647</v>
       </c>
-      <c r="T8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="V8" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="W8" t="s">
-        <v>351</v>
-      </c>
-      <c r="X8" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>385</v>
+      <c r="T8">
+        <v>15</v>
+      </c>
+      <c r="U8">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="V8">
+        <v>42</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0.3553</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0.29170000000000001</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>16</v>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>125.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="H9" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9411764705882353</v>
-      </c>
-      <c r="J9" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>295</v>
-      </c>
-      <c r="L9" t="s">
-        <v>314</v>
-      </c>
-      <c r="M9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N9" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>151.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>125</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="J9">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.2462</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N9">
+        <v>34</v>
+      </c>
+      <c r="O9">
+        <v>76</v>
+      </c>
+      <c r="P9">
+        <v>75</v>
+      </c>
+      <c r="Q9">
+        <v>151</v>
+      </c>
+      <c r="R9">
+        <v>24</v>
+      </c>
+      <c r="S9">
         <v>1.411764705882353</v>
       </c>
-      <c r="T9" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="T9">
+        <v>21</v>
+      </c>
+      <c r="U9">
         <v>1.2352941176470589</v>
       </c>
-      <c r="V9" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="W9" t="s">
-        <v>352</v>
-      </c>
-      <c r="X9" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>386</v>
+      <c r="V9">
+        <v>45</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>17</v>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>177.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="C10">
+        <v>98</v>
+      </c>
+      <c r="D10">
+        <v>79</v>
+      </c>
+      <c r="E10">
+        <v>177</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
         <v>1.3888888888888888</v>
       </c>
-      <c r="H10" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10">
+        <v>28</v>
+      </c>
+      <c r="I10">
         <v>1.6470588235294117</v>
       </c>
-      <c r="J10" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>296</v>
-      </c>
-      <c r="L10" t="s">
-        <v>315</v>
-      </c>
-      <c r="M10" t="s">
-        <v>335</v>
-      </c>
-      <c r="N10" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>189.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="J10">
+        <v>53</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.25509999999999999</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.2994</v>
+      </c>
+      <c r="N10">
+        <v>35</v>
+      </c>
+      <c r="O10">
+        <v>82</v>
+      </c>
+      <c r="P10">
+        <v>107</v>
+      </c>
+      <c r="Q10">
+        <v>189</v>
+      </c>
+      <c r="R10">
+        <v>20</v>
+      </c>
+      <c r="S10">
         <v>1.1111111111111112</v>
       </c>
-      <c r="T10" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="T10">
+        <v>33</v>
+      </c>
+      <c r="U10">
         <v>1.9411764705882353</v>
       </c>
-      <c r="V10" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="W10" t="s">
-        <v>353</v>
-      </c>
-      <c r="X10" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>387</v>
+      <c r="V10">
+        <v>53</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0.30840000000000001</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0.28039999999999998</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>18</v>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>173.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="C11">
+        <v>88</v>
+      </c>
+      <c r="D11">
+        <v>85</v>
+      </c>
+      <c r="E11">
+        <v>173</v>
+      </c>
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11">
         <v>1.7777777777777777</v>
       </c>
-      <c r="H11" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11">
+        <v>31</v>
+      </c>
+      <c r="I11">
         <v>1.8235294117647058</v>
       </c>
-      <c r="J11" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>297</v>
-      </c>
-      <c r="L11" t="s">
-        <v>316</v>
-      </c>
-      <c r="M11" t="s">
-        <v>336</v>
-      </c>
-      <c r="N11" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>128.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="J11">
+        <v>63</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.36470000000000002</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.36420000000000002</v>
+      </c>
+      <c r="N11">
+        <v>35</v>
+      </c>
+      <c r="O11">
+        <v>72</v>
+      </c>
+      <c r="P11">
+        <v>56</v>
+      </c>
+      <c r="Q11">
+        <v>128</v>
+      </c>
+      <c r="R11">
+        <v>26</v>
+      </c>
+      <c r="S11">
         <v>1.4444444444444444</v>
       </c>
-      <c r="T11" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="W11" t="s">
-        <v>325</v>
-      </c>
-      <c r="X11" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>388</v>
+      <c r="T11">
+        <v>17</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>43</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0.33589999999999998</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>19</v>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="C12">
+        <v>104</v>
+      </c>
+      <c r="D12">
+        <v>88</v>
+      </c>
+      <c r="E12">
+        <v>192</v>
+      </c>
+      <c r="F12">
+        <v>27</v>
+      </c>
+      <c r="G12">
         <v>1.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
         <v>1.875</v>
       </c>
-      <c r="J12" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>298</v>
-      </c>
-      <c r="L12" t="s">
-        <v>317</v>
-      </c>
-      <c r="M12" t="s">
-        <v>337</v>
-      </c>
-      <c r="N12" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="J12">
+        <v>57</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.2596</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.2969</v>
+      </c>
+      <c r="N12">
+        <v>34</v>
+      </c>
+      <c r="O12">
+        <v>69</v>
+      </c>
+      <c r="P12">
+        <v>61</v>
+      </c>
+      <c r="Q12">
+        <v>130</v>
+      </c>
+      <c r="R12">
+        <v>20</v>
+      </c>
+      <c r="S12">
         <v>1.1111111111111112</v>
       </c>
-      <c r="T12" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="T12">
+        <v>19</v>
+      </c>
+      <c r="U12">
         <v>1.1875</v>
       </c>
-      <c r="V12" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>354</v>
-      </c>
-      <c r="X12" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>289</v>
+      <c r="V12">
+        <v>39</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0.3115</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>20</v>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>198.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.111111111111111</v>
-      </c>
-      <c r="H13" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>299</v>
-      </c>
-      <c r="L13" t="s">
-        <v>318</v>
-      </c>
-      <c r="M13" t="s">
-        <v>297</v>
-      </c>
-      <c r="N13" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="T13" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="V13" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="W13" t="s">
-        <v>355</v>
-      </c>
-      <c r="X13" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>389</v>
+      <c r="C13">
+        <v>109</v>
+      </c>
+      <c r="D13">
+        <v>89</v>
+      </c>
+      <c r="E13">
+        <v>198</v>
+      </c>
+      <c r="F13">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="H13">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>72</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.34860000000000002</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="N13">
+        <v>35</v>
+      </c>
+      <c r="O13">
+        <v>50</v>
+      </c>
+      <c r="P13">
+        <v>36</v>
+      </c>
+      <c r="Q13">
+        <v>86</v>
+      </c>
+      <c r="R13">
+        <v>17</v>
+      </c>
+      <c r="S13">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="T13">
+        <v>9</v>
+      </c>
+      <c r="U13">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="V13">
+        <v>26</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0.30230000000000001</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>21</v>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>198.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="C14">
+        <v>97</v>
+      </c>
+      <c r="D14">
+        <v>101</v>
+      </c>
+      <c r="E14">
+        <v>198</v>
+      </c>
+      <c r="F14">
+        <v>34</v>
+      </c>
+      <c r="G14">
         <v>2.125</v>
       </c>
-      <c r="H14" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14">
+        <v>33</v>
+      </c>
+      <c r="I14">
         <v>1.8333333333333333</v>
       </c>
-      <c r="J14" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>300</v>
-      </c>
-      <c r="L14" t="s">
-        <v>319</v>
-      </c>
-      <c r="M14" t="s">
-        <v>338</v>
-      </c>
-      <c r="N14" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="J14">
+        <v>67</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.35049999999999998</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.33839999999999998</v>
+      </c>
+      <c r="N14">
+        <v>34</v>
+      </c>
+      <c r="O14">
+        <v>52</v>
+      </c>
+      <c r="P14">
+        <v>68</v>
+      </c>
+      <c r="Q14">
+        <v>120</v>
+      </c>
+      <c r="R14">
+        <v>21</v>
+      </c>
+      <c r="S14">
         <v>1.3125</v>
       </c>
-      <c r="T14" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="V14" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="W14" t="s">
-        <v>356</v>
-      </c>
-      <c r="X14" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>289</v>
+      <c r="T14">
+        <v>15</v>
+      </c>
+      <c r="U14">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="V14">
+        <v>36</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>22</v>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>128.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="C15">
+        <v>69</v>
+      </c>
+      <c r="D15">
+        <v>59</v>
+      </c>
+      <c r="E15">
+        <v>128</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15">
         <v>1.2941176470588236</v>
       </c>
-      <c r="H15" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>301</v>
-      </c>
-      <c r="L15" t="s">
-        <v>320</v>
-      </c>
-      <c r="M15" t="s">
-        <v>339</v>
-      </c>
-      <c r="N15" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>186.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.30509999999999998</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="N15">
+        <v>35</v>
+      </c>
+      <c r="O15">
+        <v>80</v>
+      </c>
+      <c r="P15">
+        <v>106</v>
+      </c>
+      <c r="Q15">
+        <v>186</v>
+      </c>
+      <c r="R15">
+        <v>29</v>
+      </c>
+      <c r="S15">
         <v>1.7058823529411764</v>
       </c>
-      <c r="T15" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="T15">
+        <v>29</v>
+      </c>
+      <c r="U15">
         <v>1.6111111111111112</v>
       </c>
-      <c r="V15" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="W15" t="s">
-        <v>357</v>
-      </c>
-      <c r="X15" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>390</v>
+      <c r="V15">
+        <v>58</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0.27360000000000001</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0.31180000000000002</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>23</v>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="J16" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>302</v>
-      </c>
-      <c r="L16" t="s">
-        <v>321</v>
-      </c>
-      <c r="M16" t="s">
-        <v>340</v>
-      </c>
-      <c r="N16" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>198.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="S16" t="n">
+      <c r="C16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>92</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="J16">
+        <v>18</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.19439999999999999</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.19570000000000001</v>
+      </c>
+      <c r="N16">
+        <v>35</v>
+      </c>
+      <c r="O16">
+        <v>94</v>
+      </c>
+      <c r="P16">
+        <v>104</v>
+      </c>
+      <c r="Q16">
+        <v>198</v>
+      </c>
+      <c r="R16">
+        <v>27</v>
+      </c>
+      <c r="S16">
         <v>1.5</v>
       </c>
-      <c r="T16" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="T16">
+        <v>35</v>
+      </c>
+      <c r="U16">
         <v>2.0588235294117645</v>
       </c>
-      <c r="V16" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="W16" t="s">
-        <v>358</v>
-      </c>
-      <c r="X16" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>391</v>
+      <c r="V16">
+        <v>62</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0.28720000000000001</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0.33650000000000002</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0.31309999999999999</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>24</v>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>145.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="C17">
+        <v>78</v>
+      </c>
+      <c r="D17">
+        <v>67</v>
+      </c>
+      <c r="E17">
+        <v>145</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17">
         <v>1.375</v>
       </c>
-      <c r="H17" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17">
+        <v>19</v>
+      </c>
+      <c r="I17">
         <v>1.0555555555555556</v>
       </c>
-      <c r="J17" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>303</v>
-      </c>
-      <c r="L17" t="s">
-        <v>322</v>
-      </c>
-      <c r="M17" t="s">
-        <v>341</v>
-      </c>
-      <c r="N17" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>159.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="J17">
+        <v>41</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.28360000000000002</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.2828</v>
+      </c>
+      <c r="N17">
+        <v>34</v>
+      </c>
+      <c r="O17">
+        <v>63</v>
+      </c>
+      <c r="P17">
+        <v>96</v>
+      </c>
+      <c r="Q17">
+        <v>159</v>
+      </c>
+      <c r="R17">
+        <v>21</v>
+      </c>
+      <c r="S17">
         <v>1.3125</v>
       </c>
-      <c r="T17" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="T17">
+        <v>40</v>
+      </c>
+      <c r="U17">
         <v>2.2222222222222223</v>
       </c>
-      <c r="V17" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="W17" t="s">
-        <v>350</v>
-      </c>
-      <c r="X17" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>392</v>
+      <c r="V17">
+        <v>61</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0.3836</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>25</v>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>155.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="C18">
+        <v>86</v>
+      </c>
+      <c r="D18">
+        <v>69</v>
+      </c>
+      <c r="E18">
+        <v>155</v>
+      </c>
+      <c r="F18">
+        <v>32</v>
+      </c>
+      <c r="G18">
         <v>1.8823529411764706</v>
       </c>
-      <c r="H18" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H18">
+        <v>29</v>
+      </c>
+      <c r="I18">
         <v>1.6111111111111112</v>
       </c>
-      <c r="J18" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>304</v>
-      </c>
-      <c r="L18" t="s">
-        <v>323</v>
-      </c>
-      <c r="M18" t="s">
-        <v>342</v>
-      </c>
-      <c r="N18" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>145.0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="J18">
+        <v>61</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.42030000000000001</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.39350000000000002</v>
+      </c>
+      <c r="N18">
+        <v>35</v>
+      </c>
+      <c r="O18">
+        <v>58</v>
+      </c>
+      <c r="P18">
+        <v>87</v>
+      </c>
+      <c r="Q18">
+        <v>145</v>
+      </c>
+      <c r="R18">
+        <v>18</v>
+      </c>
+      <c r="S18">
         <v>1.0588235294117647</v>
       </c>
-      <c r="T18" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="T18">
+        <v>23</v>
+      </c>
+      <c r="U18">
         <v>1.2777777777777777</v>
       </c>
-      <c r="V18" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="W18" t="s">
-        <v>359</v>
-      </c>
-      <c r="X18" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>341</v>
+      <c r="V18">
+        <v>41</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0.2828</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>26</v>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="H19" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="C19">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19">
         <v>1.0555555555555556</v>
       </c>
-      <c r="J19" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>290</v>
-      </c>
-      <c r="L19" t="s">
-        <v>324</v>
-      </c>
-      <c r="M19" t="s">
-        <v>343</v>
-      </c>
-      <c r="N19" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>114.0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>222.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="J19">
+        <v>32</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="N19">
+        <v>35</v>
+      </c>
+      <c r="O19">
+        <v>114</v>
+      </c>
+      <c r="P19">
+        <v>108</v>
+      </c>
+      <c r="Q19">
+        <v>222</v>
+      </c>
+      <c r="R19">
+        <v>34</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>34</v>
+      </c>
+      <c r="U19">
         <v>1.8888888888888888</v>
       </c>
-      <c r="V19" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="W19" t="s">
-        <v>360</v>
-      </c>
-      <c r="X19" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>393</v>
+      <c r="V19">
+        <v>68</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0.29820000000000002</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0.31480000000000002</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0.30630000000000002</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>27</v>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="C20">
+        <v>74</v>
+      </c>
+      <c r="D20">
+        <v>72</v>
+      </c>
+      <c r="E20">
+        <v>146</v>
+      </c>
+      <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="G20">
         <v>1.6111111111111112</v>
       </c>
-      <c r="H20" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="H20">
+        <v>26</v>
+      </c>
+      <c r="I20">
         <v>1.5294117647058822</v>
       </c>
-      <c r="J20" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>305</v>
-      </c>
-      <c r="L20" t="s">
-        <v>325</v>
-      </c>
-      <c r="M20" t="s">
-        <v>344</v>
-      </c>
-      <c r="N20" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="S20" t="n">
+      <c r="J20">
+        <v>55</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.39190000000000003</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.37669999999999998</v>
+      </c>
+      <c r="N20">
+        <v>35</v>
+      </c>
+      <c r="O20">
+        <v>73</v>
+      </c>
+      <c r="P20">
+        <v>68</v>
+      </c>
+      <c r="Q20">
+        <v>141</v>
+      </c>
+      <c r="R20">
+        <v>22</v>
+      </c>
+      <c r="S20">
         <v>1.2222222222222223</v>
       </c>
-      <c r="T20" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="T20">
+        <v>23</v>
+      </c>
+      <c r="U20">
         <v>1.3529411764705883</v>
       </c>
-      <c r="V20" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="W20" t="s">
-        <v>361</v>
-      </c>
-      <c r="X20" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>394</v>
+      <c r="V20">
+        <v>45</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0.3014</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0.3382</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0.31909999999999999</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>28</v>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>144.0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="C21">
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <v>59</v>
+      </c>
+      <c r="E21">
+        <v>144</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
         <v>1.1111111111111112</v>
       </c>
-      <c r="H21" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="J21" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>306</v>
-      </c>
-      <c r="L21" t="s">
-        <v>326</v>
-      </c>
-      <c r="M21" t="s">
-        <v>345</v>
-      </c>
-      <c r="N21" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>136.0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="S21" t="n">
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="J21">
+        <v>35</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.23530000000000001</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.24310000000000001</v>
+      </c>
+      <c r="N21">
+        <v>35</v>
+      </c>
+      <c r="O21">
+        <v>68</v>
+      </c>
+      <c r="P21">
+        <v>68</v>
+      </c>
+      <c r="Q21">
+        <v>136</v>
+      </c>
+      <c r="R21">
+        <v>23</v>
+      </c>
+      <c r="S21">
         <v>1.2777777777777777</v>
       </c>
-      <c r="T21" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="T21">
+        <v>24</v>
+      </c>
+      <c r="U21">
         <v>1.411764705882353</v>
       </c>
-      <c r="V21" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="W21" t="s">
-        <v>362</v>
-      </c>
-      <c r="X21" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>395</v>
+      <c r="V21">
+        <v>47</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0.3382</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0.34560000000000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" activeCellId="1" sqref="A17:XFD17 A7:XFD7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>396</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
-        <v>397</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
-        <v>398</v>
+        <v>258</v>
       </c>
       <c r="E1" t="s">
-        <v>399</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="E2" t="s">
-        <v>460</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>401</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>421</v>
+        <v>281</v>
       </c>
       <c r="D3" t="s">
-        <v>441</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
-        <v>461</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>402</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>282</v>
       </c>
       <c r="D4" t="s">
-        <v>442</v>
+        <v>302</v>
       </c>
       <c r="E4" t="s">
-        <v>462</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>403</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>283</v>
       </c>
       <c r="D5" t="s">
-        <v>443</v>
+        <v>303</v>
       </c>
       <c r="E5" t="s">
-        <v>463</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>424</v>
+        <v>284</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>304</v>
       </c>
       <c r="E6" t="s">
-        <v>464</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>425</v>
+        <v>285</v>
       </c>
       <c r="D7" t="s">
-        <v>445</v>
+        <v>305</v>
       </c>
       <c r="E7" t="s">
-        <v>465</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>426</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
-        <v>446</v>
+        <v>306</v>
       </c>
       <c r="E8" t="s">
-        <v>466</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>407</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
-        <v>427</v>
+        <v>287</v>
       </c>
       <c r="D9" t="s">
-        <v>447</v>
+        <v>307</v>
       </c>
       <c r="E9" t="s">
-        <v>467</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>408</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>288</v>
       </c>
       <c r="D10" t="s">
-        <v>448</v>
+        <v>308</v>
       </c>
       <c r="E10" t="s">
-        <v>468</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>409</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
-        <v>429</v>
+        <v>289</v>
       </c>
       <c r="D11" t="s">
-        <v>449</v>
+        <v>309</v>
       </c>
       <c r="E11" t="s">
-        <v>469</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>410</v>
+        <v>270</v>
       </c>
       <c r="C12" t="s">
-        <v>430</v>
+        <v>290</v>
       </c>
       <c r="D12" t="s">
-        <v>450</v>
+        <v>310</v>
       </c>
       <c r="E12" t="s">
-        <v>470</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>411</v>
+        <v>271</v>
       </c>
       <c r="C13" t="s">
-        <v>431</v>
+        <v>291</v>
       </c>
       <c r="D13" t="s">
-        <v>451</v>
+        <v>311</v>
       </c>
       <c r="E13" t="s">
-        <v>471</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>412</v>
+        <v>272</v>
       </c>
       <c r="C14" t="s">
-        <v>432</v>
+        <v>292</v>
       </c>
       <c r="D14" t="s">
-        <v>452</v>
+        <v>312</v>
       </c>
       <c r="E14" t="s">
-        <v>472</v>
+        <v>332</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>413</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
-        <v>433</v>
+        <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>453</v>
+        <v>313</v>
       </c>
       <c r="E15" t="s">
-        <v>473</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>414</v>
+        <v>274</v>
       </c>
       <c r="C16" t="s">
-        <v>434</v>
+        <v>294</v>
       </c>
       <c r="D16" t="s">
-        <v>454</v>
+        <v>314</v>
       </c>
       <c r="E16" t="s">
-        <v>474</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>415</v>
+        <v>275</v>
       </c>
       <c r="C17" t="s">
-        <v>435</v>
+        <v>295</v>
       </c>
       <c r="D17" t="s">
-        <v>455</v>
+        <v>315</v>
       </c>
       <c r="E17" t="s">
-        <v>475</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>416</v>
+        <v>276</v>
       </c>
       <c r="C18" t="s">
-        <v>436</v>
+        <v>296</v>
       </c>
       <c r="D18" t="s">
-        <v>456</v>
+        <v>316</v>
       </c>
       <c r="E18" t="s">
-        <v>476</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>417</v>
+        <v>277</v>
       </c>
       <c r="C19" t="s">
-        <v>437</v>
+        <v>297</v>
       </c>
       <c r="D19" t="s">
-        <v>457</v>
+        <v>317</v>
       </c>
       <c r="E19" t="s">
-        <v>477</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>418</v>
+        <v>278</v>
       </c>
       <c r="C20" t="s">
-        <v>438</v>
+        <v>298</v>
       </c>
       <c r="D20" t="s">
-        <v>458</v>
+        <v>318</v>
       </c>
       <c r="E20" t="s">
-        <v>478</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>419</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
-        <v>439</v>
+        <v>299</v>
       </c>
       <c r="D21" t="s">
-        <v>459</v>
+        <v>319</v>
       </c>
       <c r="E21" t="s">
-        <v>479</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Divisions/E0.xlsx
+++ b/Divisions/E0.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\Divisions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="741" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" r:id="rId3" sheetId="1"/>
-    <sheet name="Form" r:id="rId4" sheetId="2"/>
-    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
-    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
-    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
-    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
-    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
-    <sheet name="L6" r:id="rId10" sheetId="8"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Form" sheetId="2" r:id="rId2"/>
+    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
+    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
+    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
+    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
+    <sheet name="Shots Analysis" sheetId="7" r:id="rId7"/>
+    <sheet name="L6" sheetId="8" r:id="rId8"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1320,184 +1327,184 @@
     <t>Wolves,W W L D W L</t>
   </si>
   <si>
-    <t>Arsenal,3 1 0 2 3 1</t>
-  </si>
-  <si>
-    <t>Aston Villa,1 2 2 1 0 2</t>
-  </si>
-  <si>
-    <t>Brighton,0 0 0 2 1 1</t>
-  </si>
-  <si>
-    <t>Burnley,1 1 4 1 2 0</t>
-  </si>
-  <si>
-    <t>Chelsea,4 0 1 2 2 0</t>
-  </si>
-  <si>
-    <t>Crystal Palace,1 1 0 2 1 3</t>
-  </si>
-  <si>
-    <t>Everton,2 1 1 1 0 0</t>
-  </si>
-  <si>
-    <t>Fulham,1 0 1 0 0 1</t>
-  </si>
-  <si>
-    <t>Leeds,2 1 0 0 3 4</t>
-  </si>
-  <si>
-    <t>Leicester,2 3 2 1 2 2</t>
-  </si>
-  <si>
-    <t>Liverpool,2 1 1 2 4 2</t>
-  </si>
-  <si>
-    <t>Man City,2 1 2 2 1 4</t>
-  </si>
-  <si>
-    <t>Man United,3 3 0 3 1 2</t>
-  </si>
-  <si>
-    <t>Newcastle,2 3 1 0 4 3</t>
-  </si>
-  <si>
-    <t>Sheffield United,0 0 1 0 0 1</t>
-  </si>
-  <si>
-    <t>Southampton,0 1 1 0 3 3</t>
-  </si>
-  <si>
-    <t>Tottenham,1 2 2 4 1 2</t>
-  </si>
-  <si>
-    <t>West Brom,3 0 2 1 1 1</t>
-  </si>
-  <si>
-    <t>West Ham,3 2 0 2 0 1</t>
-  </si>
-  <si>
-    <t>Wolves,1 1 0 1 2 0</t>
-  </si>
-  <si>
-    <t>Arsenal,0 1 1 0 1 0</t>
-  </si>
-  <si>
-    <t>Aston Villa,2 2 1 3 0 3</t>
-  </si>
-  <si>
-    <t>Brighton,0 0 1 0 2 1</t>
-  </si>
-  <si>
-    <t>Burnley,2 3 0 2 0 4</t>
-  </si>
-  <si>
-    <t>Chelsea,1 0 0 0 1 1</t>
-  </si>
-  <si>
-    <t>Crystal Palace,4 2 2 0 3 2</t>
-  </si>
-  <si>
-    <t>Everton,2 0 2 0 0 1</t>
-  </si>
-  <si>
-    <t>Fulham,3 1 1 2 2 3</t>
-  </si>
-  <si>
-    <t>Leeds,1 1 0 2 1 0</t>
-  </si>
-  <si>
-    <t>Leicester,3 0 1 1 4 1</t>
-  </si>
-  <si>
-    <t>Liverpool,1 1 1 0 2 1</t>
-  </si>
-  <si>
-    <t>Man City,0 2 1 0 2 3</t>
-  </si>
-  <si>
-    <t>Man United,1 1 0 1 2 4</t>
-  </si>
-  <si>
-    <t>Newcastle,1 2 1 2 2 4</t>
-  </si>
-  <si>
-    <t>Sheffield United,3 1 0 4 2 0</t>
-  </si>
-  <si>
-    <t>Southampton,3 2 1 2 1 1</t>
-  </si>
-  <si>
-    <t>Tottenham,3 2 1 0 3 0</t>
-  </si>
-  <si>
-    <t>West Brom,0 3 2 1 3 2</t>
-  </si>
-  <si>
-    <t>West Ham,2 3 1 1 1 1</t>
-  </si>
-  <si>
-    <t>Wolves,0 0 4 1 1 2</t>
-  </si>
-  <si>
-    <t>Arsenal,3 2 1 2 4 1</t>
-  </si>
-  <si>
-    <t>Aston Villa,3 4 3 4 0 5</t>
-  </si>
-  <si>
-    <t>Brighton,0 0 1 2 3 2</t>
-  </si>
-  <si>
-    <t>Burnley,3 4 4 3 2 4</t>
-  </si>
-  <si>
-    <t>Chelsea,5 0 1 2 3 1</t>
-  </si>
-  <si>
-    <t>Crystal Palace,5 3 2 2 4 5</t>
-  </si>
-  <si>
-    <t>Everton,4 1 3 1 0 1</t>
-  </si>
-  <si>
-    <t>Fulham,4 1 2 2 2 4</t>
-  </si>
-  <si>
-    <t>Leeds,3 2 0 2 4 4</t>
-  </si>
-  <si>
-    <t>Leicester,5 3 3 2 6 3</t>
-  </si>
-  <si>
-    <t>Liverpool,3 2 2 2 6 3</t>
-  </si>
-  <si>
-    <t>Man City,2 3 3 2 3 7</t>
-  </si>
-  <si>
-    <t>Man United,4 4 0 4 3 6</t>
-  </si>
-  <si>
-    <t>Newcastle,3 5 2 2 6 7</t>
-  </si>
-  <si>
-    <t>Sheffield United,3 1 1 4 2 1</t>
-  </si>
-  <si>
-    <t>Southampton,3 3 2 2 4 4</t>
-  </si>
-  <si>
-    <t>Tottenham,4 4 3 4 4 2</t>
-  </si>
-  <si>
-    <t>West Brom,3 3 4 2 4 3</t>
-  </si>
-  <si>
-    <t>West Ham,5 5 1 3 1 2</t>
-  </si>
-  <si>
-    <t>Wolves,1 1 4 2 3 2</t>
+    <t>Arsenal,3 1 0 2 3 1,(10)</t>
+  </si>
+  <si>
+    <t>Aston Villa,1 2 2 1 0 2,(8)</t>
+  </si>
+  <si>
+    <t>Brighton,0 0 0 2 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Burnley,1 1 4 1 2 0,(9)</t>
+  </si>
+  <si>
+    <t>Chelsea,4 0 1 2 2 0,(9)</t>
+  </si>
+  <si>
+    <t>Crystal Palace,1 1 0 2 1 3,(8)</t>
+  </si>
+  <si>
+    <t>Everton,2 1 1 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Fulham,1 0 1 0 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Leeds,2 1 0 0 3 4,(10)</t>
+  </si>
+  <si>
+    <t>Leicester,2 3 2 1 2 2,(12)</t>
+  </si>
+  <si>
+    <t>Liverpool,2 1 1 2 4 2,(12)</t>
+  </si>
+  <si>
+    <t>Man City,2 1 2 2 1 4,(12)</t>
+  </si>
+  <si>
+    <t>Man United,3 3 0 3 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Newcastle,2 3 1 0 4 3,(13)</t>
+  </si>
+  <si>
+    <t>Sheffield United,0 0 1 0 0 1,(2)</t>
+  </si>
+  <si>
+    <t>Southampton,0 1 1 0 3 3,(8)</t>
+  </si>
+  <si>
+    <t>Tottenham,1 2 2 4 1 2,(12)</t>
+  </si>
+  <si>
+    <t>West Brom,3 0 2 1 1 1,(8)</t>
+  </si>
+  <si>
+    <t>West Ham,3 2 0 2 0 1,(8)</t>
+  </si>
+  <si>
+    <t>Wolves,1 1 0 1 2 0,(5)</t>
+  </si>
+  <si>
+    <t>Arsenal,0 1 1 0 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Aston Villa,2 2 1 3 0 3,(11)</t>
+  </si>
+  <si>
+    <t>Brighton,0 0 1 0 2 1,(4)</t>
+  </si>
+  <si>
+    <t>Burnley,2 3 0 2 0 4,(11)</t>
+  </si>
+  <si>
+    <t>Chelsea,1 0 0 0 1 1,(3)</t>
+  </si>
+  <si>
+    <t>Crystal Palace,4 2 2 0 3 2,(13)</t>
+  </si>
+  <si>
+    <t>Everton,2 0 2 0 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Fulham,3 1 1 2 2 3,(12)</t>
+  </si>
+  <si>
+    <t>Leeds,1 1 0 2 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Leicester,3 0 1 1 4 1,(10)</t>
+  </si>
+  <si>
+    <t>Liverpool,1 1 1 0 2 1,(6)</t>
+  </si>
+  <si>
+    <t>Man City,0 2 1 0 2 3,(8)</t>
+  </si>
+  <si>
+    <t>Man United,1 1 0 1 2 4,(9)</t>
+  </si>
+  <si>
+    <t>Newcastle,1 2 1 2 2 4,(12)</t>
+  </si>
+  <si>
+    <t>Sheffield United,3 1 0 4 2 0,(10)</t>
+  </si>
+  <si>
+    <t>Southampton,3 2 1 2 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Tottenham,3 2 1 0 3 0,(9)</t>
+  </si>
+  <si>
+    <t>West Brom,0 3 2 1 3 2,(11)</t>
+  </si>
+  <si>
+    <t>West Ham,2 3 1 1 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Wolves,0 0 4 1 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Arsenal,3 2 1 2 4 1,(13)</t>
+  </si>
+  <si>
+    <t>Aston Villa,3 4 3 4 0 5,(19)</t>
+  </si>
+  <si>
+    <t>Brighton,0 0 1 2 3 2,(8)</t>
+  </si>
+  <si>
+    <t>Burnley,3 4 4 3 2 4,(20)</t>
+  </si>
+  <si>
+    <t>Chelsea,5 0 1 2 3 1,(12)</t>
+  </si>
+  <si>
+    <t>Crystal Palace,5 3 2 2 4 5,(21)</t>
+  </si>
+  <si>
+    <t>Everton,4 1 3 1 0 1,(10)</t>
+  </si>
+  <si>
+    <t>Fulham,4 1 2 2 2 4,(15)</t>
+  </si>
+  <si>
+    <t>Leeds,3 2 0 2 4 4,(15)</t>
+  </si>
+  <si>
+    <t>Leicester,5 3 3 2 6 3,(22)</t>
+  </si>
+  <si>
+    <t>Liverpool,3 2 2 2 6 3,(18)</t>
+  </si>
+  <si>
+    <t>Man City,2 3 3 2 3 7,(20)</t>
+  </si>
+  <si>
+    <t>Man United,4 4 0 4 3 6,(21)</t>
+  </si>
+  <si>
+    <t>Newcastle,3 5 2 2 6 7,(25)</t>
+  </si>
+  <si>
+    <t>Sheffield United,3 1 1 4 2 1,(12)</t>
+  </si>
+  <si>
+    <t>Southampton,3 3 2 2 4 4,(18)</t>
+  </si>
+  <si>
+    <t>Tottenham,4 4 3 4 4 2,(21)</t>
+  </si>
+  <si>
+    <t>West Brom,3 3 4 2 4 3,(19)</t>
+  </si>
+  <si>
+    <t>West Ham,5 5 1 3 1 2,(17)</t>
+  </si>
+  <si>
+    <t>Wolves,1 1 4 2 3 2,(13)</t>
   </si>
   <si>
     <t>Arsenal,Sheffield United Fulham Everton Newcastle West Brom Chelsea</t>
@@ -1563,11 +1570,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1579,7 +1585,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1597,19 +1603,292 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1670,7 +1949,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1702,7 +1981,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1734,7 +2013,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1766,7 +2045,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1798,7 +2077,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1830,7 +2109,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1862,7 +2141,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1894,7 +2173,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1926,7 +2205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1958,7 +2237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1990,7 +2269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2022,7 +2301,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2054,7 +2333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2086,7 +2365,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2118,7 +2397,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2150,7 +2429,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2182,7 +2461,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2214,7 +2493,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2246,7 +2525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2279,20 +2558,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EC21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>95</v>
       </c>
@@ -2690,7 +2968,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -3091,7 +3369,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3492,7 +3770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -3893,7 +4171,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -4294,7 +4572,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -4695,7 +4973,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -5096,7 +5374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -5497,7 +5775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5898,7 +6176,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6299,7 +6577,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -6700,7 +6978,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -7101,7 +7379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -7502,7 +7780,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -7903,7 +8181,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -8304,7 +8582,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -8705,7 +8983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -9106,7 +9384,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -9507,7 +9785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -9908,7 +10186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -10309,7 +10587,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -10711,20 +10989,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EC21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>95</v>
       </c>
@@ -11122,7 +11399,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -11523,7 +11800,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -11924,7 +12201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -12325,7 +12602,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -12726,7 +13003,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -13127,7 +13404,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -13528,7 +13805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -13929,7 +14206,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -14330,7 +14607,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -14731,7 +15008,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -15132,7 +15409,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -15533,7 +15810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -15934,7 +16211,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -16335,7 +16612,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -16736,7 +17013,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -17137,7 +17414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -17538,7 +17815,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -17939,7 +18216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -18340,7 +18617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -18741,7 +19018,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -19143,20 +19420,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EC21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>95</v>
       </c>
@@ -19554,7 +19830,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -19955,7 +20231,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -20356,7 +20632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -20757,7 +21033,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -21158,7 +21434,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -21559,7 +21835,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -21960,7 +22236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -22361,7 +22637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -22762,7 +23038,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -23163,7 +23439,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -23564,7 +23840,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -23965,7 +24241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -24366,7 +24642,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -24767,7 +25043,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -25168,7 +25444,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -25569,7 +25845,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -25970,7 +26246,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -26371,7 +26647,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -26772,7 +27048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -27173,7 +27449,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -27575,20 +27851,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EC21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>95</v>
       </c>
@@ -27986,7 +28261,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -28387,7 +28662,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -28788,7 +29063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -29189,7 +29464,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -29590,7 +29865,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -29991,7 +30266,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -30392,7 +30667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -30793,7 +31068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -31194,7 +31469,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -31595,7 +31870,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -31996,7 +32271,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -32397,7 +32672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -32798,7 +33073,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -33199,7 +33474,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -33600,7 +33875,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -34001,7 +34276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -34402,7 +34677,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -34803,7 +35078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -35204,7 +35479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -35605,7 +35880,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -36007,20 +36282,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>37</v>
       </c>
@@ -36097,7 +36371,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -36177,7 +36451,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -36257,7 +36531,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -36337,7 +36611,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -36417,7 +36691,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -36497,7 +36771,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -36577,7 +36851,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -36657,7 +36931,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -36737,7 +37011,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -36817,7 +37091,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -36897,7 +37171,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -36977,7 +37251,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -37057,7 +37331,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -37137,7 +37411,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -37217,7 +37491,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -37297,7 +37571,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -37377,7 +37651,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -37457,7 +37731,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -37537,7 +37811,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -37617,7 +37891,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -37698,20 +37972,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>273</v>
       </c>
@@ -37785,36 +38058,36 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>144.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="C2">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>72</v>
+      </c>
+      <c r="E2">
+        <v>144</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
         <v>1.2222222222222223</v>
       </c>
-      <c r="H2" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>28</v>
+      </c>
+      <c r="I2">
         <v>1.5555555555555556</v>
       </c>
-      <c r="J2" t="n">
-        <v>50.0</v>
+      <c r="J2">
+        <v>50</v>
       </c>
       <c r="K2" t="s">
         <v>296</v>
@@ -37825,32 +38098,32 @@
       <c r="M2" t="s">
         <v>336</v>
       </c>
-      <c r="N2" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>125.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="N2">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>53</v>
+      </c>
+      <c r="P2">
+        <v>72</v>
+      </c>
+      <c r="Q2">
+        <v>125</v>
+      </c>
+      <c r="R2">
+        <v>21</v>
+      </c>
+      <c r="S2">
         <v>1.1666666666666667</v>
       </c>
-      <c r="T2" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="V2" t="n">
-        <v>38.0</v>
+      <c r="T2">
+        <v>17</v>
+      </c>
+      <c r="U2">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="V2">
+        <v>38</v>
       </c>
       <c r="W2" t="s">
         <v>355</v>
@@ -37862,36 +38135,36 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="C3">
+        <v>92</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>180</v>
+      </c>
+      <c r="F3">
+        <v>27</v>
+      </c>
+      <c r="G3">
         <v>1.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3">
         <v>1.3333333333333333</v>
       </c>
-      <c r="J3" t="n">
-        <v>51.0</v>
+      <c r="J3">
+        <v>51</v>
       </c>
       <c r="K3" t="s">
         <v>297</v>
@@ -37902,32 +38175,32 @@
       <c r="M3" t="s">
         <v>337</v>
       </c>
-      <c r="N3" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>178.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="N3">
+        <v>36</v>
+      </c>
+      <c r="O3">
+        <v>87</v>
+      </c>
+      <c r="P3">
+        <v>91</v>
+      </c>
+      <c r="Q3">
+        <v>178</v>
+      </c>
+      <c r="R3">
+        <v>26</v>
+      </c>
+      <c r="S3">
         <v>1.4444444444444444</v>
       </c>
-      <c r="T3" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>44.0</v>
+      <c r="T3">
+        <v>18</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>44</v>
       </c>
       <c r="W3" t="s">
         <v>356</v>
@@ -37939,36 +38212,36 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>136.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="C4">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>62</v>
+      </c>
+      <c r="E4">
+        <v>136</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4">
         <v>1.0555555555555556</v>
       </c>
-      <c r="H4" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>37.0</v>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>37</v>
       </c>
       <c r="K4" t="s">
         <v>298</v>
@@ -37979,32 +38252,32 @@
       <c r="M4" t="s">
         <v>338</v>
       </c>
-      <c r="N4" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="N4">
+        <v>36</v>
+      </c>
+      <c r="O4">
+        <v>48</v>
+      </c>
+      <c r="P4">
+        <v>70</v>
+      </c>
+      <c r="Q4">
+        <v>118</v>
+      </c>
+      <c r="R4">
+        <v>20</v>
+      </c>
+      <c r="S4">
         <v>1.1111111111111112</v>
       </c>
-      <c r="T4" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="T4">
+        <v>22</v>
+      </c>
+      <c r="U4">
         <v>1.2222222222222223</v>
       </c>
-      <c r="V4" t="n">
-        <v>42.0</v>
+      <c r="V4">
+        <v>42</v>
       </c>
       <c r="W4" t="s">
         <v>357</v>
@@ -38016,36 +38289,36 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="H5" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="C5">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>123</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="H5">
+        <v>19</v>
+      </c>
+      <c r="I5">
         <v>1.0555555555555556</v>
       </c>
-      <c r="J5" t="n">
-        <v>33.0</v>
+      <c r="J5">
+        <v>33</v>
       </c>
       <c r="K5" t="s">
         <v>299</v>
@@ -38056,32 +38329,32 @@
       <c r="M5" t="s">
         <v>339</v>
       </c>
-      <c r="N5" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>181.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="N5">
+        <v>36</v>
+      </c>
+      <c r="O5">
+        <v>83</v>
+      </c>
+      <c r="P5">
+        <v>98</v>
+      </c>
+      <c r="Q5">
+        <v>181</v>
+      </c>
+      <c r="R5">
+        <v>24</v>
+      </c>
+      <c r="S5">
         <v>1.3333333333333333</v>
       </c>
-      <c r="T5" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="T5">
+        <v>27</v>
+      </c>
+      <c r="U5">
         <v>1.5</v>
       </c>
-      <c r="V5" t="n">
-        <v>51.0</v>
+      <c r="V5">
+        <v>51</v>
       </c>
       <c r="W5" t="s">
         <v>358</v>
@@ -38093,36 +38366,36 @@
         <v>392</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="C6">
+        <v>106</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>196</v>
+      </c>
+      <c r="F6">
+        <v>29</v>
+      </c>
+      <c r="G6">
         <v>1.6111111111111112</v>
       </c>
-      <c r="H6" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6">
+        <v>26</v>
+      </c>
+      <c r="I6">
         <v>1.4444444444444444</v>
       </c>
-      <c r="J6" t="n">
-        <v>55.0</v>
+      <c r="J6">
+        <v>55</v>
       </c>
       <c r="K6" t="s">
         <v>300</v>
@@ -38133,32 +38406,32 @@
       <c r="M6" t="s">
         <v>340</v>
       </c>
-      <c r="N6" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="T6" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="V6" t="n">
-        <v>33.0</v>
+      <c r="N6">
+        <v>36</v>
+      </c>
+      <c r="O6">
+        <v>50</v>
+      </c>
+      <c r="P6">
+        <v>53</v>
+      </c>
+      <c r="Q6">
+        <v>103</v>
+      </c>
+      <c r="R6">
+        <v>17</v>
+      </c>
+      <c r="S6">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="T6">
+        <v>16</v>
+      </c>
+      <c r="U6">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="V6">
+        <v>33</v>
       </c>
       <c r="W6" t="s">
         <v>359</v>
@@ -38170,36 +38443,36 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="C7">
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <v>67</v>
+      </c>
+      <c r="E7">
+        <v>121</v>
+      </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+      <c r="G7">
         <v>1.0555555555555556</v>
       </c>
-      <c r="H7" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7">
         <v>1.1666666666666667</v>
       </c>
-      <c r="J7" t="n">
-        <v>40.0</v>
+      <c r="J7">
+        <v>40</v>
       </c>
       <c r="K7" t="s">
         <v>301</v>
@@ -38210,32 +38483,32 @@
       <c r="M7" t="s">
         <v>341</v>
       </c>
-      <c r="N7" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>169.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="N7">
+        <v>36</v>
+      </c>
+      <c r="O7">
+        <v>81</v>
+      </c>
+      <c r="P7">
+        <v>88</v>
+      </c>
+      <c r="Q7">
+        <v>169</v>
+      </c>
+      <c r="R7">
+        <v>29</v>
+      </c>
+      <c r="S7">
         <v>1.6111111111111112</v>
       </c>
-      <c r="T7" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="T7">
+        <v>32</v>
+      </c>
+      <c r="U7">
         <v>1.7777777777777777</v>
       </c>
-      <c r="V7" t="n">
-        <v>61.0</v>
+      <c r="V7">
+        <v>61</v>
       </c>
       <c r="W7" t="s">
         <v>360</v>
@@ -38247,36 +38520,36 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="C8">
+        <v>72</v>
+      </c>
+      <c r="D8">
+        <v>69</v>
+      </c>
+      <c r="E8">
+        <v>141</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8">
         <v>1.2777777777777777</v>
       </c>
-      <c r="H8" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>23</v>
+      </c>
+      <c r="I8">
         <v>1.2777777777777777</v>
       </c>
-      <c r="J8" t="n">
-        <v>46.0</v>
+      <c r="J8">
+        <v>46</v>
       </c>
       <c r="K8" t="s">
         <v>302</v>
@@ -38287,32 +38560,32 @@
       <c r="M8" t="s">
         <v>342</v>
       </c>
-      <c r="N8" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="N8">
+        <v>36</v>
+      </c>
+      <c r="O8">
+        <v>79</v>
+      </c>
+      <c r="P8">
+        <v>70</v>
+      </c>
+      <c r="Q8">
+        <v>149</v>
+      </c>
+      <c r="R8">
+        <v>28</v>
+      </c>
+      <c r="S8">
         <v>1.5555555555555556</v>
       </c>
-      <c r="T8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="V8" t="n">
-        <v>43.0</v>
+      <c r="T8">
+        <v>15</v>
+      </c>
+      <c r="U8">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="V8">
+        <v>43</v>
       </c>
       <c r="W8" t="s">
         <v>361</v>
@@ -38324,36 +38597,36 @@
         <v>394</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="C9">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>131</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
         <v>0.5</v>
       </c>
-      <c r="H9" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="J9" t="n">
-        <v>26.0</v>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="J9">
+        <v>26</v>
       </c>
       <c r="K9" t="s">
         <v>303</v>
@@ -38364,32 +38637,32 @@
       <c r="M9" t="s">
         <v>343</v>
       </c>
-      <c r="N9" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>163.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="N9">
+        <v>36</v>
+      </c>
+      <c r="O9">
+        <v>81</v>
+      </c>
+      <c r="P9">
+        <v>82</v>
+      </c>
+      <c r="Q9">
+        <v>163</v>
+      </c>
+      <c r="R9">
+        <v>26</v>
+      </c>
+      <c r="S9">
         <v>1.4444444444444444</v>
       </c>
-      <c r="T9" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="T9">
+        <v>24</v>
+      </c>
+      <c r="U9">
         <v>1.3333333333333333</v>
       </c>
-      <c r="V9" t="n">
-        <v>50.0</v>
+      <c r="V9">
+        <v>50</v>
       </c>
       <c r="W9" t="s">
         <v>362</v>
@@ -38401,36 +38674,36 @@
         <v>395</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>183.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="C10">
+        <v>98</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <v>183</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
         <v>1.3888888888888888</v>
       </c>
-      <c r="H10" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10">
         <v>1.7777777777777777</v>
       </c>
-      <c r="J10" t="n">
-        <v>57.0</v>
+      <c r="J10">
+        <v>57</v>
       </c>
       <c r="K10" t="s">
         <v>304</v>
@@ -38441,32 +38714,32 @@
       <c r="M10" t="s">
         <v>344</v>
       </c>
-      <c r="N10" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>111.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>193.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="N10">
+        <v>36</v>
+      </c>
+      <c r="O10">
+        <v>82</v>
+      </c>
+      <c r="P10">
+        <v>111</v>
+      </c>
+      <c r="Q10">
+        <v>193</v>
+      </c>
+      <c r="R10">
+        <v>20</v>
+      </c>
+      <c r="S10">
         <v>1.1111111111111112</v>
       </c>
-      <c r="T10" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="T10">
+        <v>33</v>
+      </c>
+      <c r="U10">
         <v>1.8333333333333333</v>
       </c>
-      <c r="V10" t="n">
-        <v>53.0</v>
+      <c r="V10">
+        <v>53</v>
       </c>
       <c r="W10" t="s">
         <v>363</v>
@@ -38478,36 +38751,36 @@
         <v>396</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>176.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="C11">
+        <v>88</v>
+      </c>
+      <c r="D11">
+        <v>88</v>
+      </c>
+      <c r="E11">
+        <v>176</v>
+      </c>
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11">
         <v>1.7777777777777777</v>
       </c>
-      <c r="H11" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11">
+        <v>33</v>
+      </c>
+      <c r="I11">
         <v>1.8333333333333333</v>
       </c>
-      <c r="J11" t="n">
-        <v>65.0</v>
+      <c r="J11">
+        <v>65</v>
       </c>
       <c r="K11" t="s">
         <v>305</v>
@@ -38518,32 +38791,32 @@
       <c r="M11" t="s">
         <v>345</v>
       </c>
-      <c r="N11" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="N11">
+        <v>36</v>
+      </c>
+      <c r="O11">
+        <v>72</v>
+      </c>
+      <c r="P11">
+        <v>57</v>
+      </c>
+      <c r="Q11">
+        <v>129</v>
+      </c>
+      <c r="R11">
+        <v>26</v>
+      </c>
+      <c r="S11">
         <v>1.4444444444444444</v>
       </c>
-      <c r="T11" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>44.0</v>
+      <c r="T11">
+        <v>18</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>44</v>
       </c>
       <c r="W11" t="s">
         <v>364</v>
@@ -38555,36 +38828,36 @@
         <v>397</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>206.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="C12">
+        <v>104</v>
+      </c>
+      <c r="D12">
+        <v>102</v>
+      </c>
+      <c r="E12">
+        <v>206</v>
+      </c>
+      <c r="F12">
+        <v>27</v>
+      </c>
+      <c r="G12">
         <v>1.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>63.0</v>
+      <c r="H12">
+        <v>36</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>63</v>
       </c>
       <c r="K12" t="s">
         <v>306</v>
@@ -38595,32 +38868,32 @@
       <c r="M12" t="s">
         <v>346</v>
       </c>
-      <c r="N12" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>136.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="N12">
+        <v>36</v>
+      </c>
+      <c r="O12">
+        <v>69</v>
+      </c>
+      <c r="P12">
+        <v>67</v>
+      </c>
+      <c r="Q12">
+        <v>136</v>
+      </c>
+      <c r="R12">
+        <v>20</v>
+      </c>
+      <c r="S12">
         <v>1.1111111111111112</v>
       </c>
-      <c r="T12" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="T12">
+        <v>22</v>
+      </c>
+      <c r="U12">
         <v>1.2222222222222223</v>
       </c>
-      <c r="V12" t="n">
-        <v>42.0</v>
+      <c r="V12">
+        <v>42</v>
       </c>
       <c r="W12" t="s">
         <v>365</v>
@@ -38632,36 +38905,36 @@
         <v>398</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>204.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.111111111111111</v>
-      </c>
-      <c r="H13" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.111111111111111</v>
-      </c>
-      <c r="J13" t="n">
-        <v>76.0</v>
+      <c r="C13">
+        <v>109</v>
+      </c>
+      <c r="D13">
+        <v>95</v>
+      </c>
+      <c r="E13">
+        <v>204</v>
+      </c>
+      <c r="F13">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="H13">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="J13">
+        <v>76</v>
       </c>
       <c r="K13" t="s">
         <v>307</v>
@@ -38672,32 +38945,32 @@
       <c r="M13" t="s">
         <v>347</v>
       </c>
-      <c r="N13" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="T13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="V13" t="n">
-        <v>29.0</v>
+      <c r="N13">
+        <v>36</v>
+      </c>
+      <c r="O13">
+        <v>50</v>
+      </c>
+      <c r="P13">
+        <v>41</v>
+      </c>
+      <c r="Q13">
+        <v>91</v>
+      </c>
+      <c r="R13">
+        <v>17</v>
+      </c>
+      <c r="S13">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="T13">
+        <v>12</v>
+      </c>
+      <c r="U13">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="V13">
+        <v>29</v>
       </c>
       <c r="W13" t="s">
         <v>359</v>
@@ -38709,36 +38982,36 @@
         <v>399</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>202.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="C14">
+        <v>101</v>
+      </c>
+      <c r="D14">
+        <v>101</v>
+      </c>
+      <c r="E14">
+        <v>202</v>
+      </c>
+      <c r="F14">
+        <v>37</v>
+      </c>
+      <c r="G14">
         <v>2.0555555555555554</v>
       </c>
-      <c r="H14" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14">
+        <v>33</v>
+      </c>
+      <c r="I14">
         <v>1.8333333333333333</v>
       </c>
-      <c r="J14" t="n">
-        <v>70.0</v>
+      <c r="J14">
+        <v>70</v>
       </c>
       <c r="K14" t="s">
         <v>308</v>
@@ -38749,32 +39022,32 @@
       <c r="M14" t="s">
         <v>348</v>
       </c>
-      <c r="N14" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="N14">
+        <v>36</v>
+      </c>
+      <c r="O14">
+        <v>63</v>
+      </c>
+      <c r="P14">
+        <v>68</v>
+      </c>
+      <c r="Q14">
+        <v>131</v>
+      </c>
+      <c r="R14">
+        <v>27</v>
+      </c>
+      <c r="S14">
         <v>1.5</v>
       </c>
-      <c r="T14" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="V14" t="n">
-        <v>42.0</v>
+      <c r="T14">
+        <v>15</v>
+      </c>
+      <c r="U14">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="V14">
+        <v>42</v>
       </c>
       <c r="W14" t="s">
         <v>366</v>
@@ -38786,36 +39059,36 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="C15">
+        <v>74</v>
+      </c>
+      <c r="D15">
+        <v>59</v>
+      </c>
+      <c r="E15">
+        <v>133</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
         <v>1.3888888888888888</v>
       </c>
-      <c r="H15" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>43.0</v>
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>43</v>
       </c>
       <c r="K15" t="s">
         <v>309</v>
@@ -38826,32 +39099,32 @@
       <c r="M15" t="s">
         <v>349</v>
       </c>
-      <c r="N15" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="N15">
+        <v>36</v>
+      </c>
+      <c r="O15">
+        <v>86</v>
+      </c>
+      <c r="P15">
+        <v>106</v>
+      </c>
+      <c r="Q15">
+        <v>192</v>
+      </c>
+      <c r="R15">
+        <v>33</v>
+      </c>
+      <c r="S15">
         <v>1.8333333333333333</v>
       </c>
-      <c r="T15" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="T15">
+        <v>29</v>
+      </c>
+      <c r="U15">
         <v>1.6111111111111112</v>
       </c>
-      <c r="V15" t="n">
-        <v>62.0</v>
+      <c r="V15">
+        <v>62</v>
       </c>
       <c r="W15" t="s">
         <v>367</v>
@@ -38863,36 +39136,36 @@
         <v>401</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="J16" t="n">
-        <v>19.0</v>
+      <c r="C16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>95</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J16">
+        <v>19</v>
       </c>
       <c r="K16" t="s">
         <v>310</v>
@@ -38903,32 +39176,32 @@
       <c r="M16" t="s">
         <v>350</v>
       </c>
-      <c r="N16" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>204.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="S16" t="n">
+      <c r="N16">
+        <v>36</v>
+      </c>
+      <c r="O16">
+        <v>94</v>
+      </c>
+      <c r="P16">
+        <v>110</v>
+      </c>
+      <c r="Q16">
+        <v>204</v>
+      </c>
+      <c r="R16">
+        <v>27</v>
+      </c>
+      <c r="S16">
         <v>1.5</v>
       </c>
-      <c r="T16" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="T16">
+        <v>35</v>
+      </c>
+      <c r="U16">
         <v>1.9444444444444444</v>
       </c>
-      <c r="V16" t="n">
-        <v>62.0</v>
+      <c r="V16">
+        <v>62</v>
       </c>
       <c r="W16" t="s">
         <v>368</v>
@@ -38940,36 +39213,36 @@
         <v>402</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>158.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="C17">
+        <v>91</v>
+      </c>
+      <c r="D17">
+        <v>67</v>
+      </c>
+      <c r="E17">
+        <v>158</v>
+      </c>
+      <c r="F17">
+        <v>28</v>
+      </c>
+      <c r="G17">
         <v>1.5555555555555556</v>
       </c>
-      <c r="H17" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17">
+        <v>19</v>
+      </c>
+      <c r="I17">
         <v>1.0555555555555556</v>
       </c>
-      <c r="J17" t="n">
-        <v>47.0</v>
+      <c r="J17">
+        <v>47</v>
       </c>
       <c r="K17" t="s">
         <v>311</v>
@@ -38980,32 +39253,32 @@
       <c r="M17" t="s">
         <v>351</v>
       </c>
-      <c r="N17" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>166.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="N17">
+        <v>36</v>
+      </c>
+      <c r="O17">
+        <v>70</v>
+      </c>
+      <c r="P17">
+        <v>96</v>
+      </c>
+      <c r="Q17">
+        <v>166</v>
+      </c>
+      <c r="R17">
+        <v>23</v>
+      </c>
+      <c r="S17">
         <v>1.2777777777777777</v>
       </c>
-      <c r="T17" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="T17">
+        <v>40</v>
+      </c>
+      <c r="U17">
         <v>2.2222222222222223</v>
       </c>
-      <c r="V17" t="n">
-        <v>63.0</v>
+      <c r="V17">
+        <v>63</v>
       </c>
       <c r="W17" t="s">
         <v>369</v>
@@ -39017,36 +39290,36 @@
         <v>403</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>168.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="C18">
+        <v>99</v>
+      </c>
+      <c r="D18">
+        <v>69</v>
+      </c>
+      <c r="E18">
+        <v>168</v>
+      </c>
+      <c r="F18">
+        <v>34</v>
+      </c>
+      <c r="G18">
         <v>1.8888888888888888</v>
       </c>
-      <c r="H18" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H18">
+        <v>29</v>
+      </c>
+      <c r="I18">
         <v>1.6111111111111112</v>
       </c>
-      <c r="J18" t="n">
-        <v>63.0</v>
+      <c r="J18">
+        <v>63</v>
       </c>
       <c r="K18" t="s">
         <v>312</v>
@@ -39057,32 +39330,32 @@
       <c r="M18" t="s">
         <v>325</v>
       </c>
-      <c r="N18" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>148.0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="N18">
+        <v>36</v>
+      </c>
+      <c r="O18">
+        <v>61</v>
+      </c>
+      <c r="P18">
+        <v>87</v>
+      </c>
+      <c r="Q18">
+        <v>148</v>
+      </c>
+      <c r="R18">
+        <v>18</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>23</v>
+      </c>
+      <c r="U18">
         <v>1.2777777777777777</v>
       </c>
-      <c r="V18" t="n">
-        <v>41.0</v>
+      <c r="V18">
+        <v>41</v>
       </c>
       <c r="W18" t="s">
         <v>370</v>
@@ -39094,36 +39367,36 @@
         <v>404</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="H19" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="C19">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>103</v>
+      </c>
+      <c r="F19">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19">
         <v>1.0555555555555556</v>
       </c>
-      <c r="J19" t="n">
-        <v>33.0</v>
+      <c r="J19">
+        <v>33</v>
       </c>
       <c r="K19" t="s">
         <v>313</v>
@@ -39134,32 +39407,32 @@
       <c r="M19" t="s">
         <v>352</v>
       </c>
-      <c r="N19" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>228.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="N19">
+        <v>36</v>
+      </c>
+      <c r="O19">
+        <v>120</v>
+      </c>
+      <c r="P19">
+        <v>108</v>
+      </c>
+      <c r="Q19">
+        <v>228</v>
+      </c>
+      <c r="R19">
+        <v>36</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>34</v>
+      </c>
+      <c r="U19">
         <v>1.8888888888888888</v>
       </c>
-      <c r="V19" t="n">
-        <v>70.0</v>
+      <c r="V19">
+        <v>70</v>
       </c>
       <c r="W19" t="s">
         <v>371</v>
@@ -39171,36 +39444,36 @@
         <v>405</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="C20">
+        <v>74</v>
+      </c>
+      <c r="D20">
+        <v>75</v>
+      </c>
+      <c r="E20">
+        <v>149</v>
+      </c>
+      <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="G20">
         <v>1.6111111111111112</v>
       </c>
-      <c r="H20" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="H20">
+        <v>27</v>
+      </c>
+      <c r="I20">
         <v>1.5</v>
       </c>
-      <c r="J20" t="n">
-        <v>56.0</v>
+      <c r="J20">
+        <v>56</v>
       </c>
       <c r="K20" t="s">
         <v>314</v>
@@ -39211,32 +39484,32 @@
       <c r="M20" t="s">
         <v>353</v>
       </c>
-      <c r="N20" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>143.0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="S20" t="n">
+      <c r="N20">
+        <v>36</v>
+      </c>
+      <c r="O20">
+        <v>73</v>
+      </c>
+      <c r="P20">
+        <v>70</v>
+      </c>
+      <c r="Q20">
+        <v>143</v>
+      </c>
+      <c r="R20">
+        <v>22</v>
+      </c>
+      <c r="S20">
         <v>1.2222222222222223</v>
       </c>
-      <c r="T20" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="T20">
+        <v>24</v>
+      </c>
+      <c r="U20">
         <v>1.3333333333333333</v>
       </c>
-      <c r="V20" t="n">
-        <v>46.0</v>
+      <c r="V20">
+        <v>46</v>
       </c>
       <c r="W20" t="s">
         <v>372</v>
@@ -39248,36 +39521,36 @@
         <v>406</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>147.0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="C21">
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <v>62</v>
+      </c>
+      <c r="E21">
+        <v>147</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
         <v>1.1111111111111112</v>
       </c>
-      <c r="H21" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="J21" t="n">
-        <v>35.0</v>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J21">
+        <v>35</v>
       </c>
       <c r="K21" t="s">
         <v>315</v>
@@ -39288,32 +39561,32 @@
       <c r="M21" t="s">
         <v>354</v>
       </c>
-      <c r="N21" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="S21" t="n">
+      <c r="N21">
+        <v>36</v>
+      </c>
+      <c r="O21">
+        <v>68</v>
+      </c>
+      <c r="P21">
+        <v>81</v>
+      </c>
+      <c r="Q21">
+        <v>149</v>
+      </c>
+      <c r="R21">
+        <v>23</v>
+      </c>
+      <c r="S21">
         <v>1.2777777777777777</v>
       </c>
-      <c r="T21" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="T21">
+        <v>26</v>
+      </c>
+      <c r="U21">
         <v>1.4444444444444444</v>
       </c>
-      <c r="V21" t="n">
-        <v>49.0</v>
+      <c r="V21">
+        <v>49</v>
       </c>
       <c r="W21" t="s">
         <v>373</v>
@@ -39326,20 +39599,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="85.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>408</v>
       </c>
@@ -39356,7 +39637,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -39376,7 +39657,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -39396,7 +39677,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -39416,7 +39697,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -39436,7 +39717,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -39456,7 +39737,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -39476,7 +39757,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -39496,7 +39777,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -39516,7 +39797,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -39536,7 +39817,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -39556,7 +39837,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -39576,7 +39857,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -39596,7 +39877,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -39616,7 +39897,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -39636,7 +39917,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -39656,7 +39937,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -39676,7 +39957,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -39696,7 +39977,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -39716,7 +39997,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -39736,7 +40017,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -39757,6 +40038,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Divisions/E0.xlsx
+++ b/Divisions/E0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\Divisions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\Divisions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,12 +21,12 @@
     <sheet name="Shots Analysis" sheetId="7" r:id="rId7"/>
     <sheet name="L6" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12231" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11771" uniqueCount="481">
   <si>
     <t>Team</t>
   </si>
@@ -749,102 +749,6 @@
   </si>
   <si>
     <t>e0_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>2.4444</t>
-  </si>
-  <si>
-    <t>2.6389</t>
-  </si>
-  <si>
-    <t>2.1944</t>
-  </si>
-  <si>
-    <t>2.3333</t>
-  </si>
-  <si>
-    <t>2.8056</t>
-  </si>
-  <si>
-    <t>2.4722</t>
-  </si>
-  <si>
-    <t>2.1111</t>
-  </si>
-  <si>
-    <t>3.0556</t>
-  </si>
-  <si>
-    <t>3.0278</t>
-  </si>
-  <si>
-    <t>2.9167</t>
-  </si>
-  <si>
-    <t>3.1111</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>2.8889</t>
-  </si>
-  <si>
-    <t>2.8611</t>
-  </si>
-  <si>
-    <t>2.8333</t>
   </si>
   <si>
     <t>Group.1</t>
@@ -1600,8 +1504,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -36290,9 +36195,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="26" max="26" width="19.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -36373,1605 +36283,1632 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
+        <v>227</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>228</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" t="s">
-        <v>92</v>
-      </c>
-      <c r="X2" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>258</v>
+        <v>227</v>
+      </c>
+      <c r="O2" s="1">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>9</v>
+      </c>
+      <c r="R2" s="1">
+        <v>7</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>64</v>
+      </c>
+      <c r="W2" s="1">
+        <v>48</v>
+      </c>
+      <c r="X2" s="1">
+        <v>112</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>3.1111</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" t="s">
-        <v>10</v>
+        <v>227</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>7</v>
+      </c>
+      <c r="P3" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4</v>
       </c>
       <c r="S3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" t="s">
-        <v>228</v>
-      </c>
-      <c r="V3" t="s">
-        <v>73</v>
-      </c>
-      <c r="W3" t="s">
-        <v>69</v>
-      </c>
-      <c r="X3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>259</v>
+        <v>227</v>
+      </c>
+      <c r="T3" s="1">
+        <v>3</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>45</v>
+      </c>
+      <c r="W3" s="1">
+        <v>65</v>
+      </c>
+      <c r="X3" s="1">
+        <v>110</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>3.0556000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I4" t="s">
-        <v>228</v>
+        <v>42</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>227</v>
-      </c>
-      <c r="N4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" t="s">
-        <v>10</v>
+        <v>227</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" t="s">
-        <v>14</v>
-      </c>
-      <c r="V4" t="s">
-        <v>93</v>
-      </c>
-      <c r="W4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>260</v>
+        <v>227</v>
+      </c>
+      <c r="R4" s="1">
+        <v>7</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>3</v>
+      </c>
+      <c r="V4" s="1">
+        <v>51</v>
+      </c>
+      <c r="W4" s="1">
+        <v>59</v>
+      </c>
+      <c r="X4" s="1">
+        <v>110</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>3.0556000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>227</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>9</v>
+        <v>227</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" t="s">
-        <v>228</v>
-      </c>
-      <c r="T5" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" t="s">
-        <v>11</v>
-      </c>
-      <c r="V5" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5" t="s">
+        <v>227</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>3</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
         <v>58</v>
       </c>
-      <c r="X5" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>261</v>
+      <c r="W5" s="1">
+        <v>51</v>
+      </c>
+      <c r="X5" s="1">
+        <v>109</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>3.0278</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>227</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>227</v>
+        <v>227</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" t="s">
-        <v>228</v>
-      </c>
-      <c r="O6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" t="s">
-        <v>228</v>
-      </c>
-      <c r="S6" t="s">
-        <v>15</v>
-      </c>
-      <c r="T6" t="s">
-        <v>11</v>
-      </c>
-      <c r="U6" t="s">
-        <v>228</v>
-      </c>
-      <c r="V6" t="s">
+        <v>227</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>3</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4</v>
+      </c>
+      <c r="V6" s="1">
+        <v>47</v>
+      </c>
+      <c r="W6" s="1">
         <v>58</v>
       </c>
-      <c r="W6" t="s">
-        <v>69</v>
-      </c>
-      <c r="X6" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>258</v>
+      <c r="X6" s="1">
+        <v>105</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>2.9167000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>227</v>
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>228</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
+        <v>227</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>7</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>228</v>
-      </c>
-      <c r="O7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" t="s">
-        <v>13</v>
-      </c>
-      <c r="U7" t="s">
-        <v>9</v>
-      </c>
-      <c r="V7" t="s">
-        <v>241</v>
-      </c>
-      <c r="W7" t="s">
-        <v>73</v>
-      </c>
-      <c r="X7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>262</v>
+        <v>227</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>7</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3</v>
+      </c>
+      <c r="U7" s="1">
+        <v>5</v>
+      </c>
+      <c r="V7" s="1">
+        <v>55</v>
+      </c>
+      <c r="W7" s="1">
+        <v>50</v>
+      </c>
+      <c r="X7" s="1">
+        <v>105</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>2.9167000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5</v>
+      </c>
+      <c r="O8" t="s">
+        <v>227</v>
+      </c>
+      <c r="P8" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5</v>
+      </c>
+      <c r="R8" s="1">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1">
+        <v>3</v>
+      </c>
+      <c r="T8" s="1">
+        <v>5</v>
+      </c>
+      <c r="U8" s="1">
+        <v>2</v>
+      </c>
+      <c r="V8" s="1">
+        <v>58</v>
+      </c>
+      <c r="W8" s="1">
+        <v>47</v>
+      </c>
+      <c r="X8" s="1">
+        <v>105</v>
+      </c>
+      <c r="Y8" s="1">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>227</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" t="s">
-        <v>15</v>
-      </c>
-      <c r="T8" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" t="s">
-        <v>227</v>
-      </c>
-      <c r="V8" t="s">
-        <v>61</v>
-      </c>
-      <c r="W8" t="s">
-        <v>72</v>
-      </c>
-      <c r="X8" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>263</v>
+      <c r="Z8" s="1">
+        <v>2.9167000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>227</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" t="s">
-        <v>11</v>
-      </c>
-      <c r="O9" t="s">
-        <v>227</v>
-      </c>
-      <c r="P9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3</v>
       </c>
       <c r="R9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S9" t="s">
-        <v>10</v>
-      </c>
-      <c r="T9" t="s">
-        <v>228</v>
-      </c>
-      <c r="U9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V9" t="s">
-        <v>62</v>
-      </c>
-      <c r="W9" t="s">
-        <v>71</v>
-      </c>
-      <c r="X9" t="s">
+        <v>227</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2</v>
+      </c>
+      <c r="T9" s="1">
+        <v>6</v>
+      </c>
+      <c r="U9" s="1">
+        <v>2</v>
+      </c>
+      <c r="V9" s="1">
         <v>52</v>
       </c>
-      <c r="Y9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>264</v>
+      <c r="W9" s="1">
+        <v>52</v>
+      </c>
+      <c r="X9" s="1">
+        <v>104</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>2.8889</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>227</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" t="s">
-        <v>228</v>
-      </c>
-      <c r="O10" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R10" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
       </c>
       <c r="S10" t="s">
         <v>227</v>
       </c>
       <c r="T10" t="s">
-        <v>11</v>
-      </c>
-      <c r="U10" t="s">
-        <v>9</v>
-      </c>
-      <c r="V10" t="s">
-        <v>92</v>
-      </c>
-      <c r="W10" t="s">
-        <v>54</v>
-      </c>
-      <c r="X10" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>265</v>
+        <v>227</v>
+      </c>
+      <c r="U10" s="1">
+        <v>2</v>
+      </c>
+      <c r="V10" s="1">
+        <v>50</v>
+      </c>
+      <c r="W10" s="1">
+        <v>53</v>
+      </c>
+      <c r="X10" s="1">
+        <v>103</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>2.8611</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>227</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3</v>
       </c>
       <c r="Q11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" t="s">
-        <v>227</v>
-      </c>
-      <c r="S11" t="s">
-        <v>11</v>
+        <v>227</v>
+      </c>
+      <c r="R11" s="1">
+        <v>3</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3</v>
       </c>
       <c r="T11" t="s">
-        <v>11</v>
-      </c>
-      <c r="U11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V11" t="s">
-        <v>242</v>
-      </c>
-      <c r="W11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X11" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>266</v>
+        <v>227</v>
+      </c>
+      <c r="U11" s="1">
+        <v>4</v>
+      </c>
+      <c r="V11" s="1">
+        <v>51</v>
+      </c>
+      <c r="W11" s="1">
+        <v>51</v>
+      </c>
+      <c r="X11" s="1">
+        <v>102</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>2.8332999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
+        <v>227</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
       </c>
       <c r="G12" t="s">
         <v>227</v>
       </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" t="s">
-        <v>227</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" t="s">
-        <v>228</v>
-      </c>
-      <c r="O12" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" t="s">
-        <v>10</v>
-      </c>
-      <c r="T12" t="s">
-        <v>11</v>
-      </c>
-      <c r="U12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" t="s">
-        <v>64</v>
-      </c>
-      <c r="W12" t="s">
-        <v>242</v>
-      </c>
-      <c r="X12" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>267</v>
+      <c r="H12" s="1">
+        <v>3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>5</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>48</v>
+      </c>
+      <c r="W12" s="1">
+        <v>53</v>
+      </c>
+      <c r="X12" s="1">
+        <v>101</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>2.8056000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
+        <v>227</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>227</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" t="s">
-        <v>227</v>
-      </c>
-      <c r="N13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" t="s">
-        <v>11</v>
-      </c>
-      <c r="S13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T13" t="s">
-        <v>11</v>
-      </c>
-      <c r="U13" t="s">
-        <v>13</v>
-      </c>
-      <c r="V13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W13" t="s">
-        <v>59</v>
-      </c>
-      <c r="X13" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>267</v>
+        <v>227</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9</v>
+      </c>
+      <c r="M13" s="1">
+        <v>3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>7</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4</v>
+      </c>
+      <c r="T13" s="1">
+        <v>4</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>53</v>
+      </c>
+      <c r="W13" s="1">
+        <v>42</v>
+      </c>
+      <c r="X13" s="1">
+        <v>95</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>2.6389</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>227</v>
-      </c>
-      <c r="J14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" t="s">
-        <v>228</v>
-      </c>
-      <c r="N14" t="s">
-        <v>227</v>
-      </c>
-      <c r="O14" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>17</v>
-      </c>
-      <c r="R14" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" t="s">
-        <v>9</v>
-      </c>
-      <c r="T14" t="s">
-        <v>9</v>
+        <v>227</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4</v>
+      </c>
+      <c r="O14" s="1">
+        <v>2</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>4</v>
+      </c>
+      <c r="S14" s="1">
+        <v>7</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
       </c>
       <c r="U14" t="s">
-        <v>9</v>
-      </c>
-      <c r="V14" t="s">
-        <v>90</v>
-      </c>
-      <c r="W14" t="s">
-        <v>241</v>
-      </c>
-      <c r="X14" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>268</v>
+        <v>227</v>
+      </c>
+      <c r="V14" s="1">
+        <v>51</v>
+      </c>
+      <c r="W14" s="1">
+        <v>38</v>
+      </c>
+      <c r="X14" s="1">
+        <v>89</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>2.4722</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
+        <v>227</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" t="s">
-        <v>228</v>
-      </c>
-      <c r="M15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" t="s">
-        <v>227</v>
-      </c>
-      <c r="P15" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>13</v>
-      </c>
-      <c r="R15" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" t="s">
-        <v>11</v>
-      </c>
-      <c r="T15" t="s">
-        <v>13</v>
-      </c>
-      <c r="U15" t="s">
-        <v>10</v>
-      </c>
-      <c r="V15" t="s">
-        <v>242</v>
-      </c>
-      <c r="W15" t="s">
-        <v>64</v>
-      </c>
-      <c r="X15" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>267</v>
+        <v>227</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
+      <c r="P15" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>3</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>3</v>
+      </c>
+      <c r="U15" s="1">
+        <v>3</v>
+      </c>
+      <c r="V15" s="1">
+        <v>43</v>
+      </c>
+      <c r="W15" s="1">
+        <v>45</v>
+      </c>
+      <c r="X15" s="1">
+        <v>88</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>2.4443999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>227</v>
+        <v>32</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>9</v>
+        <v>227</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4</v>
       </c>
       <c r="K16" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N16" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>10</v>
-      </c>
-      <c r="R16" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" t="s">
-        <v>11</v>
-      </c>
-      <c r="T16" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" t="s">
-        <v>10</v>
-      </c>
-      <c r="V16" t="s">
-        <v>72</v>
-      </c>
-      <c r="W16" t="s">
-        <v>66</v>
-      </c>
-      <c r="X16" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>269</v>
+        <v>227</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>4</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>6</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>7</v>
+      </c>
+      <c r="T16" s="1">
+        <v>3</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>46</v>
+      </c>
+      <c r="W16" s="1">
+        <v>42</v>
+      </c>
+      <c r="X16" s="1">
+        <v>88</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>2.4443999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" t="s">
-        <v>227</v>
-      </c>
-      <c r="K17" t="s">
-        <v>10</v>
+        <v>227</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2</v>
       </c>
       <c r="L17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" t="s">
-        <v>9</v>
-      </c>
-      <c r="N17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>227</v>
-      </c>
-      <c r="R17" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" t="s">
-        <v>10</v>
-      </c>
-      <c r="T17" t="s">
-        <v>228</v>
-      </c>
-      <c r="U17" t="s">
-        <v>11</v>
-      </c>
-      <c r="V17" t="s">
-        <v>61</v>
-      </c>
-      <c r="W17" t="s">
-        <v>91</v>
-      </c>
-      <c r="X17" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>265</v>
+        <v>227</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>3</v>
+      </c>
+      <c r="U17" s="1">
+        <v>3</v>
+      </c>
+      <c r="V17" s="1">
+        <v>38</v>
+      </c>
+      <c r="W17" s="1">
+        <v>46</v>
+      </c>
+      <c r="X17" s="1">
+        <v>84</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>2.3332999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>227</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>11</v>
-      </c>
-      <c r="R18" t="s">
-        <v>227</v>
-      </c>
-      <c r="S18" t="s">
-        <v>10</v>
-      </c>
-      <c r="T18" t="s">
-        <v>14</v>
+        <v>227</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2</v>
+      </c>
+      <c r="S18" s="1">
+        <v>5</v>
+      </c>
+      <c r="T18" s="1">
+        <v>5</v>
       </c>
       <c r="U18" t="s">
-        <v>10</v>
-      </c>
-      <c r="V18" t="s">
-        <v>243</v>
-      </c>
-      <c r="W18" t="s">
-        <v>243</v>
-      </c>
-      <c r="X18" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>270</v>
+        <v>227</v>
+      </c>
+      <c r="V18" s="1">
+        <v>43</v>
+      </c>
+      <c r="W18" s="1">
+        <v>41</v>
+      </c>
+      <c r="X18" s="1">
+        <v>84</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>2.3332999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>11</v>
-      </c>
-      <c r="R19" t="s">
-        <v>9</v>
-      </c>
-      <c r="S19" t="s">
-        <v>227</v>
-      </c>
-      <c r="T19" t="s">
-        <v>227</v>
-      </c>
-      <c r="U19" t="s">
-        <v>10</v>
-      </c>
-      <c r="V19" t="s">
-        <v>59</v>
-      </c>
-      <c r="W19" t="s">
-        <v>73</v>
-      </c>
-      <c r="X19" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>271</v>
+        <v>227</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>4</v>
+      </c>
+      <c r="S19" s="1">
+        <v>3</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>2</v>
+      </c>
+      <c r="V19" s="1">
+        <v>38</v>
+      </c>
+      <c r="W19" s="1">
+        <v>43</v>
+      </c>
+      <c r="X19" s="1">
+        <v>81</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>2.25</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" t="s">
-        <v>12</v>
+        <v>227</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O20" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>227</v>
-      </c>
-      <c r="R20" t="s">
-        <v>11</v>
-      </c>
-      <c r="S20" t="s">
-        <v>11</v>
-      </c>
-      <c r="T20" t="s">
-        <v>227</v>
-      </c>
-      <c r="U20" t="s">
-        <v>12</v>
-      </c>
-      <c r="V20" t="s">
-        <v>61</v>
-      </c>
-      <c r="W20" t="s">
-        <v>61</v>
-      </c>
-      <c r="X20" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>272</v>
+        <v>227</v>
+      </c>
+      <c r="N20" s="1">
+        <v>5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3</v>
+      </c>
+      <c r="P20" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>3</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>2</v>
+      </c>
+      <c r="T20" s="1">
+        <v>2</v>
+      </c>
+      <c r="U20" s="1">
+        <v>6</v>
+      </c>
+      <c r="V20" s="1">
+        <v>39</v>
+      </c>
+      <c r="W20" s="1">
+        <v>40</v>
+      </c>
+      <c r="X20" s="1">
+        <v>79</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>2.1943999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" t="s">
-        <v>228</v>
-      </c>
-      <c r="L21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" t="s">
-        <v>227</v>
+        <v>227</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3</v>
       </c>
       <c r="O21" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R21" t="s">
-        <v>10</v>
-      </c>
-      <c r="S21" t="s">
-        <v>13</v>
-      </c>
-      <c r="T21" t="s">
-        <v>13</v>
-      </c>
-      <c r="U21" t="s">
-        <v>227</v>
-      </c>
-      <c r="V21" t="s">
-        <v>66</v>
-      </c>
-      <c r="W21" t="s">
-        <v>71</v>
-      </c>
-      <c r="X21" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>261</v>
+        <v>227</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>2</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1</v>
+      </c>
+      <c r="V21" s="1">
+        <v>35</v>
+      </c>
+      <c r="W21" s="1">
+        <v>41</v>
+      </c>
+      <c r="X21" s="1">
+        <v>76</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>2.1111</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:Z21">
+    <sortCondition descending="1" ref="Z2:Z21"/>
+  </sortState>
+  <conditionalFormatting sqref="B2:U21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37986,76 +37923,76 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="F1" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="G1" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="H1" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="I1" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="L1" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="M1" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="N1" t="s">
         <v>239</v>
       </c>
       <c r="O1" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="P1" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="Q1" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="R1" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="S1" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="T1" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="U1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="V1" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="W1" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="X1" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="Y1" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -38090,13 +38027,13 @@
         <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="L2" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="M2" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="N2">
         <v>36</v>
@@ -38126,13 +38063,13 @@
         <v>38</v>
       </c>
       <c r="W2" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="X2" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="Y2" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -38167,13 +38104,13 @@
         <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="L3" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="M3" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="N3">
         <v>36</v>
@@ -38203,13 +38140,13 @@
         <v>44</v>
       </c>
       <c r="W3" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="X3" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="Y3" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -38244,13 +38181,13 @@
         <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="L4" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="M4" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="N4">
         <v>36</v>
@@ -38280,13 +38217,13 @@
         <v>42</v>
       </c>
       <c r="W4" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="X4" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="Y4" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -38321,13 +38258,13 @@
         <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="L5" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="M5" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="N5">
         <v>36</v>
@@ -38357,13 +38294,13 @@
         <v>51</v>
       </c>
       <c r="W5" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="X5" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="Y5" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -38398,13 +38335,13 @@
         <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="L6" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="M6" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="N6">
         <v>36</v>
@@ -38434,13 +38371,13 @@
         <v>33</v>
       </c>
       <c r="W6" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="X6" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="Y6" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -38475,13 +38412,13 @@
         <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="L7" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="M7" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="N7">
         <v>36</v>
@@ -38511,13 +38448,13 @@
         <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="X7" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="Y7" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -38552,13 +38489,13 @@
         <v>46</v>
       </c>
       <c r="K8" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="L8" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="M8" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="N8">
         <v>36</v>
@@ -38588,13 +38525,13 @@
         <v>43</v>
       </c>
       <c r="W8" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="X8" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="Y8" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -38629,13 +38566,13 @@
         <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="L9" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="N9">
         <v>36</v>
@@ -38665,13 +38602,13 @@
         <v>50</v>
       </c>
       <c r="W9" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="X9" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="Y9" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -38706,13 +38643,13 @@
         <v>57</v>
       </c>
       <c r="K10" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="L10" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="M10" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="N10">
         <v>36</v>
@@ -38742,13 +38679,13 @@
         <v>53</v>
       </c>
       <c r="W10" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="X10" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="Y10" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -38783,13 +38720,13 @@
         <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="L11" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="M11" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="N11">
         <v>36</v>
@@ -38819,13 +38756,13 @@
         <v>44</v>
       </c>
       <c r="W11" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="X11" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="Y11" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -38860,13 +38797,13 @@
         <v>63</v>
       </c>
       <c r="K12" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="L12" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="M12" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="N12">
         <v>36</v>
@@ -38896,13 +38833,13 @@
         <v>42</v>
       </c>
       <c r="W12" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="X12" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="Y12" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -38937,13 +38874,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="L13" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="M13" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="N13">
         <v>36</v>
@@ -38973,13 +38910,13 @@
         <v>29</v>
       </c>
       <c r="W13" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="X13" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="Y13" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -39014,13 +38951,13 @@
         <v>70</v>
       </c>
       <c r="K14" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="L14" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="M14" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="N14">
         <v>36</v>
@@ -39050,13 +38987,13 @@
         <v>42</v>
       </c>
       <c r="W14" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="X14" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="Y14" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -39091,13 +39028,13 @@
         <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="L15" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="M15" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="N15">
         <v>36</v>
@@ -39127,13 +39064,13 @@
         <v>62</v>
       </c>
       <c r="W15" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="X15" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="Y15" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -39168,13 +39105,13 @@
         <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="L16" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="M16" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="N16">
         <v>36</v>
@@ -39204,13 +39141,13 @@
         <v>62</v>
       </c>
       <c r="W16" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="X16" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="Y16" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -39245,13 +39182,13 @@
         <v>47</v>
       </c>
       <c r="K17" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="L17" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="M17" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="N17">
         <v>36</v>
@@ -39281,13 +39218,13 @@
         <v>63</v>
       </c>
       <c r="W17" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="X17" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="Y17" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -39322,13 +39259,13 @@
         <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="L18" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="M18" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="N18">
         <v>36</v>
@@ -39358,13 +39295,13 @@
         <v>41</v>
       </c>
       <c r="W18" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="X18" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="Y18" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -39399,13 +39336,13 @@
         <v>33</v>
       </c>
       <c r="K19" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="L19" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="M19" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="N19">
         <v>36</v>
@@ -39435,13 +39372,13 @@
         <v>70</v>
       </c>
       <c r="W19" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="X19" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="Y19" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -39476,13 +39413,13 @@
         <v>56</v>
       </c>
       <c r="K20" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="L20" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="M20" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="N20">
         <v>36</v>
@@ -39512,13 +39449,13 @@
         <v>46</v>
       </c>
       <c r="W20" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="X20" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="Y20" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -39553,13 +39490,13 @@
         <v>35</v>
       </c>
       <c r="K21" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="L21" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="M21" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="N21">
         <v>36</v>
@@ -39589,13 +39526,13 @@
         <v>49</v>
       </c>
       <c r="W21" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="X21" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="Y21" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -39608,7 +39545,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A11" activeCellId="1" sqref="A6:XFD6 A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39622,19 +39559,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="C1" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="D1" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="E1" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="F1" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -39642,19 +39579,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="D2" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="E2" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -39662,19 +39599,19 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="C3" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="D3" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="E3" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="F3" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -39682,19 +39619,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="C4" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="D4" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="E4" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="F4" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -39702,19 +39639,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="C5" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="E5" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="F5" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -39722,19 +39659,19 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="C6" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="D6" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="E6" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="F6" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -39742,19 +39679,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="C7" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="D7" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="E7" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="F7" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -39762,19 +39699,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="C8" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="D8" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="E8" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="F8" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -39782,19 +39719,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="C9" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="D9" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="E9" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="F9" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -39802,19 +39739,19 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="D10" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="E10" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="F10" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -39822,19 +39759,19 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="C11" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="D11" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="E11" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="F11" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -39842,19 +39779,19 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="C12" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="D12" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="E12" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="F12" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -39862,19 +39799,19 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="C13" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="D13" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="E13" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="F13" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -39882,19 +39819,19 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="C14" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="D14" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="E14" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="F14" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -39902,19 +39839,19 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="C15" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="D15" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="E15" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="F15" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -39922,19 +39859,19 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="C16" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="D16" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="E16" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="F16" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -39942,19 +39879,19 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="C17" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="D17" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="E17" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="F17" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -39962,19 +39899,19 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="C18" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="D18" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="E18" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="F18" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -39982,19 +39919,19 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="C19" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D19" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="E19" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="F19" t="s">
-        <v>510</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -40002,19 +39939,19 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="C20" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="D20" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="E20" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="F20" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -40022,19 +39959,19 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="C21" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="D21" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="E21" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="F21" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/E0.xlsx
+++ b/Divisions/E0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="741" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350" tabRatio="741" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11771" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11051" uniqueCount="481">
   <si>
     <t>Team</t>
   </si>
@@ -27764,9 +27764,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EC21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A21" activeCellId="1" sqref="A8:XFD8 A21:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:133" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -28170,8 +28176,8 @@
       <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
+      <c r="B2" s="1">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>227</v>
@@ -28179,8 +28185,8 @@
       <c r="D2" t="s">
         <v>227</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="E2" s="1">
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>227</v>
@@ -28194,17 +28200,17 @@
       <c r="I2" t="s">
         <v>227</v>
       </c>
-      <c r="J2" t="s">
-        <v>12</v>
+      <c r="J2" s="1">
+        <v>4</v>
       </c>
       <c r="K2" t="s">
         <v>227</v>
       </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
+      <c r="L2" s="1">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>227</v>
@@ -28218,8 +28224,8 @@
       <c r="Q2" t="s">
         <v>227</v>
       </c>
-      <c r="R2" t="s">
-        <v>9</v>
+      <c r="R2" s="1">
+        <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>227</v>
@@ -28230,8 +28236,8 @@
       <c r="U2" t="s">
         <v>227</v>
       </c>
-      <c r="V2" t="s">
-        <v>9</v>
+      <c r="V2" s="1">
+        <v>1</v>
       </c>
       <c r="W2" t="s">
         <v>227</v>
@@ -28242,14 +28248,14 @@
       <c r="Y2" t="s">
         <v>227</v>
       </c>
-      <c r="Z2" t="s">
-        <v>11</v>
+      <c r="Z2" s="1">
+        <v>3</v>
       </c>
       <c r="AA2" t="s">
         <v>227</v>
       </c>
-      <c r="AB2" t="s">
-        <v>228</v>
+      <c r="AB2" s="1">
+        <v>0</v>
       </c>
       <c r="AC2" t="s">
         <v>227</v>
@@ -28260,8 +28266,8 @@
       <c r="AE2" t="s">
         <v>227</v>
       </c>
-      <c r="AF2" t="s">
-        <v>11</v>
+      <c r="AF2" s="1">
+        <v>3</v>
       </c>
       <c r="AG2" t="s">
         <v>227</v>
@@ -28269,8 +28275,8 @@
       <c r="AH2" t="s">
         <v>227</v>
       </c>
-      <c r="AI2" t="s">
-        <v>10</v>
+      <c r="AI2" s="1">
+        <v>2</v>
       </c>
       <c r="AJ2" t="s">
         <v>227</v>
@@ -28281,20 +28287,20 @@
       <c r="AL2" t="s">
         <v>227</v>
       </c>
-      <c r="AM2" t="s">
-        <v>9</v>
+      <c r="AM2" s="1">
+        <v>1</v>
       </c>
       <c r="AN2" t="s">
         <v>227</v>
       </c>
-      <c r="AO2" t="s">
-        <v>10</v>
+      <c r="AO2" s="1">
+        <v>2</v>
       </c>
       <c r="AP2" t="s">
         <v>227</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>11</v>
+      <c r="AQ2" s="1">
+        <v>3</v>
       </c>
       <c r="AR2" t="s">
         <v>227</v>
@@ -28302,8 +28308,8 @@
       <c r="AS2" t="s">
         <v>227</v>
       </c>
-      <c r="AT2" t="s">
-        <v>12</v>
+      <c r="AT2" s="1">
+        <v>4</v>
       </c>
       <c r="AU2" t="s">
         <v>227</v>
@@ -28311,8 +28317,8 @@
       <c r="AV2" t="s">
         <v>227</v>
       </c>
-      <c r="AW2" t="s">
-        <v>9</v>
+      <c r="AW2" s="1">
+        <v>1</v>
       </c>
       <c r="AX2" t="s">
         <v>227</v>
@@ -28320,8 +28326,8 @@
       <c r="AY2" t="s">
         <v>227</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>12</v>
+      <c r="AZ2" s="1">
+        <v>4</v>
       </c>
       <c r="BA2" t="s">
         <v>227</v>
@@ -28335,8 +28341,8 @@
       <c r="BD2" t="s">
         <v>227</v>
       </c>
-      <c r="BE2" t="s">
-        <v>228</v>
+      <c r="BE2" s="1">
+        <v>0</v>
       </c>
       <c r="BF2" t="s">
         <v>227</v>
@@ -28344,8 +28350,8 @@
       <c r="BG2" t="s">
         <v>227</v>
       </c>
-      <c r="BH2" t="s">
-        <v>11</v>
+      <c r="BH2" s="1">
+        <v>3</v>
       </c>
       <c r="BI2" t="s">
         <v>227</v>
@@ -28359,8 +28365,8 @@
       <c r="BL2" t="s">
         <v>227</v>
       </c>
-      <c r="BM2" t="s">
-        <v>12</v>
+      <c r="BM2" s="1">
+        <v>4</v>
       </c>
       <c r="BN2" t="s">
         <v>227</v>
@@ -28368,14 +28374,14 @@
       <c r="BO2" t="s">
         <v>227</v>
       </c>
-      <c r="BP2" t="s">
-        <v>228</v>
+      <c r="BP2" s="1">
+        <v>0</v>
       </c>
       <c r="BQ2" t="s">
         <v>227</v>
       </c>
-      <c r="BR2" t="s">
-        <v>11</v>
+      <c r="BR2" s="1">
+        <v>3</v>
       </c>
       <c r="BS2" t="s">
         <v>227</v>
@@ -28383,8 +28389,8 @@
       <c r="BT2" t="s">
         <v>227</v>
       </c>
-      <c r="BU2" t="s">
-        <v>9</v>
+      <c r="BU2" s="1">
+        <v>1</v>
       </c>
       <c r="BV2" t="s">
         <v>227</v>
@@ -28395,8 +28401,8 @@
       <c r="BX2" t="s">
         <v>227</v>
       </c>
-      <c r="BY2" t="s">
-        <v>14</v>
+      <c r="BY2" s="1">
+        <v>6</v>
       </c>
       <c r="BZ2" t="s">
         <v>227</v>
@@ -28410,8 +28416,8 @@
       <c r="CC2" t="s">
         <v>227</v>
       </c>
-      <c r="CD2" t="s">
-        <v>9</v>
+      <c r="CD2" s="1">
+        <v>1</v>
       </c>
       <c r="CE2" t="s">
         <v>227</v>
@@ -28422,8 +28428,8 @@
       <c r="CG2" t="s">
         <v>227</v>
       </c>
-      <c r="CH2" t="s">
-        <v>12</v>
+      <c r="CH2" s="1">
+        <v>4</v>
       </c>
       <c r="CI2" t="s">
         <v>227</v>
@@ -28437,8 +28443,8 @@
       <c r="CL2" t="s">
         <v>227</v>
       </c>
-      <c r="CM2" t="s">
-        <v>10</v>
+      <c r="CM2" s="1">
+        <v>2</v>
       </c>
       <c r="CN2" t="s">
         <v>227</v>
@@ -28455,8 +28461,8 @@
       <c r="CR2" t="s">
         <v>227</v>
       </c>
-      <c r="CS2" t="s">
-        <v>11</v>
+      <c r="CS2" s="1">
+        <v>3</v>
       </c>
       <c r="CT2" t="s">
         <v>227</v>
@@ -28467,11 +28473,11 @@
       <c r="CV2" t="s">
         <v>227</v>
       </c>
-      <c r="CW2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>11</v>
+      <c r="CW2" s="1">
+        <v>6</v>
+      </c>
+      <c r="CX2" s="1">
+        <v>3</v>
       </c>
       <c r="CY2" t="s">
         <v>227</v>
@@ -28485,8 +28491,8 @@
       <c r="DB2" t="s">
         <v>227</v>
       </c>
-      <c r="DC2" t="s">
-        <v>11</v>
+      <c r="DC2" s="1">
+        <v>3</v>
       </c>
       <c r="DD2" t="s">
         <v>227</v>
@@ -28497,8 +28503,8 @@
       <c r="DF2" t="s">
         <v>227</v>
       </c>
-      <c r="DG2" t="s">
-        <v>10</v>
+      <c r="DG2" s="1">
+        <v>2</v>
       </c>
       <c r="DH2" t="s">
         <v>227</v>
@@ -28512,8 +28518,8 @@
       <c r="DK2" t="s">
         <v>227</v>
       </c>
-      <c r="DL2" t="s">
-        <v>9</v>
+      <c r="DL2" s="1">
+        <v>1</v>
       </c>
       <c r="DM2" t="s">
         <v>227</v>
@@ -28530,8 +28536,8 @@
       <c r="DQ2" t="s">
         <v>227</v>
       </c>
-      <c r="DR2" t="s">
-        <v>10</v>
+      <c r="DR2" s="1">
+        <v>2</v>
       </c>
       <c r="DS2" t="s">
         <v>227</v>
@@ -28542,8 +28548,8 @@
       <c r="DU2" t="s">
         <v>227</v>
       </c>
-      <c r="DV2" t="s">
-        <v>12</v>
+      <c r="DV2" s="1">
+        <v>4</v>
       </c>
       <c r="DW2" t="s">
         <v>227</v>
@@ -28551,8 +28557,8 @@
       <c r="DX2" t="s">
         <v>227</v>
       </c>
-      <c r="DY2" t="s">
-        <v>9</v>
+      <c r="DY2" s="1">
+        <v>1</v>
       </c>
       <c r="DZ2" t="s">
         <v>227</v>
@@ -28586,8 +28592,8 @@
       <c r="F3" t="s">
         <v>227</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
+      <c r="G3" s="1">
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>227</v>
@@ -28595,26 +28601,26 @@
       <c r="I3" t="s">
         <v>227</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
+      <c r="J3" s="1">
+        <v>3</v>
       </c>
       <c r="K3" t="s">
         <v>227</v>
       </c>
-      <c r="L3" t="s">
-        <v>17</v>
+      <c r="L3" s="1">
+        <v>9</v>
       </c>
       <c r="M3" t="s">
         <v>227</v>
       </c>
-      <c r="N3" t="s">
-        <v>9</v>
+      <c r="N3" s="1">
+        <v>1</v>
       </c>
       <c r="O3" t="s">
         <v>227</v>
       </c>
-      <c r="P3" t="s">
-        <v>11</v>
+      <c r="P3" s="1">
+        <v>3</v>
       </c>
       <c r="Q3" t="s">
         <v>227</v>
@@ -28631,8 +28637,8 @@
       <c r="U3" t="s">
         <v>227</v>
       </c>
-      <c r="V3" t="s">
-        <v>15</v>
+      <c r="V3" s="1">
+        <v>7</v>
       </c>
       <c r="W3" t="s">
         <v>227</v>
@@ -28643,11 +28649,11 @@
       <c r="Y3" t="s">
         <v>227</v>
       </c>
-      <c r="Z3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>11</v>
+      <c r="Z3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>3</v>
       </c>
       <c r="AB3" t="s">
         <v>227</v>
@@ -28664,8 +28670,8 @@
       <c r="AF3" t="s">
         <v>227</v>
       </c>
-      <c r="AG3" t="s">
-        <v>11</v>
+      <c r="AG3" s="1">
+        <v>3</v>
       </c>
       <c r="AH3" t="s">
         <v>227</v>
@@ -28679,8 +28685,8 @@
       <c r="AK3" t="s">
         <v>227</v>
       </c>
-      <c r="AL3" t="s">
-        <v>9</v>
+      <c r="AL3" s="1">
+        <v>1</v>
       </c>
       <c r="AM3" t="s">
         <v>227</v>
@@ -28691,26 +28697,26 @@
       <c r="AO3" t="s">
         <v>227</v>
       </c>
-      <c r="AP3" t="s">
-        <v>228</v>
+      <c r="AP3" s="1">
+        <v>0</v>
       </c>
       <c r="AQ3" t="s">
         <v>227</v>
       </c>
-      <c r="AR3" t="s">
-        <v>11</v>
+      <c r="AR3" s="1">
+        <v>3</v>
       </c>
       <c r="AS3" t="s">
         <v>227</v>
       </c>
-      <c r="AT3" t="s">
-        <v>11</v>
+      <c r="AT3" s="1">
+        <v>3</v>
       </c>
       <c r="AU3" t="s">
         <v>227</v>
       </c>
-      <c r="AV3" t="s">
-        <v>10</v>
+      <c r="AV3" s="1">
+        <v>2</v>
       </c>
       <c r="AW3" t="s">
         <v>227</v>
@@ -28718,8 +28724,8 @@
       <c r="AX3" t="s">
         <v>227</v>
       </c>
-      <c r="AY3" t="s">
-        <v>11</v>
+      <c r="AY3" s="1">
+        <v>3</v>
       </c>
       <c r="AZ3" t="s">
         <v>227</v>
@@ -28751,26 +28757,26 @@
       <c r="BI3" t="s">
         <v>227</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>10</v>
+      <c r="BJ3" s="1">
+        <v>2</v>
       </c>
       <c r="BK3" t="s">
         <v>227</v>
       </c>
-      <c r="BL3" t="s">
-        <v>10</v>
+      <c r="BL3" s="1">
+        <v>2</v>
       </c>
       <c r="BM3" t="s">
         <v>227</v>
       </c>
-      <c r="BN3" t="s">
-        <v>13</v>
+      <c r="BN3" s="1">
+        <v>5</v>
       </c>
       <c r="BO3" t="s">
         <v>227</v>
       </c>
-      <c r="BP3" t="s">
-        <v>9</v>
+      <c r="BP3" s="1">
+        <v>1</v>
       </c>
       <c r="BQ3" t="s">
         <v>227</v>
@@ -28778,14 +28784,14 @@
       <c r="BR3" t="s">
         <v>227</v>
       </c>
-      <c r="BS3" t="s">
-        <v>12</v>
+      <c r="BS3" s="1">
+        <v>4</v>
       </c>
       <c r="BT3" t="s">
         <v>227</v>
       </c>
-      <c r="BU3" t="s">
-        <v>9</v>
+      <c r="BU3" s="1">
+        <v>1</v>
       </c>
       <c r="BV3" t="s">
         <v>227</v>
@@ -28793,8 +28799,8 @@
       <c r="BW3" t="s">
         <v>227</v>
       </c>
-      <c r="BX3" t="s">
-        <v>228</v>
+      <c r="BX3" s="1">
+        <v>0</v>
       </c>
       <c r="BY3" t="s">
         <v>227</v>
@@ -28811,8 +28817,8 @@
       <c r="CC3" t="s">
         <v>227</v>
       </c>
-      <c r="CD3" t="s">
-        <v>11</v>
+      <c r="CD3" s="1">
+        <v>3</v>
       </c>
       <c r="CE3" t="s">
         <v>227</v>
@@ -28820,8 +28826,8 @@
       <c r="CF3" t="s">
         <v>227</v>
       </c>
-      <c r="CG3" t="s">
-        <v>9</v>
+      <c r="CG3" s="1">
+        <v>1</v>
       </c>
       <c r="CH3" t="s">
         <v>227</v>
@@ -28832,14 +28838,14 @@
       <c r="CJ3" t="s">
         <v>227</v>
       </c>
-      <c r="CK3" t="s">
-        <v>9</v>
+      <c r="CK3" s="1">
+        <v>1</v>
       </c>
       <c r="CL3" t="s">
         <v>227</v>
       </c>
-      <c r="CM3" t="s">
-        <v>228</v>
+      <c r="CM3" s="1">
+        <v>0</v>
       </c>
       <c r="CN3" t="s">
         <v>227</v>
@@ -28850,8 +28856,8 @@
       <c r="CP3" t="s">
         <v>227</v>
       </c>
-      <c r="CQ3" t="s">
-        <v>10</v>
+      <c r="CQ3" s="1">
+        <v>2</v>
       </c>
       <c r="CR3" t="s">
         <v>227</v>
@@ -28868,14 +28874,14 @@
       <c r="CV3" t="s">
         <v>227</v>
       </c>
-      <c r="CW3" t="s">
-        <v>10</v>
+      <c r="CW3" s="1">
+        <v>2</v>
       </c>
       <c r="CX3" t="s">
         <v>227</v>
       </c>
-      <c r="CY3" t="s">
-        <v>12</v>
+      <c r="CY3" s="1">
+        <v>4</v>
       </c>
       <c r="CZ3" t="s">
         <v>227</v>
@@ -28883,8 +28889,8 @@
       <c r="DA3" t="s">
         <v>227</v>
       </c>
-      <c r="DB3" t="s">
-        <v>11</v>
+      <c r="DB3" s="1">
+        <v>3</v>
       </c>
       <c r="DC3" t="s">
         <v>227</v>
@@ -28907,8 +28913,8 @@
       <c r="DI3" t="s">
         <v>227</v>
       </c>
-      <c r="DJ3" t="s">
-        <v>11</v>
+      <c r="DJ3" s="1">
+        <v>3</v>
       </c>
       <c r="DK3" t="s">
         <v>227</v>
@@ -28919,8 +28925,8 @@
       <c r="DM3" t="s">
         <v>227</v>
       </c>
-      <c r="DN3" t="s">
-        <v>12</v>
+      <c r="DN3" s="1">
+        <v>4</v>
       </c>
       <c r="DO3" t="s">
         <v>227</v>
@@ -28928,8 +28934,8 @@
       <c r="DP3" t="s">
         <v>227</v>
       </c>
-      <c r="DQ3" t="s">
-        <v>11</v>
+      <c r="DQ3" s="1">
+        <v>3</v>
       </c>
       <c r="DR3" t="s">
         <v>227</v>
@@ -28943,8 +28949,8 @@
       <c r="DU3" t="s">
         <v>227</v>
       </c>
-      <c r="DV3" t="s">
-        <v>12</v>
+      <c r="DV3" s="1">
+        <v>4</v>
       </c>
       <c r="DW3" t="s">
         <v>227</v>
@@ -28955,8 +28961,8 @@
       <c r="DY3" t="s">
         <v>227</v>
       </c>
-      <c r="DZ3" t="s">
-        <v>228</v>
+      <c r="DZ3" s="1">
+        <v>0</v>
       </c>
       <c r="EA3" t="s">
         <v>227</v>
@@ -28964,8 +28970,8 @@
       <c r="EB3" t="s">
         <v>227</v>
       </c>
-      <c r="EC3" t="s">
-        <v>13</v>
+      <c r="EC3" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:133" x14ac:dyDescent="0.25">
@@ -28978,20 +28984,20 @@
       <c r="C4" t="s">
         <v>227</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
+      <c r="D4" s="1">
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>227</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
+      <c r="F4" s="1">
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>227</v>
       </c>
-      <c r="H4" t="s">
-        <v>13</v>
+      <c r="H4" s="1">
+        <v>5</v>
       </c>
       <c r="I4" t="s">
         <v>227</v>
@@ -28999,8 +29005,8 @@
       <c r="J4" t="s">
         <v>227</v>
       </c>
-      <c r="K4" t="s">
-        <v>14</v>
+      <c r="K4" s="1">
+        <v>6</v>
       </c>
       <c r="L4" t="s">
         <v>227</v>
@@ -29008,8 +29014,8 @@
       <c r="M4" t="s">
         <v>227</v>
       </c>
-      <c r="N4" t="s">
-        <v>10</v>
+      <c r="N4" s="1">
+        <v>2</v>
       </c>
       <c r="O4" t="s">
         <v>227</v>
@@ -29023,8 +29029,8 @@
       <c r="R4" t="s">
         <v>227</v>
       </c>
-      <c r="S4" t="s">
-        <v>10</v>
+      <c r="S4" s="1">
+        <v>2</v>
       </c>
       <c r="T4" t="s">
         <v>227</v>
@@ -29032,14 +29038,14 @@
       <c r="U4" t="s">
         <v>227</v>
       </c>
-      <c r="V4" t="s">
-        <v>11</v>
+      <c r="V4" s="1">
+        <v>3</v>
       </c>
       <c r="W4" t="s">
         <v>227</v>
       </c>
-      <c r="X4" t="s">
-        <v>228</v>
+      <c r="X4" s="1">
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
         <v>227</v>
@@ -29047,8 +29053,8 @@
       <c r="Z4" t="s">
         <v>227</v>
       </c>
-      <c r="AA4" t="s">
-        <v>11</v>
+      <c r="AA4" s="1">
+        <v>3</v>
       </c>
       <c r="AB4" t="s">
         <v>227</v>
@@ -29059,8 +29065,8 @@
       <c r="AD4" t="s">
         <v>227</v>
       </c>
-      <c r="AE4" t="s">
-        <v>10</v>
+      <c r="AE4" s="1">
+        <v>2</v>
       </c>
       <c r="AF4" t="s">
         <v>227</v>
@@ -29074,8 +29080,8 @@
       <c r="AI4" t="s">
         <v>227</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>11</v>
+      <c r="AJ4" s="1">
+        <v>3</v>
       </c>
       <c r="AK4" t="s">
         <v>227</v>
@@ -29083,14 +29089,14 @@
       <c r="AL4" t="s">
         <v>227</v>
       </c>
-      <c r="AM4" t="s">
-        <v>11</v>
+      <c r="AM4" s="1">
+        <v>3</v>
       </c>
       <c r="AN4" t="s">
         <v>227</v>
       </c>
-      <c r="AO4" t="s">
-        <v>228</v>
+      <c r="AO4" s="1">
+        <v>0</v>
       </c>
       <c r="AP4" t="s">
         <v>227</v>
@@ -29098,8 +29104,8 @@
       <c r="AQ4" t="s">
         <v>227</v>
       </c>
-      <c r="AR4" t="s">
-        <v>10</v>
+      <c r="AR4" s="1">
+        <v>2</v>
       </c>
       <c r="AS4" t="s">
         <v>227</v>
@@ -29107,14 +29113,14 @@
       <c r="AT4" t="s">
         <v>227</v>
       </c>
-      <c r="AU4" t="s">
-        <v>12</v>
+      <c r="AU4" s="1">
+        <v>4</v>
       </c>
       <c r="AV4" t="s">
         <v>227</v>
       </c>
-      <c r="AW4" t="s">
-        <v>9</v>
+      <c r="AW4" s="1">
+        <v>1</v>
       </c>
       <c r="AX4" t="s">
         <v>227</v>
@@ -29122,8 +29128,8 @@
       <c r="AY4" t="s">
         <v>227</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>14</v>
+      <c r="AZ4" s="1">
+        <v>6</v>
       </c>
       <c r="BA4" t="s">
         <v>227</v>
@@ -29134,14 +29140,14 @@
       <c r="BC4" t="s">
         <v>227</v>
       </c>
-      <c r="BD4" t="s">
-        <v>9</v>
+      <c r="BD4" s="1">
+        <v>1</v>
       </c>
       <c r="BE4" t="s">
         <v>227</v>
       </c>
-      <c r="BF4" t="s">
-        <v>9</v>
+      <c r="BF4" s="1">
+        <v>1</v>
       </c>
       <c r="BG4" t="s">
         <v>227</v>
@@ -29164,8 +29170,8 @@
       <c r="BM4" t="s">
         <v>227</v>
       </c>
-      <c r="BN4" t="s">
-        <v>228</v>
+      <c r="BN4" s="1">
+        <v>0</v>
       </c>
       <c r="BO4" t="s">
         <v>227</v>
@@ -29173,20 +29179,20 @@
       <c r="BP4" t="s">
         <v>227</v>
       </c>
-      <c r="BQ4" t="s">
-        <v>9</v>
+      <c r="BQ4" s="1">
+        <v>1</v>
       </c>
       <c r="BR4" t="s">
         <v>227</v>
       </c>
-      <c r="BS4" t="s">
-        <v>9</v>
+      <c r="BS4" s="1">
+        <v>1</v>
       </c>
       <c r="BT4" t="s">
         <v>227</v>
       </c>
-      <c r="BU4" t="s">
-        <v>10</v>
+      <c r="BU4" s="1">
+        <v>2</v>
       </c>
       <c r="BV4" t="s">
         <v>227</v>
@@ -29194,8 +29200,8 @@
       <c r="BW4" t="s">
         <v>227</v>
       </c>
-      <c r="BX4" t="s">
-        <v>228</v>
+      <c r="BX4" s="1">
+        <v>0</v>
       </c>
       <c r="BY4" t="s">
         <v>227</v>
@@ -29215,14 +29221,14 @@
       <c r="CD4" t="s">
         <v>227</v>
       </c>
-      <c r="CE4" t="s">
-        <v>11</v>
+      <c r="CE4" s="1">
+        <v>3</v>
       </c>
       <c r="CF4" t="s">
         <v>227</v>
       </c>
-      <c r="CG4" t="s">
-        <v>9</v>
+      <c r="CG4" s="1">
+        <v>1</v>
       </c>
       <c r="CH4" t="s">
         <v>227</v>
@@ -29239,8 +29245,8 @@
       <c r="CL4" t="s">
         <v>227</v>
       </c>
-      <c r="CM4" t="s">
-        <v>11</v>
+      <c r="CM4" s="1">
+        <v>3</v>
       </c>
       <c r="CN4" t="s">
         <v>227</v>
@@ -29257,8 +29263,8 @@
       <c r="CR4" t="s">
         <v>227</v>
       </c>
-      <c r="CS4" t="s">
-        <v>11</v>
+      <c r="CS4" s="1">
+        <v>3</v>
       </c>
       <c r="CT4" t="s">
         <v>227</v>
@@ -29266,8 +29272,8 @@
       <c r="CU4" t="s">
         <v>227</v>
       </c>
-      <c r="CV4" t="s">
-        <v>11</v>
+      <c r="CV4" s="1">
+        <v>3</v>
       </c>
       <c r="CW4" t="s">
         <v>227</v>
@@ -29275,8 +29281,8 @@
       <c r="CX4" t="s">
         <v>227</v>
       </c>
-      <c r="CY4" t="s">
-        <v>11</v>
+      <c r="CY4" s="1">
+        <v>3</v>
       </c>
       <c r="CZ4" t="s">
         <v>227</v>
@@ -29290,8 +29296,8 @@
       <c r="DC4" t="s">
         <v>227</v>
       </c>
-      <c r="DD4" t="s">
-        <v>228</v>
+      <c r="DD4" s="1">
+        <v>0</v>
       </c>
       <c r="DE4" t="s">
         <v>227</v>
@@ -29305,8 +29311,8 @@
       <c r="DH4" t="s">
         <v>227</v>
       </c>
-      <c r="DI4" t="s">
-        <v>228</v>
+      <c r="DI4" s="1">
+        <v>0</v>
       </c>
       <c r="DJ4" t="s">
         <v>227</v>
@@ -29317,8 +29323,8 @@
       <c r="DL4" t="s">
         <v>227</v>
       </c>
-      <c r="DM4" t="s">
-        <v>9</v>
+      <c r="DM4" s="1">
+        <v>1</v>
       </c>
       <c r="DN4" t="s">
         <v>227</v>
@@ -29329,8 +29335,8 @@
       <c r="DP4" t="s">
         <v>227</v>
       </c>
-      <c r="DQ4" t="s">
-        <v>10</v>
+      <c r="DQ4" s="1">
+        <v>2</v>
       </c>
       <c r="DR4" t="s">
         <v>227</v>
@@ -29344,8 +29350,8 @@
       <c r="DU4" t="s">
         <v>227</v>
       </c>
-      <c r="DV4" t="s">
-        <v>11</v>
+      <c r="DV4" s="1">
+        <v>3</v>
       </c>
       <c r="DW4" t="s">
         <v>227</v>
@@ -29362,8 +29368,8 @@
       <c r="EA4" t="s">
         <v>227</v>
       </c>
-      <c r="EB4" t="s">
-        <v>10</v>
+      <c r="EB4" s="1">
+        <v>2</v>
       </c>
       <c r="EC4" t="s">
         <v>227</v>
@@ -29385,14 +29391,14 @@
       <c r="E5" t="s">
         <v>227</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
+      <c r="F5" s="1">
+        <v>6</v>
       </c>
       <c r="G5" t="s">
         <v>227</v>
       </c>
-      <c r="H5" t="s">
-        <v>9</v>
+      <c r="H5" s="1">
+        <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>227</v>
@@ -29400,8 +29406,8 @@
       <c r="J5" t="s">
         <v>227</v>
       </c>
-      <c r="K5" t="s">
-        <v>12</v>
+      <c r="K5" s="1">
+        <v>4</v>
       </c>
       <c r="L5" t="s">
         <v>227</v>
@@ -29412,8 +29418,8 @@
       <c r="N5" t="s">
         <v>227</v>
       </c>
-      <c r="O5" t="s">
-        <v>228</v>
+      <c r="O5" s="1">
+        <v>0</v>
       </c>
       <c r="P5" t="s">
         <v>227</v>
@@ -29424,14 +29430,14 @@
       <c r="R5" t="s">
         <v>227</v>
       </c>
-      <c r="S5" t="s">
-        <v>9</v>
+      <c r="S5" s="1">
+        <v>1</v>
       </c>
       <c r="T5" t="s">
         <v>227</v>
       </c>
-      <c r="U5" t="s">
-        <v>11</v>
+      <c r="U5" s="1">
+        <v>3</v>
       </c>
       <c r="V5" t="s">
         <v>227</v>
@@ -29439,8 +29445,8 @@
       <c r="W5" t="s">
         <v>227</v>
       </c>
-      <c r="X5" t="s">
-        <v>228</v>
+      <c r="X5" s="1">
+        <v>0</v>
       </c>
       <c r="Y5" t="s">
         <v>227</v>
@@ -29454,14 +29460,14 @@
       <c r="AB5" t="s">
         <v>227</v>
       </c>
-      <c r="AC5" t="s">
-        <v>9</v>
+      <c r="AC5" s="1">
+        <v>1</v>
       </c>
       <c r="AD5" t="s">
         <v>227</v>
       </c>
-      <c r="AE5" t="s">
-        <v>13</v>
+      <c r="AE5" s="1">
+        <v>5</v>
       </c>
       <c r="AF5" t="s">
         <v>227</v>
@@ -29469,8 +29475,8 @@
       <c r="AG5" t="s">
         <v>227</v>
       </c>
-      <c r="AH5" t="s">
-        <v>10</v>
+      <c r="AH5" s="1">
+        <v>2</v>
       </c>
       <c r="AI5" t="s">
         <v>227</v>
@@ -29484,8 +29490,8 @@
       <c r="AL5" t="s">
         <v>227</v>
       </c>
-      <c r="AM5" t="s">
-        <v>9</v>
+      <c r="AM5" s="1">
+        <v>1</v>
       </c>
       <c r="AN5" t="s">
         <v>227</v>
@@ -29493,8 +29499,8 @@
       <c r="AO5" t="s">
         <v>227</v>
       </c>
-      <c r="AP5" t="s">
-        <v>228</v>
+      <c r="AP5" s="1">
+        <v>0</v>
       </c>
       <c r="AQ5" t="s">
         <v>227</v>
@@ -29502,20 +29508,20 @@
       <c r="AR5" t="s">
         <v>227</v>
       </c>
-      <c r="AS5" t="s">
-        <v>11</v>
+      <c r="AS5" s="1">
+        <v>3</v>
       </c>
       <c r="AT5" t="s">
         <v>227</v>
       </c>
-      <c r="AU5" t="s">
-        <v>9</v>
+      <c r="AU5" s="1">
+        <v>1</v>
       </c>
       <c r="AV5" t="s">
         <v>227</v>
       </c>
-      <c r="AW5" t="s">
-        <v>9</v>
+      <c r="AW5" s="1">
+        <v>1</v>
       </c>
       <c r="AX5" t="s">
         <v>227</v>
@@ -29532,8 +29538,8 @@
       <c r="BB5" t="s">
         <v>227</v>
       </c>
-      <c r="BC5" t="s">
-        <v>9</v>
+      <c r="BC5" s="1">
+        <v>1</v>
       </c>
       <c r="BD5" t="s">
         <v>227</v>
@@ -29541,8 +29547,8 @@
       <c r="BE5" t="s">
         <v>227</v>
       </c>
-      <c r="BF5" t="s">
-        <v>9</v>
+      <c r="BF5" s="1">
+        <v>1</v>
       </c>
       <c r="BG5" t="s">
         <v>227</v>
@@ -29556,8 +29562,8 @@
       <c r="BJ5" t="s">
         <v>227</v>
       </c>
-      <c r="BK5" t="s">
-        <v>9</v>
+      <c r="BK5" s="1">
+        <v>1</v>
       </c>
       <c r="BL5" t="s">
         <v>227</v>
@@ -29565,8 +29571,8 @@
       <c r="BM5" t="s">
         <v>227</v>
       </c>
-      <c r="BN5" t="s">
-        <v>13</v>
+      <c r="BN5" s="1">
+        <v>5</v>
       </c>
       <c r="BO5" t="s">
         <v>227</v>
@@ -29574,20 +29580,20 @@
       <c r="BP5" t="s">
         <v>227</v>
       </c>
-      <c r="BQ5" t="s">
-        <v>10</v>
+      <c r="BQ5" s="1">
+        <v>2</v>
       </c>
       <c r="BR5" t="s">
         <v>227</v>
       </c>
-      <c r="BS5" t="s">
-        <v>10</v>
+      <c r="BS5" s="1">
+        <v>2</v>
       </c>
       <c r="BT5" t="s">
         <v>227</v>
       </c>
-      <c r="BU5" t="s">
-        <v>10</v>
+      <c r="BU5" s="1">
+        <v>2</v>
       </c>
       <c r="BV5" t="s">
         <v>227</v>
@@ -29595,8 +29601,8 @@
       <c r="BW5" t="s">
         <v>227</v>
       </c>
-      <c r="BX5" t="s">
-        <v>11</v>
+      <c r="BX5" s="1">
+        <v>3</v>
       </c>
       <c r="BY5" t="s">
         <v>227</v>
@@ -29604,14 +29610,14 @@
       <c r="BZ5" t="s">
         <v>227</v>
       </c>
-      <c r="CA5" t="s">
-        <v>10</v>
+      <c r="CA5" s="1">
+        <v>2</v>
       </c>
       <c r="CB5" t="s">
         <v>227</v>
       </c>
-      <c r="CC5" t="s">
-        <v>228</v>
+      <c r="CC5" s="1">
+        <v>0</v>
       </c>
       <c r="CD5" t="s">
         <v>227</v>
@@ -29625,8 +29631,8 @@
       <c r="CG5" t="s">
         <v>227</v>
       </c>
-      <c r="CH5" t="s">
-        <v>12</v>
+      <c r="CH5" s="1">
+        <v>4</v>
       </c>
       <c r="CI5" t="s">
         <v>227</v>
@@ -29634,14 +29640,14 @@
       <c r="CJ5" t="s">
         <v>227</v>
       </c>
-      <c r="CK5" t="s">
-        <v>10</v>
+      <c r="CK5" s="1">
+        <v>2</v>
       </c>
       <c r="CL5" t="s">
         <v>227</v>
       </c>
-      <c r="CM5" t="s">
-        <v>10</v>
+      <c r="CM5" s="1">
+        <v>2</v>
       </c>
       <c r="CN5" t="s">
         <v>227</v>
@@ -29655,8 +29661,8 @@
       <c r="CQ5" t="s">
         <v>227</v>
       </c>
-      <c r="CR5" t="s">
-        <v>11</v>
+      <c r="CR5" s="1">
+        <v>3</v>
       </c>
       <c r="CS5" t="s">
         <v>227</v>
@@ -29676,8 +29682,8 @@
       <c r="CX5" t="s">
         <v>227</v>
       </c>
-      <c r="CY5" t="s">
-        <v>13</v>
+      <c r="CY5" s="1">
+        <v>5</v>
       </c>
       <c r="CZ5" t="s">
         <v>227</v>
@@ -29688,8 +29694,8 @@
       <c r="DB5" t="s">
         <v>227</v>
       </c>
-      <c r="DC5" t="s">
-        <v>11</v>
+      <c r="DC5" s="1">
+        <v>3</v>
       </c>
       <c r="DD5" t="s">
         <v>227</v>
@@ -29700,8 +29706,8 @@
       <c r="DF5" t="s">
         <v>227</v>
       </c>
-      <c r="DG5" t="s">
-        <v>12</v>
+      <c r="DG5" s="1">
+        <v>4</v>
       </c>
       <c r="DH5" t="s">
         <v>227</v>
@@ -29721,8 +29727,8 @@
       <c r="DM5" t="s">
         <v>227</v>
       </c>
-      <c r="DN5" t="s">
-        <v>12</v>
+      <c r="DN5" s="1">
+        <v>4</v>
       </c>
       <c r="DO5" t="s">
         <v>227</v>
@@ -29736,8 +29742,8 @@
       <c r="DR5" t="s">
         <v>227</v>
       </c>
-      <c r="DS5" t="s">
-        <v>11</v>
+      <c r="DS5" s="1">
+        <v>3</v>
       </c>
       <c r="DT5" t="s">
         <v>227</v>
@@ -29748,8 +29754,8 @@
       <c r="DV5" t="s">
         <v>227</v>
       </c>
-      <c r="DW5" t="s">
-        <v>10</v>
+      <c r="DW5" s="1">
+        <v>2</v>
       </c>
       <c r="DX5" t="s">
         <v>227</v>
@@ -29763,8 +29769,8 @@
       <c r="EA5" t="s">
         <v>227</v>
       </c>
-      <c r="EB5" t="s">
-        <v>12</v>
+      <c r="EB5" s="1">
+        <v>4</v>
       </c>
       <c r="EC5" t="s">
         <v>227</v>
@@ -29780,20 +29786,20 @@
       <c r="C6" t="s">
         <v>227</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
+      <c r="D6" s="1">
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>227</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
+      <c r="F6" s="1">
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>227</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
+      <c r="H6" s="1">
+        <v>6</v>
       </c>
       <c r="I6" t="s">
         <v>227</v>
@@ -29801,14 +29807,14 @@
       <c r="J6" t="s">
         <v>227</v>
       </c>
-      <c r="K6" t="s">
-        <v>12</v>
+      <c r="K6" s="1">
+        <v>4</v>
       </c>
       <c r="L6" t="s">
         <v>227</v>
       </c>
-      <c r="M6" t="s">
-        <v>14</v>
+      <c r="M6" s="1">
+        <v>6</v>
       </c>
       <c r="N6" t="s">
         <v>227</v>
@@ -29819,8 +29825,8 @@
       <c r="P6" t="s">
         <v>227</v>
       </c>
-      <c r="Q6" t="s">
-        <v>228</v>
+      <c r="Q6" s="1">
+        <v>0</v>
       </c>
       <c r="R6" t="s">
         <v>227</v>
@@ -29831,8 +29837,8 @@
       <c r="T6" t="s">
         <v>227</v>
       </c>
-      <c r="U6" t="s">
-        <v>11</v>
+      <c r="U6" s="1">
+        <v>3</v>
       </c>
       <c r="V6" t="s">
         <v>227</v>
@@ -29843,14 +29849,14 @@
       <c r="X6" t="s">
         <v>227</v>
       </c>
-      <c r="Y6" t="s">
-        <v>13</v>
+      <c r="Y6" s="1">
+        <v>5</v>
       </c>
       <c r="Z6" t="s">
         <v>227</v>
       </c>
-      <c r="AA6" t="s">
-        <v>10</v>
+      <c r="AA6" s="1">
+        <v>2</v>
       </c>
       <c r="AB6" t="s">
         <v>227</v>
@@ -29864,14 +29870,14 @@
       <c r="AE6" t="s">
         <v>227</v>
       </c>
-      <c r="AF6" t="s">
-        <v>228</v>
+      <c r="AF6" s="1">
+        <v>0</v>
       </c>
       <c r="AG6" t="s">
         <v>227</v>
       </c>
-      <c r="AH6" t="s">
-        <v>12</v>
+      <c r="AH6" s="1">
+        <v>4</v>
       </c>
       <c r="AI6" t="s">
         <v>227</v>
@@ -29882,14 +29888,14 @@
       <c r="AK6" t="s">
         <v>227</v>
       </c>
-      <c r="AL6" t="s">
-        <v>9</v>
+      <c r="AL6" s="1">
+        <v>1</v>
       </c>
       <c r="AM6" t="s">
         <v>227</v>
       </c>
-      <c r="AN6" t="s">
-        <v>11</v>
+      <c r="AN6" s="1">
+        <v>3</v>
       </c>
       <c r="AO6" t="s">
         <v>227</v>
@@ -29903,17 +29909,17 @@
       <c r="AR6" t="s">
         <v>227</v>
       </c>
-      <c r="AS6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>12</v>
+      <c r="AS6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>4</v>
       </c>
       <c r="AU6" t="s">
         <v>227</v>
       </c>
-      <c r="AV6" t="s">
-        <v>10</v>
+      <c r="AV6" s="1">
+        <v>2</v>
       </c>
       <c r="AW6" t="s">
         <v>227</v>
@@ -29927,8 +29933,8 @@
       <c r="AZ6" t="s">
         <v>227</v>
       </c>
-      <c r="BA6" t="s">
-        <v>12</v>
+      <c r="BA6" s="1">
+        <v>4</v>
       </c>
       <c r="BB6" t="s">
         <v>227</v>
@@ -29942,8 +29948,8 @@
       <c r="BE6" t="s">
         <v>227</v>
       </c>
-      <c r="BF6" t="s">
-        <v>9</v>
+      <c r="BF6" s="1">
+        <v>1</v>
       </c>
       <c r="BG6" t="s">
         <v>227</v>
@@ -29951,8 +29957,8 @@
       <c r="BH6" t="s">
         <v>227</v>
       </c>
-      <c r="BI6" t="s">
-        <v>10</v>
+      <c r="BI6" s="1">
+        <v>2</v>
       </c>
       <c r="BJ6" t="s">
         <v>227</v>
@@ -29966,8 +29972,8 @@
       <c r="BM6" t="s">
         <v>227</v>
       </c>
-      <c r="BN6" t="s">
-        <v>228</v>
+      <c r="BN6" s="1">
+        <v>0</v>
       </c>
       <c r="BO6" t="s">
         <v>227</v>
@@ -29975,8 +29981,8 @@
       <c r="BP6" t="s">
         <v>227</v>
       </c>
-      <c r="BQ6" t="s">
-        <v>10</v>
+      <c r="BQ6" s="1">
+        <v>2</v>
       </c>
       <c r="BR6" t="s">
         <v>227</v>
@@ -29984,14 +29990,14 @@
       <c r="BS6" t="s">
         <v>227</v>
       </c>
-      <c r="BT6" t="s">
-        <v>9</v>
+      <c r="BT6" s="1">
+        <v>1</v>
       </c>
       <c r="BU6" t="s">
         <v>227</v>
       </c>
-      <c r="BV6" t="s">
-        <v>11</v>
+      <c r="BV6" s="1">
+        <v>3</v>
       </c>
       <c r="BW6" t="s">
         <v>227</v>
@@ -30002,8 +30008,8 @@
       <c r="BY6" t="s">
         <v>227</v>
       </c>
-      <c r="BZ6" t="s">
-        <v>10</v>
+      <c r="BZ6" s="1">
+        <v>2</v>
       </c>
       <c r="CA6" t="s">
         <v>227</v>
@@ -30011,8 +30017,8 @@
       <c r="CB6" t="s">
         <v>227</v>
       </c>
-      <c r="CC6" t="s">
-        <v>10</v>
+      <c r="CC6" s="1">
+        <v>2</v>
       </c>
       <c r="CD6" t="s">
         <v>227</v>
@@ -30026,8 +30032,8 @@
       <c r="CG6" t="s">
         <v>227</v>
       </c>
-      <c r="CH6" t="s">
-        <v>228</v>
+      <c r="CH6" s="1">
+        <v>0</v>
       </c>
       <c r="CI6" t="s">
         <v>227</v>
@@ -30038,8 +30044,8 @@
       <c r="CK6" t="s">
         <v>227</v>
       </c>
-      <c r="CL6" t="s">
-        <v>9</v>
+      <c r="CL6" s="1">
+        <v>1</v>
       </c>
       <c r="CM6" t="s">
         <v>227</v>
@@ -30047,8 +30053,8 @@
       <c r="CN6" t="s">
         <v>227</v>
       </c>
-      <c r="CO6" t="s">
-        <v>10</v>
+      <c r="CO6" s="1">
+        <v>2</v>
       </c>
       <c r="CP6" t="s">
         <v>227</v>
@@ -30056,8 +30062,8 @@
       <c r="CQ6" t="s">
         <v>227</v>
       </c>
-      <c r="CR6" t="s">
-        <v>228</v>
+      <c r="CR6" s="1">
+        <v>0</v>
       </c>
       <c r="CS6" t="s">
         <v>227</v>
@@ -30074,8 +30080,8 @@
       <c r="CW6" t="s">
         <v>227</v>
       </c>
-      <c r="CX6" t="s">
-        <v>15</v>
+      <c r="CX6" s="1">
+        <v>7</v>
       </c>
       <c r="CY6" t="s">
         <v>227</v>
@@ -30086,8 +30092,8 @@
       <c r="DA6" t="s">
         <v>227</v>
       </c>
-      <c r="DB6" t="s">
-        <v>13</v>
+      <c r="DB6" s="1">
+        <v>5</v>
       </c>
       <c r="DC6" t="s">
         <v>227</v>
@@ -30107,8 +30113,8 @@
       <c r="DH6" t="s">
         <v>227</v>
       </c>
-      <c r="DI6" t="s">
-        <v>228</v>
+      <c r="DI6" s="1">
+        <v>0</v>
       </c>
       <c r="DJ6" t="s">
         <v>227</v>
@@ -30119,8 +30125,8 @@
       <c r="DL6" t="s">
         <v>227</v>
       </c>
-      <c r="DM6" t="s">
-        <v>9</v>
+      <c r="DM6" s="1">
+        <v>1</v>
       </c>
       <c r="DN6" t="s">
         <v>227</v>
@@ -30131,8 +30137,8 @@
       <c r="DP6" t="s">
         <v>227</v>
       </c>
-      <c r="DQ6" t="s">
-        <v>10</v>
+      <c r="DQ6" s="1">
+        <v>2</v>
       </c>
       <c r="DR6" t="s">
         <v>227</v>
@@ -30143,8 +30149,8 @@
       <c r="DT6" t="s">
         <v>227</v>
       </c>
-      <c r="DU6" t="s">
-        <v>11</v>
+      <c r="DU6" s="1">
+        <v>3</v>
       </c>
       <c r="DV6" t="s">
         <v>227</v>
@@ -30155,8 +30161,8 @@
       <c r="DX6" t="s">
         <v>227</v>
       </c>
-      <c r="DY6" t="s">
-        <v>9</v>
+      <c r="DY6" s="1">
+        <v>1</v>
       </c>
       <c r="DZ6" t="s">
         <v>227</v>
@@ -30175,8 +30181,8 @@
       <c r="A7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="B7" s="1">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>227</v>
@@ -30184,8 +30190,8 @@
       <c r="D7" t="s">
         <v>227</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
+      <c r="E7" s="1">
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>227</v>
@@ -30193,8 +30199,8 @@
       <c r="G7" t="s">
         <v>227</v>
       </c>
-      <c r="H7" t="s">
-        <v>11</v>
+      <c r="H7" s="1">
+        <v>3</v>
       </c>
       <c r="I7" t="s">
         <v>227</v>
@@ -30202,8 +30208,8 @@
       <c r="J7" t="s">
         <v>227</v>
       </c>
-      <c r="K7" t="s">
-        <v>12</v>
+      <c r="K7" s="1">
+        <v>4</v>
       </c>
       <c r="L7" t="s">
         <v>227</v>
@@ -30211,8 +30217,8 @@
       <c r="M7" t="s">
         <v>227</v>
       </c>
-      <c r="N7" t="s">
-        <v>10</v>
+      <c r="N7" s="1">
+        <v>2</v>
       </c>
       <c r="O7" t="s">
         <v>227</v>
@@ -30220,8 +30226,8 @@
       <c r="P7" t="s">
         <v>227</v>
       </c>
-      <c r="Q7" t="s">
-        <v>11</v>
+      <c r="Q7" s="1">
+        <v>3</v>
       </c>
       <c r="R7" t="s">
         <v>227</v>
@@ -30229,8 +30235,8 @@
       <c r="S7" t="s">
         <v>227</v>
       </c>
-      <c r="T7" t="s">
-        <v>10</v>
+      <c r="T7" s="1">
+        <v>2</v>
       </c>
       <c r="U7" t="s">
         <v>227</v>
@@ -30244,8 +30250,8 @@
       <c r="X7" t="s">
         <v>227</v>
       </c>
-      <c r="Y7" t="s">
-        <v>13</v>
+      <c r="Y7" s="1">
+        <v>5</v>
       </c>
       <c r="Z7" t="s">
         <v>227</v>
@@ -30256,11 +30262,11 @@
       <c r="AB7" t="s">
         <v>227</v>
       </c>
-      <c r="AC7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>10</v>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>2</v>
       </c>
       <c r="AE7" t="s">
         <v>227</v>
@@ -30274,8 +30280,8 @@
       <c r="AH7" t="s">
         <v>227</v>
       </c>
-      <c r="AI7" t="s">
-        <v>14</v>
+      <c r="AI7" s="1">
+        <v>6</v>
       </c>
       <c r="AJ7" t="s">
         <v>227</v>
@@ -30286,20 +30292,20 @@
       <c r="AL7" t="s">
         <v>227</v>
       </c>
-      <c r="AM7" t="s">
-        <v>10</v>
+      <c r="AM7" s="1">
+        <v>2</v>
       </c>
       <c r="AN7" t="s">
         <v>227</v>
       </c>
-      <c r="AO7" t="s">
-        <v>10</v>
+      <c r="AO7" s="1">
+        <v>2</v>
       </c>
       <c r="AP7" t="s">
         <v>227</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>15</v>
+      <c r="AQ7" s="1">
+        <v>7</v>
       </c>
       <c r="AR7" t="s">
         <v>227</v>
@@ -30307,14 +30313,14 @@
       <c r="AS7" t="s">
         <v>227</v>
       </c>
-      <c r="AT7" t="s">
-        <v>11</v>
+      <c r="AT7" s="1">
+        <v>3</v>
       </c>
       <c r="AU7" t="s">
         <v>227</v>
       </c>
-      <c r="AV7" t="s">
-        <v>10</v>
+      <c r="AV7" s="1">
+        <v>2</v>
       </c>
       <c r="AW7" t="s">
         <v>227</v>
@@ -30325,8 +30331,8 @@
       <c r="AY7" t="s">
         <v>227</v>
       </c>
-      <c r="AZ7" t="s">
-        <v>10</v>
+      <c r="AZ7" s="1">
+        <v>2</v>
       </c>
       <c r="BA7" t="s">
         <v>227</v>
@@ -30340,14 +30346,14 @@
       <c r="BD7" t="s">
         <v>227</v>
       </c>
-      <c r="BE7" t="s">
-        <v>228</v>
+      <c r="BE7" s="1">
+        <v>0</v>
       </c>
       <c r="BF7" t="s">
         <v>227</v>
       </c>
-      <c r="BG7" t="s">
-        <v>12</v>
+      <c r="BG7" s="1">
+        <v>4</v>
       </c>
       <c r="BH7" t="s">
         <v>227</v>
@@ -30364,8 +30370,8 @@
       <c r="BL7" t="s">
         <v>227</v>
       </c>
-      <c r="BM7" t="s">
-        <v>13</v>
+      <c r="BM7" s="1">
+        <v>5</v>
       </c>
       <c r="BN7" t="s">
         <v>227</v>
@@ -30373,14 +30379,14 @@
       <c r="BO7" t="s">
         <v>227</v>
       </c>
-      <c r="BP7" t="s">
-        <v>9</v>
+      <c r="BP7" s="1">
+        <v>1</v>
       </c>
       <c r="BQ7" t="s">
         <v>227</v>
       </c>
-      <c r="BR7" t="s">
-        <v>11</v>
+      <c r="BR7" s="1">
+        <v>3</v>
       </c>
       <c r="BS7" t="s">
         <v>227</v>
@@ -30394,11 +30400,11 @@
       <c r="BV7" t="s">
         <v>227</v>
       </c>
-      <c r="BW7" t="s">
-        <v>10</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>11</v>
+      <c r="BW7" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX7" s="1">
+        <v>3</v>
       </c>
       <c r="BY7" t="s">
         <v>227</v>
@@ -30418,8 +30424,8 @@
       <c r="CD7" t="s">
         <v>227</v>
       </c>
-      <c r="CE7" t="s">
-        <v>11</v>
+      <c r="CE7" s="1">
+        <v>3</v>
       </c>
       <c r="CF7" t="s">
         <v>227</v>
@@ -30427,8 +30433,8 @@
       <c r="CG7" t="s">
         <v>227</v>
       </c>
-      <c r="CH7" t="s">
-        <v>228</v>
+      <c r="CH7" s="1">
+        <v>0</v>
       </c>
       <c r="CI7" t="s">
         <v>227</v>
@@ -30436,8 +30442,8 @@
       <c r="CJ7" t="s">
         <v>227</v>
       </c>
-      <c r="CK7" t="s">
-        <v>228</v>
+      <c r="CK7" s="1">
+        <v>0</v>
       </c>
       <c r="CL7" t="s">
         <v>227</v>
@@ -30445,8 +30451,8 @@
       <c r="CM7" t="s">
         <v>227</v>
       </c>
-      <c r="CN7" t="s">
-        <v>13</v>
+      <c r="CN7" s="1">
+        <v>5</v>
       </c>
       <c r="CO7" t="s">
         <v>227</v>
@@ -30457,8 +30463,8 @@
       <c r="CQ7" t="s">
         <v>227</v>
       </c>
-      <c r="CR7" t="s">
-        <v>9</v>
+      <c r="CR7" s="1">
+        <v>1</v>
       </c>
       <c r="CS7" t="s">
         <v>227</v>
@@ -30481,14 +30487,14 @@
       <c r="CY7" t="s">
         <v>227</v>
       </c>
-      <c r="CZ7" t="s">
-        <v>10</v>
+      <c r="CZ7" s="1">
+        <v>2</v>
       </c>
       <c r="DA7" t="s">
         <v>227</v>
       </c>
-      <c r="DB7" t="s">
-        <v>13</v>
+      <c r="DB7" s="1">
+        <v>5</v>
       </c>
       <c r="DC7" t="s">
         <v>227</v>
@@ -30526,14 +30532,14 @@
       <c r="DN7" t="s">
         <v>227</v>
       </c>
-      <c r="DO7" t="s">
-        <v>11</v>
+      <c r="DO7" s="1">
+        <v>3</v>
       </c>
       <c r="DP7" t="s">
         <v>227</v>
       </c>
-      <c r="DQ7" t="s">
-        <v>10</v>
+      <c r="DQ7" s="1">
+        <v>2</v>
       </c>
       <c r="DR7" t="s">
         <v>227</v>
@@ -30544,8 +30550,8 @@
       <c r="DT7" t="s">
         <v>227</v>
       </c>
-      <c r="DU7" t="s">
-        <v>10</v>
+      <c r="DU7" s="1">
+        <v>2</v>
       </c>
       <c r="DV7" t="s">
         <v>227</v>
@@ -30553,8 +30559,8 @@
       <c r="DW7" t="s">
         <v>227</v>
       </c>
-      <c r="DX7" t="s">
-        <v>12</v>
+      <c r="DX7" s="1">
+        <v>4</v>
       </c>
       <c r="DY7" t="s">
         <v>227</v>
@@ -30568,8 +30574,8 @@
       <c r="EB7" t="s">
         <v>227</v>
       </c>
-      <c r="EC7" t="s">
-        <v>13</v>
+      <c r="EC7" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:133" x14ac:dyDescent="0.25">
@@ -30579,14 +30585,14 @@
       <c r="B8" t="s">
         <v>227</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
+      <c r="C8" s="1">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>227</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
+      <c r="E8" s="1">
+        <v>7</v>
       </c>
       <c r="F8" t="s">
         <v>227</v>
@@ -30594,8 +30600,8 @@
       <c r="G8" t="s">
         <v>227</v>
       </c>
-      <c r="H8" t="s">
-        <v>11</v>
+      <c r="H8" s="1">
+        <v>3</v>
       </c>
       <c r="I8" t="s">
         <v>227</v>
@@ -30603,14 +30609,14 @@
       <c r="J8" t="s">
         <v>227</v>
       </c>
-      <c r="K8" t="s">
-        <v>14</v>
+      <c r="K8" s="1">
+        <v>6</v>
       </c>
       <c r="L8" t="s">
         <v>227</v>
       </c>
-      <c r="M8" t="s">
-        <v>12</v>
+      <c r="M8" s="1">
+        <v>4</v>
       </c>
       <c r="N8" t="s">
         <v>227</v>
@@ -30624,8 +30630,8 @@
       <c r="Q8" t="s">
         <v>227</v>
       </c>
-      <c r="R8" t="s">
-        <v>10</v>
+      <c r="R8" s="1">
+        <v>2</v>
       </c>
       <c r="S8" t="s">
         <v>227</v>
@@ -30636,8 +30642,8 @@
       <c r="U8" t="s">
         <v>227</v>
       </c>
-      <c r="V8" t="s">
-        <v>11</v>
+      <c r="V8" s="1">
+        <v>3</v>
       </c>
       <c r="W8" t="s">
         <v>227</v>
@@ -30645,8 +30651,8 @@
       <c r="X8" t="s">
         <v>227</v>
       </c>
-      <c r="Y8" t="s">
-        <v>12</v>
+      <c r="Y8" s="1">
+        <v>4</v>
       </c>
       <c r="Z8" t="s">
         <v>227</v>
@@ -30654,8 +30660,8 @@
       <c r="AA8" t="s">
         <v>227</v>
       </c>
-      <c r="AB8" t="s">
-        <v>13</v>
+      <c r="AB8" s="1">
+        <v>5</v>
       </c>
       <c r="AC8" t="s">
         <v>227</v>
@@ -30663,8 +30669,8 @@
       <c r="AD8" t="s">
         <v>227</v>
       </c>
-      <c r="AE8" t="s">
-        <v>9</v>
+      <c r="AE8" s="1">
+        <v>1</v>
       </c>
       <c r="AF8" t="s">
         <v>227</v>
@@ -30672,8 +30678,8 @@
       <c r="AG8" t="s">
         <v>227</v>
       </c>
-      <c r="AH8" t="s">
-        <v>10</v>
+      <c r="AH8" s="1">
+        <v>2</v>
       </c>
       <c r="AI8" t="s">
         <v>227</v>
@@ -30684,8 +30690,8 @@
       <c r="AK8" t="s">
         <v>227</v>
       </c>
-      <c r="AL8" t="s">
-        <v>9</v>
+      <c r="AL8" s="1">
+        <v>1</v>
       </c>
       <c r="AM8" t="s">
         <v>227</v>
@@ -30693,14 +30699,14 @@
       <c r="AN8" t="s">
         <v>227</v>
       </c>
-      <c r="AO8" t="s">
-        <v>10</v>
+      <c r="AO8" s="1">
+        <v>2</v>
       </c>
       <c r="AP8" t="s">
         <v>227</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>11</v>
+      <c r="AQ8" s="1">
+        <v>3</v>
       </c>
       <c r="AR8" t="s">
         <v>227</v>
@@ -30708,8 +30714,8 @@
       <c r="AS8" t="s">
         <v>227</v>
       </c>
-      <c r="AT8" t="s">
-        <v>9</v>
+      <c r="AT8" s="1">
+        <v>1</v>
       </c>
       <c r="AU8" t="s">
         <v>227</v>
@@ -30723,8 +30729,8 @@
       <c r="AX8" t="s">
         <v>227</v>
       </c>
-      <c r="AY8" t="s">
-        <v>9</v>
+      <c r="AY8" s="1">
+        <v>1</v>
       </c>
       <c r="AZ8" t="s">
         <v>227</v>
@@ -30735,8 +30741,8 @@
       <c r="BB8" t="s">
         <v>227</v>
       </c>
-      <c r="BC8" t="s">
-        <v>11</v>
+      <c r="BC8" s="1">
+        <v>3</v>
       </c>
       <c r="BD8" t="s">
         <v>227</v>
@@ -30768,14 +30774,14 @@
       <c r="BM8" t="s">
         <v>227</v>
       </c>
-      <c r="BN8" t="s">
-        <v>10</v>
+      <c r="BN8" s="1">
+        <v>2</v>
       </c>
       <c r="BO8" t="s">
         <v>227</v>
       </c>
-      <c r="BP8" t="s">
-        <v>10</v>
+      <c r="BP8" s="1">
+        <v>2</v>
       </c>
       <c r="BQ8" t="s">
         <v>227</v>
@@ -30783,14 +30789,14 @@
       <c r="BR8" t="s">
         <v>227</v>
       </c>
-      <c r="BS8" t="s">
-        <v>11</v>
+      <c r="BS8" s="1">
+        <v>3</v>
       </c>
       <c r="BT8" t="s">
         <v>227</v>
       </c>
-      <c r="BU8" t="s">
-        <v>14</v>
+      <c r="BU8" s="1">
+        <v>6</v>
       </c>
       <c r="BV8" t="s">
         <v>227</v>
@@ -30801,20 +30807,20 @@
       <c r="BX8" t="s">
         <v>227</v>
       </c>
-      <c r="BY8" t="s">
-        <v>10</v>
+      <c r="BY8" s="1">
+        <v>2</v>
       </c>
       <c r="BZ8" t="s">
         <v>227</v>
       </c>
-      <c r="CA8" t="s">
-        <v>12</v>
+      <c r="CA8" s="1">
+        <v>4</v>
       </c>
       <c r="CB8" t="s">
         <v>227</v>
       </c>
-      <c r="CC8" t="s">
-        <v>10</v>
+      <c r="CC8" s="1">
+        <v>2</v>
       </c>
       <c r="CD8" t="s">
         <v>227</v>
@@ -30831,8 +30837,8 @@
       <c r="CH8" t="s">
         <v>227</v>
       </c>
-      <c r="CI8" t="s">
-        <v>9</v>
+      <c r="CI8" s="1">
+        <v>1</v>
       </c>
       <c r="CJ8" t="s">
         <v>227</v>
@@ -30840,8 +30846,8 @@
       <c r="CK8" t="s">
         <v>227</v>
       </c>
-      <c r="CL8" t="s">
-        <v>9</v>
+      <c r="CL8" s="1">
+        <v>1</v>
       </c>
       <c r="CM8" t="s">
         <v>227</v>
@@ -30849,8 +30855,8 @@
       <c r="CN8" t="s">
         <v>227</v>
       </c>
-      <c r="CO8" t="s">
-        <v>10</v>
+      <c r="CO8" s="1">
+        <v>2</v>
       </c>
       <c r="CP8" t="s">
         <v>227</v>
@@ -30858,8 +30864,8 @@
       <c r="CQ8" t="s">
         <v>227</v>
       </c>
-      <c r="CR8" t="s">
-        <v>11</v>
+      <c r="CR8" s="1">
+        <v>3</v>
       </c>
       <c r="CS8" t="s">
         <v>227</v>
@@ -30882,8 +30888,8 @@
       <c r="CY8" t="s">
         <v>227</v>
       </c>
-      <c r="CZ8" t="s">
-        <v>10</v>
+      <c r="CZ8" s="1">
+        <v>2</v>
       </c>
       <c r="DA8" t="s">
         <v>227</v>
@@ -30894,11 +30900,11 @@
       <c r="DC8" t="s">
         <v>227</v>
       </c>
-      <c r="DD8" t="s">
-        <v>228</v>
-      </c>
-      <c r="DE8" t="s">
-        <v>12</v>
+      <c r="DD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="1">
+        <v>4</v>
       </c>
       <c r="DF8" t="s">
         <v>227</v>
@@ -30918,8 +30924,8 @@
       <c r="DK8" t="s">
         <v>227</v>
       </c>
-      <c r="DL8" t="s">
-        <v>9</v>
+      <c r="DL8" s="1">
+        <v>1</v>
       </c>
       <c r="DM8" t="s">
         <v>227</v>
@@ -30933,8 +30939,8 @@
       <c r="DP8" t="s">
         <v>227</v>
       </c>
-      <c r="DQ8" t="s">
-        <v>11</v>
+      <c r="DQ8" s="1">
+        <v>3</v>
       </c>
       <c r="DR8" t="s">
         <v>227</v>
@@ -30948,8 +30954,8 @@
       <c r="DU8" t="s">
         <v>227</v>
       </c>
-      <c r="DV8" t="s">
-        <v>9</v>
+      <c r="DV8" s="1">
+        <v>1</v>
       </c>
       <c r="DW8" t="s">
         <v>227</v>
@@ -30960,8 +30966,8 @@
       <c r="DY8" t="s">
         <v>227</v>
       </c>
-      <c r="DZ8" t="s">
-        <v>228</v>
+      <c r="DZ8" s="1">
+        <v>0</v>
       </c>
       <c r="EA8" t="s">
         <v>227</v>
@@ -30969,16 +30975,16 @@
       <c r="EB8" t="s">
         <v>227</v>
       </c>
-      <c r="EC8" t="s">
-        <v>9</v>
+      <c r="EC8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="B9" s="1">
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>227</v>
@@ -30986,8 +30992,8 @@
       <c r="D9" t="s">
         <v>227</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
+      <c r="E9" s="1">
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>227</v>
@@ -31001,20 +31007,20 @@
       <c r="I9" t="s">
         <v>227</v>
       </c>
-      <c r="J9" t="s">
-        <v>11</v>
+      <c r="J9" s="1">
+        <v>3</v>
       </c>
       <c r="K9" t="s">
         <v>227</v>
       </c>
-      <c r="L9" t="s">
-        <v>9</v>
+      <c r="L9" s="1">
+        <v>1</v>
       </c>
       <c r="M9" t="s">
         <v>227</v>
       </c>
-      <c r="N9" t="s">
-        <v>10</v>
+      <c r="N9" s="1">
+        <v>2</v>
       </c>
       <c r="O9" t="s">
         <v>227</v>
@@ -31022,8 +31028,8 @@
       <c r="P9" t="s">
         <v>227</v>
       </c>
-      <c r="Q9" t="s">
-        <v>11</v>
+      <c r="Q9" s="1">
+        <v>3</v>
       </c>
       <c r="R9" t="s">
         <v>227</v>
@@ -31040,14 +31046,14 @@
       <c r="V9" t="s">
         <v>227</v>
       </c>
-      <c r="W9" t="s">
-        <v>10</v>
+      <c r="W9" s="1">
+        <v>2</v>
       </c>
       <c r="X9" t="s">
         <v>227</v>
       </c>
-      <c r="Y9" t="s">
-        <v>9</v>
+      <c r="Y9" s="1">
+        <v>1</v>
       </c>
       <c r="Z9" t="s">
         <v>227</v>
@@ -31055,8 +31061,8 @@
       <c r="AA9" t="s">
         <v>227</v>
       </c>
-      <c r="AB9" t="s">
-        <v>13</v>
+      <c r="AB9" s="1">
+        <v>5</v>
       </c>
       <c r="AC9" t="s">
         <v>227</v>
@@ -31070,11 +31076,11 @@
       <c r="AF9" t="s">
         <v>227</v>
       </c>
-      <c r="AG9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>10</v>
+      <c r="AG9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>2</v>
       </c>
       <c r="AI9" t="s">
         <v>227</v>
@@ -31088,20 +31094,20 @@
       <c r="AL9" t="s">
         <v>227</v>
       </c>
-      <c r="AM9" t="s">
-        <v>10</v>
+      <c r="AM9" s="1">
+        <v>2</v>
       </c>
       <c r="AN9" t="s">
         <v>227</v>
       </c>
-      <c r="AO9" t="s">
-        <v>228</v>
+      <c r="AO9" s="1">
+        <v>0</v>
       </c>
       <c r="AP9" t="s">
         <v>227</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>10</v>
+      <c r="AQ9" s="1">
+        <v>2</v>
       </c>
       <c r="AR9" t="s">
         <v>227</v>
@@ -31109,8 +31115,8 @@
       <c r="AS9" t="s">
         <v>227</v>
       </c>
-      <c r="AT9" t="s">
-        <v>228</v>
+      <c r="AT9" s="1">
+        <v>0</v>
       </c>
       <c r="AU9" t="s">
         <v>227</v>
@@ -31139,14 +31145,14 @@
       <c r="BC9" t="s">
         <v>227</v>
       </c>
-      <c r="BD9" t="s">
-        <v>10</v>
+      <c r="BD9" s="1">
+        <v>2</v>
       </c>
       <c r="BE9" t="s">
         <v>227</v>
       </c>
-      <c r="BF9" t="s">
-        <v>9</v>
+      <c r="BF9" s="1">
+        <v>1</v>
       </c>
       <c r="BG9" t="s">
         <v>227</v>
@@ -31157,8 +31163,8 @@
       <c r="BI9" t="s">
         <v>227</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>11</v>
+      <c r="BJ9" s="1">
+        <v>3</v>
       </c>
       <c r="BK9" t="s">
         <v>227</v>
@@ -31169,14 +31175,14 @@
       <c r="BM9" t="s">
         <v>227</v>
       </c>
-      <c r="BN9" t="s">
-        <v>228</v>
+      <c r="BN9" s="1">
+        <v>0</v>
       </c>
       <c r="BO9" t="s">
         <v>227</v>
       </c>
-      <c r="BP9" t="s">
-        <v>12</v>
+      <c r="BP9" s="1">
+        <v>4</v>
       </c>
       <c r="BQ9" t="s">
         <v>227</v>
@@ -31184,14 +31190,14 @@
       <c r="BR9" t="s">
         <v>227</v>
       </c>
-      <c r="BS9" t="s">
-        <v>10</v>
+      <c r="BS9" s="1">
+        <v>2</v>
       </c>
       <c r="BT9" t="s">
         <v>227</v>
       </c>
-      <c r="BU9" t="s">
-        <v>228</v>
+      <c r="BU9" s="1">
+        <v>0</v>
       </c>
       <c r="BV9" t="s">
         <v>227</v>
@@ -31202,20 +31208,20 @@
       <c r="BX9" t="s">
         <v>227</v>
       </c>
-      <c r="BY9" t="s">
-        <v>10</v>
+      <c r="BY9" s="1">
+        <v>2</v>
       </c>
       <c r="BZ9" t="s">
         <v>227</v>
       </c>
-      <c r="CA9" t="s">
-        <v>10</v>
+      <c r="CA9" s="1">
+        <v>2</v>
       </c>
       <c r="CB9" t="s">
         <v>227</v>
       </c>
-      <c r="CC9" t="s">
-        <v>9</v>
+      <c r="CC9" s="1">
+        <v>1</v>
       </c>
       <c r="CD9" t="s">
         <v>227</v>
@@ -31229,8 +31235,8 @@
       <c r="CG9" t="s">
         <v>227</v>
       </c>
-      <c r="CH9" t="s">
-        <v>228</v>
+      <c r="CH9" s="1">
+        <v>0</v>
       </c>
       <c r="CI9" t="s">
         <v>227</v>
@@ -31241,14 +31247,14 @@
       <c r="CK9" t="s">
         <v>227</v>
       </c>
-      <c r="CL9" t="s">
-        <v>9</v>
+      <c r="CL9" s="1">
+        <v>1</v>
       </c>
       <c r="CM9" t="s">
         <v>227</v>
       </c>
-      <c r="CN9" t="s">
-        <v>9</v>
+      <c r="CN9" s="1">
+        <v>1</v>
       </c>
       <c r="CO9" t="s">
         <v>227</v>
@@ -31259,8 +31265,8 @@
       <c r="CQ9" t="s">
         <v>227</v>
       </c>
-      <c r="CR9" t="s">
-        <v>11</v>
+      <c r="CR9" s="1">
+        <v>3</v>
       </c>
       <c r="CS9" t="s">
         <v>227</v>
@@ -31268,8 +31274,8 @@
       <c r="CT9" t="s">
         <v>227</v>
       </c>
-      <c r="CU9" t="s">
-        <v>11</v>
+      <c r="CU9" s="1">
+        <v>3</v>
       </c>
       <c r="CV9" t="s">
         <v>227</v>
@@ -31280,14 +31286,14 @@
       <c r="CX9" t="s">
         <v>227</v>
       </c>
-      <c r="CY9" t="s">
-        <v>12</v>
+      <c r="CY9" s="1">
+        <v>4</v>
       </c>
       <c r="CZ9" t="s">
         <v>227</v>
       </c>
-      <c r="DA9" t="s">
-        <v>9</v>
+      <c r="DA9" s="1">
+        <v>1</v>
       </c>
       <c r="DB9" t="s">
         <v>227</v>
@@ -31304,8 +31310,8 @@
       <c r="DF9" t="s">
         <v>227</v>
       </c>
-      <c r="DG9" t="s">
-        <v>10</v>
+      <c r="DG9" s="1">
+        <v>2</v>
       </c>
       <c r="DH9" t="s">
         <v>227</v>
@@ -31334,8 +31340,8 @@
       <c r="DP9" t="s">
         <v>227</v>
       </c>
-      <c r="DQ9" t="s">
-        <v>10</v>
+      <c r="DQ9" s="1">
+        <v>2</v>
       </c>
       <c r="DR9" t="s">
         <v>227</v>
@@ -31352,8 +31358,8 @@
       <c r="DV9" t="s">
         <v>227</v>
       </c>
-      <c r="DW9" t="s">
-        <v>10</v>
+      <c r="DW9" s="1">
+        <v>2</v>
       </c>
       <c r="DX9" t="s">
         <v>227</v>
@@ -31367,8 +31373,8 @@
       <c r="EA9" t="s">
         <v>227</v>
       </c>
-      <c r="EB9" t="s">
-        <v>12</v>
+      <c r="EB9" s="1">
+        <v>4</v>
       </c>
       <c r="EC9" t="s">
         <v>227</v>
@@ -31378,8 +31384,8 @@
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
+      <c r="B10" s="1">
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>227</v>
@@ -31387,8 +31393,8 @@
       <c r="D10" t="s">
         <v>227</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
+      <c r="E10" s="1">
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>227</v>
@@ -31399,14 +31405,14 @@
       <c r="H10" t="s">
         <v>227</v>
       </c>
-      <c r="I10" t="s">
-        <v>9</v>
+      <c r="I10" s="1">
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>227</v>
       </c>
-      <c r="K10" t="s">
-        <v>10</v>
+      <c r="K10" s="1">
+        <v>2</v>
       </c>
       <c r="L10" t="s">
         <v>227</v>
@@ -31417,11 +31423,11 @@
       <c r="N10" t="s">
         <v>227</v>
       </c>
-      <c r="O10" t="s">
-        <v>9</v>
-      </c>
-      <c r="P10" t="s">
-        <v>11</v>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3</v>
       </c>
       <c r="Q10" t="s">
         <v>227</v>
@@ -31441,14 +31447,14 @@
       <c r="V10" t="s">
         <v>227</v>
       </c>
-      <c r="W10" t="s">
-        <v>13</v>
+      <c r="W10" s="1">
+        <v>5</v>
       </c>
       <c r="X10" t="s">
         <v>227</v>
       </c>
-      <c r="Y10" t="s">
-        <v>13</v>
+      <c r="Y10" s="1">
+        <v>5</v>
       </c>
       <c r="Z10" t="s">
         <v>227</v>
@@ -31456,8 +31462,8 @@
       <c r="AA10" t="s">
         <v>227</v>
       </c>
-      <c r="AB10" t="s">
-        <v>228</v>
+      <c r="AB10" s="1">
+        <v>0</v>
       </c>
       <c r="AC10" t="s">
         <v>227</v>
@@ -31465,8 +31471,8 @@
       <c r="AD10" t="s">
         <v>227</v>
       </c>
-      <c r="AE10" t="s">
-        <v>9</v>
+      <c r="AE10" s="1">
+        <v>1</v>
       </c>
       <c r="AF10" t="s">
         <v>227</v>
@@ -31474,8 +31480,8 @@
       <c r="AG10" t="s">
         <v>227</v>
       </c>
-      <c r="AH10" t="s">
-        <v>12</v>
+      <c r="AH10" s="1">
+        <v>4</v>
       </c>
       <c r="AI10" t="s">
         <v>227</v>
@@ -31483,8 +31489,8 @@
       <c r="AJ10" t="s">
         <v>227</v>
       </c>
-      <c r="AK10" t="s">
-        <v>11</v>
+      <c r="AK10" s="1">
+        <v>3</v>
       </c>
       <c r="AL10" t="s">
         <v>227</v>
@@ -31495,8 +31501,8 @@
       <c r="AN10" t="s">
         <v>227</v>
       </c>
-      <c r="AO10" t="s">
-        <v>15</v>
+      <c r="AO10" s="1">
+        <v>7</v>
       </c>
       <c r="AP10" t="s">
         <v>227</v>
@@ -31504,8 +31510,8 @@
       <c r="AQ10" t="s">
         <v>227</v>
       </c>
-      <c r="AR10" t="s">
-        <v>16</v>
+      <c r="AR10" s="1">
+        <v>8</v>
       </c>
       <c r="AS10" t="s">
         <v>227</v>
@@ -31513,14 +31519,14 @@
       <c r="AT10" t="s">
         <v>227</v>
       </c>
-      <c r="AU10" t="s">
-        <v>9</v>
+      <c r="AU10" s="1">
+        <v>1</v>
       </c>
       <c r="AV10" t="s">
         <v>227</v>
       </c>
-      <c r="AW10" t="s">
-        <v>13</v>
+      <c r="AW10" s="1">
+        <v>5</v>
       </c>
       <c r="AX10" t="s">
         <v>227</v>
@@ -31528,8 +31534,8 @@
       <c r="AY10" t="s">
         <v>227</v>
       </c>
-      <c r="AZ10" t="s">
-        <v>11</v>
+      <c r="AZ10" s="1">
+        <v>3</v>
       </c>
       <c r="BA10" t="s">
         <v>227</v>
@@ -31546,8 +31552,8 @@
       <c r="BE10" t="s">
         <v>227</v>
       </c>
-      <c r="BF10" t="s">
-        <v>9</v>
+      <c r="BF10" s="1">
+        <v>1</v>
       </c>
       <c r="BG10" t="s">
         <v>227</v>
@@ -31567,8 +31573,8 @@
       <c r="BL10" t="s">
         <v>227</v>
       </c>
-      <c r="BM10" t="s">
-        <v>11</v>
+      <c r="BM10" s="1">
+        <v>3</v>
       </c>
       <c r="BN10" t="s">
         <v>227</v>
@@ -31579,14 +31585,14 @@
       <c r="BP10" t="s">
         <v>227</v>
       </c>
-      <c r="BQ10" t="s">
-        <v>12</v>
+      <c r="BQ10" s="1">
+        <v>4</v>
       </c>
       <c r="BR10" t="s">
         <v>227</v>
       </c>
-      <c r="BS10" t="s">
-        <v>11</v>
+      <c r="BS10" s="1">
+        <v>3</v>
       </c>
       <c r="BT10" t="s">
         <v>227</v>
@@ -31597,14 +31603,14 @@
       <c r="BV10" t="s">
         <v>227</v>
       </c>
-      <c r="BW10" t="s">
-        <v>10</v>
+      <c r="BW10" s="1">
+        <v>2</v>
       </c>
       <c r="BX10" t="s">
         <v>227</v>
       </c>
-      <c r="BY10" t="s">
-        <v>14</v>
+      <c r="BY10" s="1">
+        <v>6</v>
       </c>
       <c r="BZ10" t="s">
         <v>227</v>
@@ -31612,8 +31618,8 @@
       <c r="CA10" t="s">
         <v>227</v>
       </c>
-      <c r="CB10" t="s">
-        <v>9</v>
+      <c r="CB10" s="1">
+        <v>1</v>
       </c>
       <c r="CC10" t="s">
         <v>227</v>
@@ -31624,11 +31630,11 @@
       <c r="CE10" t="s">
         <v>227</v>
       </c>
-      <c r="CF10" t="s">
-        <v>11</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>9</v>
+      <c r="CF10" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG10" s="1">
+        <v>1</v>
       </c>
       <c r="CH10" t="s">
         <v>227</v>
@@ -31651,8 +31657,8 @@
       <c r="CN10" t="s">
         <v>227</v>
       </c>
-      <c r="CO10" t="s">
-        <v>10</v>
+      <c r="CO10" s="1">
+        <v>2</v>
       </c>
       <c r="CP10" t="s">
         <v>227</v>
@@ -31660,8 +31666,8 @@
       <c r="CQ10" t="s">
         <v>227</v>
       </c>
-      <c r="CR10" t="s">
-        <v>228</v>
+      <c r="CR10" s="1">
+        <v>0</v>
       </c>
       <c r="CS10" t="s">
         <v>227</v>
@@ -31669,8 +31675,8 @@
       <c r="CT10" t="s">
         <v>227</v>
       </c>
-      <c r="CU10" t="s">
-        <v>11</v>
+      <c r="CU10" s="1">
+        <v>3</v>
       </c>
       <c r="CV10" t="s">
         <v>227</v>
@@ -31678,8 +31684,8 @@
       <c r="CW10" t="s">
         <v>227</v>
       </c>
-      <c r="CX10" t="s">
-        <v>11</v>
+      <c r="CX10" s="1">
+        <v>3</v>
       </c>
       <c r="CY10" t="s">
         <v>227</v>
@@ -31690,8 +31696,8 @@
       <c r="DA10" t="s">
         <v>227</v>
       </c>
-      <c r="DB10" t="s">
-        <v>11</v>
+      <c r="DB10" s="1">
+        <v>3</v>
       </c>
       <c r="DC10" t="s">
         <v>227</v>
@@ -31708,8 +31714,8 @@
       <c r="DG10" t="s">
         <v>227</v>
       </c>
-      <c r="DH10" t="s">
-        <v>10</v>
+      <c r="DH10" s="1">
+        <v>2</v>
       </c>
       <c r="DI10" t="s">
         <v>227</v>
@@ -31726,8 +31732,8 @@
       <c r="DM10" t="s">
         <v>227</v>
       </c>
-      <c r="DN10" t="s">
-        <v>228</v>
+      <c r="DN10" s="1">
+        <v>0</v>
       </c>
       <c r="DO10" t="s">
         <v>227</v>
@@ -31735,8 +31741,8 @@
       <c r="DP10" t="s">
         <v>227</v>
       </c>
-      <c r="DQ10" t="s">
-        <v>10</v>
+      <c r="DQ10" s="1">
+        <v>2</v>
       </c>
       <c r="DR10" t="s">
         <v>227</v>
@@ -31747,8 +31753,8 @@
       <c r="DT10" t="s">
         <v>227</v>
       </c>
-      <c r="DU10" t="s">
-        <v>12</v>
+      <c r="DU10" s="1">
+        <v>4</v>
       </c>
       <c r="DV10" t="s">
         <v>227</v>
@@ -31768,8 +31774,8 @@
       <c r="EA10" t="s">
         <v>227</v>
       </c>
-      <c r="EB10" t="s">
-        <v>12</v>
+      <c r="EB10" s="1">
+        <v>4</v>
       </c>
       <c r="EC10" t="s">
         <v>227</v>
@@ -31782,8 +31788,8 @@
       <c r="B11" t="s">
         <v>227</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
+      <c r="C11" s="1">
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>227</v>
@@ -31791,8 +31797,8 @@
       <c r="E11" t="s">
         <v>227</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
+      <c r="F11" s="1">
+        <v>6</v>
       </c>
       <c r="G11" t="s">
         <v>227</v>
@@ -31800,8 +31806,8 @@
       <c r="H11" t="s">
         <v>227</v>
       </c>
-      <c r="I11" t="s">
-        <v>15</v>
+      <c r="I11" s="1">
+        <v>7</v>
       </c>
       <c r="J11" t="s">
         <v>227</v>
@@ -31809,14 +31815,14 @@
       <c r="K11" t="s">
         <v>227</v>
       </c>
-      <c r="L11" t="s">
-        <v>11</v>
+      <c r="L11" s="1">
+        <v>3</v>
       </c>
       <c r="M11" t="s">
         <v>227</v>
       </c>
-      <c r="N11" t="s">
-        <v>9</v>
+      <c r="N11" s="1">
+        <v>1</v>
       </c>
       <c r="O11" t="s">
         <v>227</v>
@@ -31827,8 +31833,8 @@
       <c r="Q11" t="s">
         <v>227</v>
       </c>
-      <c r="R11" t="s">
-        <v>9</v>
+      <c r="R11" s="1">
+        <v>1</v>
       </c>
       <c r="S11" t="s">
         <v>227</v>
@@ -31842,8 +31848,8 @@
       <c r="V11" t="s">
         <v>227</v>
       </c>
-      <c r="W11" t="s">
-        <v>13</v>
+      <c r="W11" s="1">
+        <v>5</v>
       </c>
       <c r="X11" t="s">
         <v>227</v>
@@ -31851,14 +31857,14 @@
       <c r="Y11" t="s">
         <v>227</v>
       </c>
-      <c r="Z11" t="s">
-        <v>9</v>
+      <c r="Z11" s="1">
+        <v>1</v>
       </c>
       <c r="AA11" t="s">
         <v>227</v>
       </c>
-      <c r="AB11" t="s">
-        <v>11</v>
+      <c r="AB11" s="1">
+        <v>3</v>
       </c>
       <c r="AC11" t="s">
         <v>227</v>
@@ -31872,14 +31878,14 @@
       <c r="AF11" t="s">
         <v>227</v>
       </c>
-      <c r="AG11" t="s">
-        <v>11</v>
+      <c r="AG11" s="1">
+        <v>3</v>
       </c>
       <c r="AH11" t="s">
         <v>227</v>
       </c>
-      <c r="AI11" t="s">
-        <v>11</v>
+      <c r="AI11" s="1">
+        <v>3</v>
       </c>
       <c r="AJ11" t="s">
         <v>227</v>
@@ -31890,14 +31896,14 @@
       <c r="AL11" t="s">
         <v>227</v>
       </c>
-      <c r="AM11" t="s">
-        <v>11</v>
+      <c r="AM11" s="1">
+        <v>3</v>
       </c>
       <c r="AN11" t="s">
         <v>227</v>
       </c>
-      <c r="AO11" t="s">
-        <v>10</v>
+      <c r="AO11" s="1">
+        <v>2</v>
       </c>
       <c r="AP11" t="s">
         <v>227</v>
@@ -31905,20 +31911,20 @@
       <c r="AQ11" t="s">
         <v>227</v>
       </c>
-      <c r="AR11" t="s">
-        <v>10</v>
+      <c r="AR11" s="1">
+        <v>2</v>
       </c>
       <c r="AS11" t="s">
         <v>227</v>
       </c>
-      <c r="AT11" t="s">
-        <v>12</v>
+      <c r="AT11" s="1">
+        <v>4</v>
       </c>
       <c r="AU11" t="s">
         <v>227</v>
       </c>
-      <c r="AV11" t="s">
-        <v>10</v>
+      <c r="AV11" s="1">
+        <v>2</v>
       </c>
       <c r="AW11" t="s">
         <v>227</v>
@@ -31932,8 +31938,8 @@
       <c r="AZ11" t="s">
         <v>227</v>
       </c>
-      <c r="BA11" t="s">
-        <v>11</v>
+      <c r="BA11" s="1">
+        <v>3</v>
       </c>
       <c r="BB11" t="s">
         <v>227</v>
@@ -31947,8 +31953,8 @@
       <c r="BE11" t="s">
         <v>227</v>
       </c>
-      <c r="BF11" t="s">
-        <v>10</v>
+      <c r="BF11" s="1">
+        <v>2</v>
       </c>
       <c r="BG11" t="s">
         <v>227</v>
@@ -31956,8 +31962,8 @@
       <c r="BH11" t="s">
         <v>227</v>
       </c>
-      <c r="BI11" t="s">
-        <v>10</v>
+      <c r="BI11" s="1">
+        <v>2</v>
       </c>
       <c r="BJ11" t="s">
         <v>227</v>
@@ -31971,8 +31977,8 @@
       <c r="BM11" t="s">
         <v>227</v>
       </c>
-      <c r="BN11" t="s">
-        <v>10</v>
+      <c r="BN11" s="1">
+        <v>2</v>
       </c>
       <c r="BO11" t="s">
         <v>227</v>
@@ -31980,14 +31986,14 @@
       <c r="BP11" t="s">
         <v>227</v>
       </c>
-      <c r="BQ11" t="s">
-        <v>12</v>
+      <c r="BQ11" s="1">
+        <v>4</v>
       </c>
       <c r="BR11" t="s">
         <v>227</v>
       </c>
-      <c r="BS11" t="s">
-        <v>10</v>
+      <c r="BS11" s="1">
+        <v>2</v>
       </c>
       <c r="BT11" t="s">
         <v>227</v>
@@ -31995,14 +32001,14 @@
       <c r="BU11" t="s">
         <v>227</v>
       </c>
-      <c r="BV11" t="s">
-        <v>228</v>
+      <c r="BV11" s="1">
+        <v>0</v>
       </c>
       <c r="BW11" t="s">
         <v>227</v>
       </c>
-      <c r="BX11" t="s">
-        <v>12</v>
+      <c r="BX11" s="1">
+        <v>4</v>
       </c>
       <c r="BY11" t="s">
         <v>227</v>
@@ -32019,8 +32025,8 @@
       <c r="CC11" t="s">
         <v>227</v>
       </c>
-      <c r="CD11" t="s">
-        <v>11</v>
+      <c r="CD11" s="1">
+        <v>3</v>
       </c>
       <c r="CE11" t="s">
         <v>227</v>
@@ -32031,8 +32037,8 @@
       <c r="CG11" t="s">
         <v>227</v>
       </c>
-      <c r="CH11" t="s">
-        <v>12</v>
+      <c r="CH11" s="1">
+        <v>4</v>
       </c>
       <c r="CI11" t="s">
         <v>227</v>
@@ -32040,14 +32046,14 @@
       <c r="CJ11" t="s">
         <v>227</v>
       </c>
-      <c r="CK11" t="s">
-        <v>10</v>
+      <c r="CK11" s="1">
+        <v>2</v>
       </c>
       <c r="CL11" t="s">
         <v>227</v>
       </c>
-      <c r="CM11" t="s">
-        <v>11</v>
+      <c r="CM11" s="1">
+        <v>3</v>
       </c>
       <c r="CN11" t="s">
         <v>227</v>
@@ -32064,8 +32070,8 @@
       <c r="CR11" t="s">
         <v>227</v>
       </c>
-      <c r="CS11" t="s">
-        <v>13</v>
+      <c r="CS11" s="1">
+        <v>5</v>
       </c>
       <c r="CT11" t="s">
         <v>227</v>
@@ -32079,8 +32085,8 @@
       <c r="CW11" t="s">
         <v>227</v>
       </c>
-      <c r="CX11" t="s">
-        <v>10</v>
+      <c r="CX11" s="1">
+        <v>2</v>
       </c>
       <c r="CY11" t="s">
         <v>227</v>
@@ -32094,8 +32100,8 @@
       <c r="DB11" t="s">
         <v>227</v>
       </c>
-      <c r="DC11" t="s">
-        <v>13</v>
+      <c r="DC11" s="1">
+        <v>5</v>
       </c>
       <c r="DD11" t="s">
         <v>227</v>
@@ -32118,8 +32124,8 @@
       <c r="DJ11" t="s">
         <v>227</v>
       </c>
-      <c r="DK11" t="s">
-        <v>11</v>
+      <c r="DK11" s="1">
+        <v>3</v>
       </c>
       <c r="DL11" t="s">
         <v>227</v>
@@ -32130,11 +32136,11 @@
       <c r="DN11" t="s">
         <v>227</v>
       </c>
-      <c r="DO11" t="s">
-        <v>11</v>
-      </c>
-      <c r="DP11" t="s">
-        <v>10</v>
+      <c r="DO11" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP11" s="1">
+        <v>2</v>
       </c>
       <c r="DQ11" t="s">
         <v>227</v>
@@ -32145,8 +32151,8 @@
       <c r="DS11" t="s">
         <v>227</v>
       </c>
-      <c r="DT11" t="s">
-        <v>14</v>
+      <c r="DT11" s="1">
+        <v>6</v>
       </c>
       <c r="DU11" t="s">
         <v>227</v>
@@ -32157,8 +32163,8 @@
       <c r="DW11" t="s">
         <v>227</v>
       </c>
-      <c r="DX11" t="s">
-        <v>11</v>
+      <c r="DX11" s="1">
+        <v>3</v>
       </c>
       <c r="DY11" t="s">
         <v>227</v>
@@ -32180,8 +32186,8 @@
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>15</v>
+      <c r="B12" s="1">
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>227</v>
@@ -32192,8 +32198,8 @@
       <c r="E12" t="s">
         <v>227</v>
       </c>
-      <c r="F12" t="s">
-        <v>10</v>
+      <c r="F12" s="1">
+        <v>2</v>
       </c>
       <c r="G12" t="s">
         <v>227</v>
@@ -32204,17 +32210,17 @@
       <c r="I12" t="s">
         <v>227</v>
       </c>
-      <c r="J12" t="s">
-        <v>12</v>
+      <c r="J12" s="1">
+        <v>4</v>
       </c>
       <c r="K12" t="s">
         <v>227</v>
       </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" t="s">
-        <v>12</v>
+      <c r="L12" s="1">
+        <v>9</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4</v>
       </c>
       <c r="N12" t="s">
         <v>227</v>
@@ -32225,8 +32231,8 @@
       <c r="P12" t="s">
         <v>227</v>
       </c>
-      <c r="Q12" t="s">
-        <v>11</v>
+      <c r="Q12" s="1">
+        <v>3</v>
       </c>
       <c r="R12" t="s">
         <v>227</v>
@@ -32237,8 +32243,8 @@
       <c r="T12" t="s">
         <v>227</v>
       </c>
-      <c r="U12" t="s">
-        <v>11</v>
+      <c r="U12" s="1">
+        <v>3</v>
       </c>
       <c r="V12" t="s">
         <v>227</v>
@@ -32252,14 +32258,14 @@
       <c r="Y12" t="s">
         <v>227</v>
       </c>
-      <c r="Z12" t="s">
-        <v>10</v>
+      <c r="Z12" s="1">
+        <v>2</v>
       </c>
       <c r="AA12" t="s">
         <v>227</v>
       </c>
-      <c r="AB12" t="s">
-        <v>11</v>
+      <c r="AB12" s="1">
+        <v>3</v>
       </c>
       <c r="AC12" t="s">
         <v>227</v>
@@ -32267,8 +32273,8 @@
       <c r="AD12" t="s">
         <v>227</v>
       </c>
-      <c r="AE12" t="s">
-        <v>10</v>
+      <c r="AE12" s="1">
+        <v>2</v>
       </c>
       <c r="AF12" t="s">
         <v>227</v>
@@ -32279,8 +32285,8 @@
       <c r="AH12" t="s">
         <v>227</v>
       </c>
-      <c r="AI12" t="s">
-        <v>12</v>
+      <c r="AI12" s="1">
+        <v>4</v>
       </c>
       <c r="AJ12" t="s">
         <v>227</v>
@@ -32291,20 +32297,20 @@
       <c r="AL12" t="s">
         <v>227</v>
       </c>
-      <c r="AM12" t="s">
-        <v>10</v>
+      <c r="AM12" s="1">
+        <v>2</v>
       </c>
       <c r="AN12" t="s">
         <v>227</v>
       </c>
-      <c r="AO12" t="s">
-        <v>11</v>
+      <c r="AO12" s="1">
+        <v>3</v>
       </c>
       <c r="AP12" t="s">
         <v>227</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>15</v>
+      <c r="AQ12" s="1">
+        <v>7</v>
       </c>
       <c r="AR12" t="s">
         <v>227</v>
@@ -32315,8 +32321,8 @@
       <c r="AT12" t="s">
         <v>227</v>
       </c>
-      <c r="AU12" t="s">
-        <v>10</v>
+      <c r="AU12" s="1">
+        <v>2</v>
       </c>
       <c r="AV12" t="s">
         <v>227</v>
@@ -32324,8 +32330,8 @@
       <c r="AW12" t="s">
         <v>227</v>
       </c>
-      <c r="AX12" t="s">
-        <v>228</v>
+      <c r="AX12" s="1">
+        <v>0</v>
       </c>
       <c r="AY12" t="s">
         <v>227</v>
@@ -32336,8 +32342,8 @@
       <c r="BA12" t="s">
         <v>227</v>
       </c>
-      <c r="BB12" t="s">
-        <v>9</v>
+      <c r="BB12" s="1">
+        <v>1</v>
       </c>
       <c r="BC12" t="s">
         <v>227</v>
@@ -32351,8 +32357,8 @@
       <c r="BF12" t="s">
         <v>227</v>
       </c>
-      <c r="BG12" t="s">
-        <v>228</v>
+      <c r="BG12" s="1">
+        <v>0</v>
       </c>
       <c r="BH12" t="s">
         <v>227</v>
@@ -32363,8 +32369,8 @@
       <c r="BJ12" t="s">
         <v>227</v>
       </c>
-      <c r="BK12" t="s">
-        <v>9</v>
+      <c r="BK12" s="1">
+        <v>1</v>
       </c>
       <c r="BL12" t="s">
         <v>227</v>
@@ -32375,20 +32381,20 @@
       <c r="BN12" t="s">
         <v>227</v>
       </c>
-      <c r="BO12" t="s">
-        <v>12</v>
+      <c r="BO12" s="1">
+        <v>4</v>
       </c>
       <c r="BP12" t="s">
         <v>227</v>
       </c>
-      <c r="BQ12" t="s">
-        <v>12</v>
+      <c r="BQ12" s="1">
+        <v>4</v>
       </c>
       <c r="BR12" t="s">
         <v>227</v>
       </c>
-      <c r="BS12" t="s">
-        <v>9</v>
+      <c r="BS12" s="1">
+        <v>1</v>
       </c>
       <c r="BT12" t="s">
         <v>227</v>
@@ -32396,14 +32402,14 @@
       <c r="BU12" t="s">
         <v>227</v>
       </c>
-      <c r="BV12" t="s">
-        <v>13</v>
+      <c r="BV12" s="1">
+        <v>5</v>
       </c>
       <c r="BW12" t="s">
         <v>227</v>
       </c>
-      <c r="BX12" t="s">
-        <v>12</v>
+      <c r="BX12" s="1">
+        <v>4</v>
       </c>
       <c r="BY12" t="s">
         <v>227</v>
@@ -32417,8 +32423,8 @@
       <c r="CB12" t="s">
         <v>227</v>
       </c>
-      <c r="CC12" t="s">
-        <v>10</v>
+      <c r="CC12" s="1">
+        <v>2</v>
       </c>
       <c r="CD12" t="s">
         <v>227</v>
@@ -32432,8 +32438,8 @@
       <c r="CG12" t="s">
         <v>227</v>
       </c>
-      <c r="CH12" t="s">
-        <v>10</v>
+      <c r="CH12" s="1">
+        <v>2</v>
       </c>
       <c r="CI12" t="s">
         <v>227</v>
@@ -32444,14 +32450,14 @@
       <c r="CK12" t="s">
         <v>227</v>
       </c>
-      <c r="CL12" t="s">
-        <v>9</v>
+      <c r="CL12" s="1">
+        <v>1</v>
       </c>
       <c r="CM12" t="s">
         <v>227</v>
       </c>
-      <c r="CN12" t="s">
-        <v>9</v>
+      <c r="CN12" s="1">
+        <v>1</v>
       </c>
       <c r="CO12" t="s">
         <v>227</v>
@@ -32468,8 +32474,8 @@
       <c r="CS12" t="s">
         <v>227</v>
       </c>
-      <c r="CT12" t="s">
-        <v>9</v>
+      <c r="CT12" s="1">
+        <v>1</v>
       </c>
       <c r="CU12" t="s">
         <v>227</v>
@@ -32480,8 +32486,8 @@
       <c r="CW12" t="s">
         <v>227</v>
       </c>
-      <c r="CX12" t="s">
-        <v>11</v>
+      <c r="CX12" s="1">
+        <v>3</v>
       </c>
       <c r="CY12" t="s">
         <v>227</v>
@@ -32492,8 +32498,8 @@
       <c r="DA12" t="s">
         <v>227</v>
       </c>
-      <c r="DB12" t="s">
-        <v>11</v>
+      <c r="DB12" s="1">
+        <v>3</v>
       </c>
       <c r="DC12" t="s">
         <v>227</v>
@@ -32510,8 +32516,8 @@
       <c r="DG12" t="s">
         <v>227</v>
       </c>
-      <c r="DH12" t="s">
-        <v>10</v>
+      <c r="DH12" s="1">
+        <v>2</v>
       </c>
       <c r="DI12" t="s">
         <v>227</v>
@@ -32525,8 +32531,8 @@
       <c r="DL12" t="s">
         <v>227</v>
       </c>
-      <c r="DM12" t="s">
-        <v>10</v>
+      <c r="DM12" s="1">
+        <v>2</v>
       </c>
       <c r="DN12" t="s">
         <v>227</v>
@@ -32549,8 +32555,8 @@
       <c r="DT12" t="s">
         <v>227</v>
       </c>
-      <c r="DU12" t="s">
-        <v>10</v>
+      <c r="DU12" s="1">
+        <v>2</v>
       </c>
       <c r="DV12" t="s">
         <v>227</v>
@@ -32564,8 +32570,8 @@
       <c r="DY12" t="s">
         <v>227</v>
       </c>
-      <c r="DZ12" t="s">
-        <v>14</v>
+      <c r="DZ12" s="1">
+        <v>6</v>
       </c>
       <c r="EA12" t="s">
         <v>227</v>
@@ -32573,8 +32579,8 @@
       <c r="EB12" t="s">
         <v>227</v>
       </c>
-      <c r="EC12" t="s">
-        <v>11</v>
+      <c r="EC12" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:133" x14ac:dyDescent="0.25">
@@ -32596,26 +32602,26 @@
       <c r="F13" t="s">
         <v>227</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
+      <c r="G13" s="1">
+        <v>4</v>
       </c>
       <c r="H13" t="s">
         <v>227</v>
       </c>
-      <c r="I13" t="s">
-        <v>15</v>
+      <c r="I13" s="1">
+        <v>7</v>
       </c>
       <c r="J13" t="s">
         <v>227</v>
       </c>
-      <c r="K13" t="s">
-        <v>10</v>
+      <c r="K13" s="1">
+        <v>2</v>
       </c>
       <c r="L13" t="s">
         <v>227</v>
       </c>
-      <c r="M13" t="s">
-        <v>9</v>
+      <c r="M13" s="1">
+        <v>1</v>
       </c>
       <c r="N13" t="s">
         <v>227</v>
@@ -32626,8 +32632,8 @@
       <c r="P13" t="s">
         <v>227</v>
       </c>
-      <c r="Q13" t="s">
-        <v>10</v>
+      <c r="Q13" s="1">
+        <v>2</v>
       </c>
       <c r="R13" t="s">
         <v>227</v>
@@ -32638,8 +32644,8 @@
       <c r="T13" t="s">
         <v>227</v>
       </c>
-      <c r="U13" t="s">
-        <v>9</v>
+      <c r="U13" s="1">
+        <v>1</v>
       </c>
       <c r="V13" t="s">
         <v>227</v>
@@ -32653,11 +32659,11 @@
       <c r="Y13" t="s">
         <v>227</v>
       </c>
-      <c r="Z13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>10</v>
+      <c r="Z13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>2</v>
       </c>
       <c r="AB13" t="s">
         <v>227</v>
@@ -32668,8 +32674,8 @@
       <c r="AD13" t="s">
         <v>227</v>
       </c>
-      <c r="AE13" t="s">
-        <v>13</v>
+      <c r="AE13" s="1">
+        <v>5</v>
       </c>
       <c r="AF13" t="s">
         <v>227</v>
@@ -32677,8 +32683,8 @@
       <c r="AG13" t="s">
         <v>227</v>
       </c>
-      <c r="AH13" t="s">
-        <v>10</v>
+      <c r="AH13" s="1">
+        <v>2</v>
       </c>
       <c r="AI13" t="s">
         <v>227</v>
@@ -32689,14 +32695,14 @@
       <c r="AK13" t="s">
         <v>227</v>
       </c>
-      <c r="AL13" t="s">
-        <v>228</v>
+      <c r="AL13" s="1">
+        <v>0</v>
       </c>
       <c r="AM13" t="s">
         <v>227</v>
       </c>
-      <c r="AN13" t="s">
-        <v>10</v>
+      <c r="AN13" s="1">
+        <v>2</v>
       </c>
       <c r="AO13" t="s">
         <v>227</v>
@@ -32704,8 +32710,8 @@
       <c r="AP13" t="s">
         <v>227</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>9</v>
+      <c r="AQ13" s="1">
+        <v>1</v>
       </c>
       <c r="AR13" t="s">
         <v>227</v>
@@ -32713,8 +32719,8 @@
       <c r="AS13" t="s">
         <v>227</v>
       </c>
-      <c r="AT13" t="s">
-        <v>10</v>
+      <c r="AT13" s="1">
+        <v>2</v>
       </c>
       <c r="AU13" t="s">
         <v>227</v>
@@ -32734,8 +32740,8 @@
       <c r="AZ13" t="s">
         <v>227</v>
       </c>
-      <c r="BA13" t="s">
-        <v>12</v>
+      <c r="BA13" s="1">
+        <v>4</v>
       </c>
       <c r="BB13" t="s">
         <v>227</v>
@@ -32743,8 +32749,8 @@
       <c r="BC13" t="s">
         <v>227</v>
       </c>
-      <c r="BD13" t="s">
-        <v>9</v>
+      <c r="BD13" s="1">
+        <v>1</v>
       </c>
       <c r="BE13" t="s">
         <v>227</v>
@@ -32752,8 +32758,8 @@
       <c r="BF13" t="s">
         <v>227</v>
       </c>
-      <c r="BG13" t="s">
-        <v>12</v>
+      <c r="BG13" s="1">
+        <v>4</v>
       </c>
       <c r="BH13" t="s">
         <v>227</v>
@@ -32761,8 +32767,8 @@
       <c r="BI13" t="s">
         <v>227</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>10</v>
+      <c r="BJ13" s="1">
+        <v>2</v>
       </c>
       <c r="BK13" t="s">
         <v>227</v>
@@ -32770,8 +32776,8 @@
       <c r="BL13" t="s">
         <v>227</v>
       </c>
-      <c r="BM13" t="s">
-        <v>13</v>
+      <c r="BM13" s="1">
+        <v>5</v>
       </c>
       <c r="BN13" t="s">
         <v>227</v>
@@ -32779,8 +32785,8 @@
       <c r="BO13" t="s">
         <v>227</v>
       </c>
-      <c r="BP13" t="s">
-        <v>9</v>
+      <c r="BP13" s="1">
+        <v>1</v>
       </c>
       <c r="BQ13" t="s">
         <v>227</v>
@@ -32788,8 +32794,8 @@
       <c r="BR13" t="s">
         <v>227</v>
       </c>
-      <c r="BS13" t="s">
-        <v>10</v>
+      <c r="BS13" s="1">
+        <v>2</v>
       </c>
       <c r="BT13" t="s">
         <v>227</v>
@@ -32797,14 +32803,14 @@
       <c r="BU13" t="s">
         <v>227</v>
       </c>
-      <c r="BV13" t="s">
-        <v>13</v>
+      <c r="BV13" s="1">
+        <v>5</v>
       </c>
       <c r="BW13" t="s">
         <v>227</v>
       </c>
-      <c r="BX13" t="s">
-        <v>11</v>
+      <c r="BX13" s="1">
+        <v>3</v>
       </c>
       <c r="BY13" t="s">
         <v>227</v>
@@ -32812,8 +32818,8 @@
       <c r="BZ13" t="s">
         <v>227</v>
       </c>
-      <c r="CA13" t="s">
-        <v>12</v>
+      <c r="CA13" s="1">
+        <v>4</v>
       </c>
       <c r="CB13" t="s">
         <v>227</v>
@@ -32821,8 +32827,8 @@
       <c r="CC13" t="s">
         <v>227</v>
       </c>
-      <c r="CD13" t="s">
-        <v>9</v>
+      <c r="CD13" s="1">
+        <v>1</v>
       </c>
       <c r="CE13" t="s">
         <v>227</v>
@@ -32830,8 +32836,8 @@
       <c r="CF13" t="s">
         <v>227</v>
       </c>
-      <c r="CG13" t="s">
-        <v>11</v>
+      <c r="CG13" s="1">
+        <v>3</v>
       </c>
       <c r="CH13" t="s">
         <v>227</v>
@@ -32839,8 +32845,8 @@
       <c r="CI13" t="s">
         <v>227</v>
       </c>
-      <c r="CJ13" t="s">
-        <v>13</v>
+      <c r="CJ13" s="1">
+        <v>5</v>
       </c>
       <c r="CK13" t="s">
         <v>227</v>
@@ -32851,20 +32857,20 @@
       <c r="CM13" t="s">
         <v>227</v>
       </c>
-      <c r="CN13" t="s">
-        <v>10</v>
+      <c r="CN13" s="1">
+        <v>2</v>
       </c>
       <c r="CO13" t="s">
         <v>227</v>
       </c>
-      <c r="CP13" t="s">
-        <v>15</v>
+      <c r="CP13" s="1">
+        <v>7</v>
       </c>
       <c r="CQ13" t="s">
         <v>227</v>
       </c>
-      <c r="CR13" t="s">
-        <v>11</v>
+      <c r="CR13" s="1">
+        <v>3</v>
       </c>
       <c r="CS13" t="s">
         <v>227</v>
@@ -32881,8 +32887,8 @@
       <c r="CW13" t="s">
         <v>227</v>
       </c>
-      <c r="CX13" t="s">
-        <v>10</v>
+      <c r="CX13" s="1">
+        <v>2</v>
       </c>
       <c r="CY13" t="s">
         <v>227</v>
@@ -32893,8 +32899,8 @@
       <c r="DA13" t="s">
         <v>227</v>
       </c>
-      <c r="DB13" t="s">
-        <v>11</v>
+      <c r="DB13" s="1">
+        <v>3</v>
       </c>
       <c r="DC13" t="s">
         <v>227</v>
@@ -32917,8 +32923,8 @@
       <c r="DI13" t="s">
         <v>227</v>
       </c>
-      <c r="DJ13" t="s">
-        <v>11</v>
+      <c r="DJ13" s="1">
+        <v>3</v>
       </c>
       <c r="DK13" t="s">
         <v>227</v>
@@ -32938,8 +32944,8 @@
       <c r="DP13" t="s">
         <v>227</v>
       </c>
-      <c r="DQ13" t="s">
-        <v>10</v>
+      <c r="DQ13" s="1">
+        <v>2</v>
       </c>
       <c r="DR13" t="s">
         <v>227</v>
@@ -32950,8 +32956,8 @@
       <c r="DT13" t="s">
         <v>227</v>
       </c>
-      <c r="DU13" t="s">
-        <v>11</v>
+      <c r="DU13" s="1">
+        <v>3</v>
       </c>
       <c r="DV13" t="s">
         <v>227</v>
@@ -32968,8 +32974,8 @@
       <c r="DZ13" t="s">
         <v>227</v>
       </c>
-      <c r="EA13" t="s">
-        <v>15</v>
+      <c r="EA13" s="1">
+        <v>7</v>
       </c>
       <c r="EB13" t="s">
         <v>227</v>
@@ -32991,8 +32997,8 @@
       <c r="D14" t="s">
         <v>227</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
+      <c r="E14" s="1">
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>227</v>
@@ -33000,8 +33006,8 @@
       <c r="G14" t="s">
         <v>227</v>
       </c>
-      <c r="H14" t="s">
-        <v>13</v>
+      <c r="H14" s="1">
+        <v>5</v>
       </c>
       <c r="I14" t="s">
         <v>227</v>
@@ -33012,11 +33018,11 @@
       <c r="K14" t="s">
         <v>227</v>
       </c>
-      <c r="L14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" t="s">
-        <v>13</v>
+      <c r="L14" s="1">
+        <v>7</v>
+      </c>
+      <c r="M14" s="1">
+        <v>5</v>
       </c>
       <c r="N14" t="s">
         <v>227</v>
@@ -33027,8 +33033,8 @@
       <c r="P14" t="s">
         <v>227</v>
       </c>
-      <c r="Q14" t="s">
-        <v>228</v>
+      <c r="Q14" s="1">
+        <v>0</v>
       </c>
       <c r="R14" t="s">
         <v>227</v>
@@ -33042,8 +33048,8 @@
       <c r="U14" t="s">
         <v>227</v>
       </c>
-      <c r="V14" t="s">
-        <v>9</v>
+      <c r="V14" s="1">
+        <v>1</v>
       </c>
       <c r="W14" t="s">
         <v>227</v>
@@ -33051,14 +33057,14 @@
       <c r="X14" t="s">
         <v>227</v>
       </c>
-      <c r="Y14" t="s">
-        <v>12</v>
+      <c r="Y14" s="1">
+        <v>4</v>
       </c>
       <c r="Z14" t="s">
         <v>227</v>
       </c>
-      <c r="AA14" t="s">
-        <v>9</v>
+      <c r="AA14" s="1">
+        <v>1</v>
       </c>
       <c r="AB14" t="s">
         <v>227</v>
@@ -33072,14 +33078,14 @@
       <c r="AE14" t="s">
         <v>227</v>
       </c>
-      <c r="AF14" t="s">
-        <v>13</v>
+      <c r="AF14" s="1">
+        <v>5</v>
       </c>
       <c r="AG14" t="s">
         <v>227</v>
       </c>
-      <c r="AH14" t="s">
-        <v>12</v>
+      <c r="AH14" s="1">
+        <v>4</v>
       </c>
       <c r="AI14" t="s">
         <v>227</v>
@@ -33090,8 +33096,8 @@
       <c r="AK14" t="s">
         <v>227</v>
       </c>
-      <c r="AL14" t="s">
-        <v>228</v>
+      <c r="AL14" s="1">
+        <v>0</v>
       </c>
       <c r="AM14" t="s">
         <v>227</v>
@@ -33102,20 +33108,20 @@
       <c r="AO14" t="s">
         <v>227</v>
       </c>
-      <c r="AP14" t="s">
-        <v>13</v>
+      <c r="AP14" s="1">
+        <v>5</v>
       </c>
       <c r="AQ14" t="s">
         <v>227</v>
       </c>
-      <c r="AR14" t="s">
-        <v>16</v>
+      <c r="AR14" s="1">
+        <v>8</v>
       </c>
       <c r="AS14" t="s">
         <v>227</v>
       </c>
-      <c r="AT14" t="s">
-        <v>12</v>
+      <c r="AT14" s="1">
+        <v>4</v>
       </c>
       <c r="AU14" t="s">
         <v>227</v>
@@ -33123,14 +33129,14 @@
       <c r="AV14" t="s">
         <v>227</v>
       </c>
-      <c r="AW14" t="s">
-        <v>9</v>
+      <c r="AW14" s="1">
+        <v>1</v>
       </c>
       <c r="AX14" t="s">
         <v>227</v>
       </c>
-      <c r="AY14" t="s">
-        <v>11</v>
+      <c r="AY14" s="1">
+        <v>3</v>
       </c>
       <c r="AZ14" t="s">
         <v>227</v>
@@ -33141,8 +33147,8 @@
       <c r="BB14" t="s">
         <v>227</v>
       </c>
-      <c r="BC14" t="s">
-        <v>9</v>
+      <c r="BC14" s="1">
+        <v>1</v>
       </c>
       <c r="BD14" t="s">
         <v>227</v>
@@ -33153,8 +33159,8 @@
       <c r="BF14" t="s">
         <v>227</v>
       </c>
-      <c r="BG14" t="s">
-        <v>228</v>
+      <c r="BG14" s="1">
+        <v>0</v>
       </c>
       <c r="BH14" t="s">
         <v>227</v>
@@ -33162,8 +33168,8 @@
       <c r="BI14" t="s">
         <v>227</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>11</v>
+      <c r="BJ14" s="1">
+        <v>3</v>
       </c>
       <c r="BK14" t="s">
         <v>227</v>
@@ -33174,20 +33180,20 @@
       <c r="BM14" t="s">
         <v>227</v>
       </c>
-      <c r="BN14" t="s">
-        <v>11</v>
+      <c r="BN14" s="1">
+        <v>3</v>
       </c>
       <c r="BO14" t="s">
         <v>227</v>
       </c>
-      <c r="BP14" t="s">
-        <v>228</v>
+      <c r="BP14" s="1">
+        <v>0</v>
       </c>
       <c r="BQ14" t="s">
         <v>227</v>
       </c>
-      <c r="BR14" t="s">
-        <v>17</v>
+      <c r="BR14" s="1">
+        <v>9</v>
       </c>
       <c r="BS14" t="s">
         <v>227</v>
@@ -33195,8 +33201,8 @@
       <c r="BT14" t="s">
         <v>227</v>
       </c>
-      <c r="BU14" t="s">
-        <v>14</v>
+      <c r="BU14" s="1">
+        <v>6</v>
       </c>
       <c r="BV14" t="s">
         <v>227</v>
@@ -33207,8 +33213,8 @@
       <c r="BX14" t="s">
         <v>227</v>
       </c>
-      <c r="BY14" t="s">
-        <v>10</v>
+      <c r="BY14" s="1">
+        <v>2</v>
       </c>
       <c r="BZ14" t="s">
         <v>227</v>
@@ -33222,8 +33228,8 @@
       <c r="CC14" t="s">
         <v>227</v>
       </c>
-      <c r="CD14" t="s">
-        <v>12</v>
+      <c r="CD14" s="1">
+        <v>4</v>
       </c>
       <c r="CE14" t="s">
         <v>227</v>
@@ -33234,8 +33240,8 @@
       <c r="CG14" t="s">
         <v>227</v>
       </c>
-      <c r="CH14" t="s">
-        <v>228</v>
+      <c r="CH14" s="1">
+        <v>0</v>
       </c>
       <c r="CI14" t="s">
         <v>227</v>
@@ -33243,8 +33249,8 @@
       <c r="CJ14" t="s">
         <v>227</v>
       </c>
-      <c r="CK14" t="s">
-        <v>228</v>
+      <c r="CK14" s="1">
+        <v>0</v>
       </c>
       <c r="CL14" t="s">
         <v>227</v>
@@ -33252,8 +33258,8 @@
       <c r="CM14" t="s">
         <v>227</v>
       </c>
-      <c r="CN14" t="s">
-        <v>10</v>
+      <c r="CN14" s="1">
+        <v>2</v>
       </c>
       <c r="CO14" t="s">
         <v>227</v>
@@ -33267,8 +33273,8 @@
       <c r="CR14" t="s">
         <v>227</v>
       </c>
-      <c r="CS14" t="s">
-        <v>9</v>
+      <c r="CS14" s="1">
+        <v>1</v>
       </c>
       <c r="CT14" t="s">
         <v>227</v>
@@ -33285,8 +33291,8 @@
       <c r="CX14" t="s">
         <v>227</v>
       </c>
-      <c r="CY14" t="s">
-        <v>11</v>
+      <c r="CY14" s="1">
+        <v>3</v>
       </c>
       <c r="CZ14" t="s">
         <v>227</v>
@@ -33297,8 +33303,8 @@
       <c r="DB14" t="s">
         <v>227</v>
       </c>
-      <c r="DC14" t="s">
-        <v>12</v>
+      <c r="DC14" s="1">
+        <v>4</v>
       </c>
       <c r="DD14" t="s">
         <v>227</v>
@@ -33309,8 +33315,8 @@
       <c r="DF14" t="s">
         <v>227</v>
       </c>
-      <c r="DG14" t="s">
-        <v>12</v>
+      <c r="DG14" s="1">
+        <v>4</v>
       </c>
       <c r="DH14" t="s">
         <v>227</v>
@@ -33330,8 +33336,8 @@
       <c r="DM14" t="s">
         <v>227</v>
       </c>
-      <c r="DN14" t="s">
-        <v>228</v>
+      <c r="DN14" s="1">
+        <v>0</v>
       </c>
       <c r="DO14" t="s">
         <v>227</v>
@@ -33354,20 +33360,20 @@
       <c r="DU14" t="s">
         <v>227</v>
       </c>
-      <c r="DV14" t="s">
-        <v>12</v>
+      <c r="DV14" s="1">
+        <v>4</v>
       </c>
       <c r="DW14" t="s">
         <v>227</v>
       </c>
-      <c r="DX14" t="s">
-        <v>11</v>
+      <c r="DX14" s="1">
+        <v>3</v>
       </c>
       <c r="DY14" t="s">
         <v>227</v>
       </c>
-      <c r="DZ14" t="s">
-        <v>14</v>
+      <c r="DZ14" s="1">
+        <v>6</v>
       </c>
       <c r="EA14" t="s">
         <v>227</v>
@@ -33383,8 +33389,8 @@
       <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
+      <c r="B15" s="1">
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>227</v>
@@ -33395,8 +33401,8 @@
       <c r="E15" t="s">
         <v>227</v>
       </c>
-      <c r="F15" t="s">
-        <v>11</v>
+      <c r="F15" s="1">
+        <v>3</v>
       </c>
       <c r="G15" t="s">
         <v>227</v>
@@ -33404,20 +33410,20 @@
       <c r="H15" t="s">
         <v>227</v>
       </c>
-      <c r="I15" t="s">
-        <v>10</v>
+      <c r="I15" s="1">
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>227</v>
       </c>
-      <c r="K15" t="s">
-        <v>12</v>
+      <c r="K15" s="1">
+        <v>4</v>
       </c>
       <c r="L15" t="s">
         <v>227</v>
       </c>
-      <c r="M15" t="s">
-        <v>13</v>
+      <c r="M15" s="1">
+        <v>5</v>
       </c>
       <c r="N15" t="s">
         <v>227</v>
@@ -33431,8 +33437,8 @@
       <c r="Q15" t="s">
         <v>227</v>
       </c>
-      <c r="R15" t="s">
-        <v>10</v>
+      <c r="R15" s="1">
+        <v>2</v>
       </c>
       <c r="S15" t="s">
         <v>227</v>
@@ -33443,14 +33449,14 @@
       <c r="U15" t="s">
         <v>227</v>
       </c>
-      <c r="V15" t="s">
-        <v>11</v>
+      <c r="V15" s="1">
+        <v>3</v>
       </c>
       <c r="W15" t="s">
         <v>227</v>
       </c>
-      <c r="X15" t="s">
-        <v>10</v>
+      <c r="X15" s="1">
+        <v>2</v>
       </c>
       <c r="Y15" t="s">
         <v>227</v>
@@ -33458,8 +33464,8 @@
       <c r="Z15" t="s">
         <v>227</v>
       </c>
-      <c r="AA15" t="s">
-        <v>10</v>
+      <c r="AA15" s="1">
+        <v>2</v>
       </c>
       <c r="AB15" t="s">
         <v>227</v>
@@ -33467,8 +33473,8 @@
       <c r="AC15" t="s">
         <v>227</v>
       </c>
-      <c r="AD15" t="s">
-        <v>10</v>
+      <c r="AD15" s="1">
+        <v>2</v>
       </c>
       <c r="AE15" t="s">
         <v>227</v>
@@ -33491,8 +33497,8 @@
       <c r="AK15" t="s">
         <v>227</v>
       </c>
-      <c r="AL15" t="s">
-        <v>11</v>
+      <c r="AL15" s="1">
+        <v>3</v>
       </c>
       <c r="AM15" t="s">
         <v>227</v>
@@ -33500,14 +33506,14 @@
       <c r="AN15" t="s">
         <v>227</v>
       </c>
-      <c r="AO15" t="s">
-        <v>15</v>
+      <c r="AO15" s="1">
+        <v>7</v>
       </c>
       <c r="AP15" t="s">
         <v>227</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>10</v>
+      <c r="AQ15" s="1">
+        <v>2</v>
       </c>
       <c r="AR15" t="s">
         <v>227</v>
@@ -33515,8 +33521,8 @@
       <c r="AS15" t="s">
         <v>227</v>
       </c>
-      <c r="AT15" t="s">
-        <v>10</v>
+      <c r="AT15" s="1">
+        <v>2</v>
       </c>
       <c r="AU15" t="s">
         <v>227</v>
@@ -33527,8 +33533,8 @@
       <c r="AW15" t="s">
         <v>227</v>
       </c>
-      <c r="AX15" t="s">
-        <v>228</v>
+      <c r="AX15" s="1">
+        <v>0</v>
       </c>
       <c r="AY15" t="s">
         <v>227</v>
@@ -33536,14 +33542,14 @@
       <c r="AZ15" t="s">
         <v>227</v>
       </c>
-      <c r="BA15" t="s">
-        <v>11</v>
+      <c r="BA15" s="1">
+        <v>3</v>
       </c>
       <c r="BB15" t="s">
         <v>227</v>
       </c>
-      <c r="BC15" t="s">
-        <v>9</v>
+      <c r="BC15" s="1">
+        <v>1</v>
       </c>
       <c r="BD15" t="s">
         <v>227</v>
@@ -33557,8 +33563,8 @@
       <c r="BG15" t="s">
         <v>227</v>
       </c>
-      <c r="BH15" t="s">
-        <v>11</v>
+      <c r="BH15" s="1">
+        <v>3</v>
       </c>
       <c r="BI15" t="s">
         <v>227</v>
@@ -33569,11 +33575,11 @@
       <c r="BK15" t="s">
         <v>227</v>
       </c>
-      <c r="BL15" t="s">
-        <v>10</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>11</v>
+      <c r="BL15" s="1">
+        <v>2</v>
+      </c>
+      <c r="BM15" s="1">
+        <v>3</v>
       </c>
       <c r="BN15" t="s">
         <v>227</v>
@@ -33581,14 +33587,14 @@
       <c r="BO15" t="s">
         <v>227</v>
       </c>
-      <c r="BP15" t="s">
-        <v>10</v>
+      <c r="BP15" s="1">
+        <v>2</v>
       </c>
       <c r="BQ15" t="s">
         <v>227</v>
       </c>
-      <c r="BR15" t="s">
-        <v>11</v>
+      <c r="BR15" s="1">
+        <v>3</v>
       </c>
       <c r="BS15" t="s">
         <v>227</v>
@@ -33596,8 +33602,8 @@
       <c r="BT15" t="s">
         <v>227</v>
       </c>
-      <c r="BU15" t="s">
-        <v>13</v>
+      <c r="BU15" s="1">
+        <v>5</v>
       </c>
       <c r="BV15" t="s">
         <v>227</v>
@@ -33611,8 +33617,8 @@
       <c r="BY15" t="s">
         <v>227</v>
       </c>
-      <c r="BZ15" t="s">
-        <v>10</v>
+      <c r="BZ15" s="1">
+        <v>2</v>
       </c>
       <c r="CA15" t="s">
         <v>227</v>
@@ -33623,8 +33629,8 @@
       <c r="CC15" t="s">
         <v>227</v>
       </c>
-      <c r="CD15" t="s">
-        <v>12</v>
+      <c r="CD15" s="1">
+        <v>4</v>
       </c>
       <c r="CE15" t="s">
         <v>227</v>
@@ -33632,8 +33638,8 @@
       <c r="CF15" t="s">
         <v>227</v>
       </c>
-      <c r="CG15" t="s">
-        <v>10</v>
+      <c r="CG15" s="1">
+        <v>2</v>
       </c>
       <c r="CH15" t="s">
         <v>227</v>
@@ -33653,8 +33659,8 @@
       <c r="CM15" t="s">
         <v>227</v>
       </c>
-      <c r="CN15" t="s">
-        <v>228</v>
+      <c r="CN15" s="1">
+        <v>0</v>
       </c>
       <c r="CO15" t="s">
         <v>227</v>
@@ -33662,8 +33668,8 @@
       <c r="CP15" t="s">
         <v>227</v>
       </c>
-      <c r="CQ15" t="s">
-        <v>10</v>
+      <c r="CQ15" s="1">
+        <v>2</v>
       </c>
       <c r="CR15" t="s">
         <v>227</v>
@@ -33677,8 +33683,8 @@
       <c r="CU15" t="s">
         <v>227</v>
       </c>
-      <c r="CV15" t="s">
-        <v>11</v>
+      <c r="CV15" s="1">
+        <v>3</v>
       </c>
       <c r="CW15" t="s">
         <v>227</v>
@@ -33686,8 +33692,8 @@
       <c r="CX15" t="s">
         <v>227</v>
       </c>
-      <c r="CY15" t="s">
-        <v>12</v>
+      <c r="CY15" s="1">
+        <v>4</v>
       </c>
       <c r="CZ15" t="s">
         <v>227</v>
@@ -33698,8 +33704,8 @@
       <c r="DB15" t="s">
         <v>227</v>
       </c>
-      <c r="DC15" t="s">
-        <v>11</v>
+      <c r="DC15" s="1">
+        <v>3</v>
       </c>
       <c r="DD15" t="s">
         <v>227</v>
@@ -33707,8 +33713,8 @@
       <c r="DE15" t="s">
         <v>227</v>
       </c>
-      <c r="DF15" t="s">
-        <v>13</v>
+      <c r="DF15" s="1">
+        <v>5</v>
       </c>
       <c r="DG15" t="s">
         <v>227</v>
@@ -33728,8 +33734,8 @@
       <c r="DL15" t="s">
         <v>227</v>
       </c>
-      <c r="DM15" t="s">
-        <v>10</v>
+      <c r="DM15" s="1">
+        <v>2</v>
       </c>
       <c r="DN15" t="s">
         <v>227</v>
@@ -33743,14 +33749,14 @@
       <c r="DQ15" t="s">
         <v>227</v>
       </c>
-      <c r="DR15" t="s">
-        <v>10</v>
+      <c r="DR15" s="1">
+        <v>2</v>
       </c>
       <c r="DS15" t="s">
         <v>227</v>
       </c>
-      <c r="DT15" t="s">
-        <v>14</v>
+      <c r="DT15" s="1">
+        <v>6</v>
       </c>
       <c r="DU15" t="s">
         <v>227</v>
@@ -33770,8 +33776,8 @@
       <c r="DZ15" t="s">
         <v>227</v>
       </c>
-      <c r="EA15" t="s">
-        <v>15</v>
+      <c r="EA15" s="1">
+        <v>7</v>
       </c>
       <c r="EB15" t="s">
         <v>227</v>
@@ -33790,8 +33796,8 @@
       <c r="C16" t="s">
         <v>227</v>
       </c>
-      <c r="D16" t="s">
-        <v>10</v>
+      <c r="D16" s="1">
+        <v>2</v>
       </c>
       <c r="E16" t="s">
         <v>227</v>
@@ -33799,14 +33805,14 @@
       <c r="F16" t="s">
         <v>227</v>
       </c>
-      <c r="G16" t="s">
-        <v>9</v>
+      <c r="G16" s="1">
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>227</v>
       </c>
-      <c r="I16" t="s">
-        <v>9</v>
+      <c r="I16" s="1">
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>227</v>
@@ -33814,14 +33820,14 @@
       <c r="K16" t="s">
         <v>227</v>
       </c>
-      <c r="L16" t="s">
-        <v>11</v>
+      <c r="L16" s="1">
+        <v>3</v>
       </c>
       <c r="M16" t="s">
         <v>227</v>
       </c>
-      <c r="N16" t="s">
-        <v>10</v>
+      <c r="N16" s="1">
+        <v>2</v>
       </c>
       <c r="O16" t="s">
         <v>227</v>
@@ -33829,8 +33835,8 @@
       <c r="P16" t="s">
         <v>227</v>
       </c>
-      <c r="Q16" t="s">
-        <v>11</v>
+      <c r="Q16" s="1">
+        <v>3</v>
       </c>
       <c r="R16" t="s">
         <v>227</v>
@@ -33841,8 +33847,8 @@
       <c r="T16" t="s">
         <v>227</v>
       </c>
-      <c r="U16" t="s">
-        <v>9</v>
+      <c r="U16" s="1">
+        <v>1</v>
       </c>
       <c r="V16" t="s">
         <v>227</v>
@@ -33853,8 +33859,8 @@
       <c r="X16" t="s">
         <v>227</v>
       </c>
-      <c r="Y16" t="s">
-        <v>13</v>
+      <c r="Y16" s="1">
+        <v>5</v>
       </c>
       <c r="Z16" t="s">
         <v>227</v>
@@ -33862,8 +33868,8 @@
       <c r="AA16" t="s">
         <v>227</v>
       </c>
-      <c r="AB16" t="s">
-        <v>9</v>
+      <c r="AB16" s="1">
+        <v>1</v>
       </c>
       <c r="AC16" t="s">
         <v>227</v>
@@ -33871,8 +33877,8 @@
       <c r="AD16" t="s">
         <v>227</v>
       </c>
-      <c r="AE16" t="s">
-        <v>9</v>
+      <c r="AE16" s="1">
+        <v>1</v>
       </c>
       <c r="AF16" t="s">
         <v>227</v>
@@ -33883,8 +33889,8 @@
       <c r="AH16" t="s">
         <v>227</v>
       </c>
-      <c r="AI16" t="s">
-        <v>11</v>
+      <c r="AI16" s="1">
+        <v>3</v>
       </c>
       <c r="AJ16" t="s">
         <v>227</v>
@@ -33895,8 +33901,8 @@
       <c r="AL16" t="s">
         <v>227</v>
       </c>
-      <c r="AM16" t="s">
-        <v>11</v>
+      <c r="AM16" s="1">
+        <v>3</v>
       </c>
       <c r="AN16" t="s">
         <v>227</v>
@@ -33904,20 +33910,20 @@
       <c r="AO16" t="s">
         <v>227</v>
       </c>
-      <c r="AP16" t="s">
-        <v>13</v>
+      <c r="AP16" s="1">
+        <v>5</v>
       </c>
       <c r="AQ16" t="s">
         <v>227</v>
       </c>
-      <c r="AR16" t="s">
-        <v>10</v>
+      <c r="AR16" s="1">
+        <v>2</v>
       </c>
       <c r="AS16" t="s">
         <v>227</v>
       </c>
-      <c r="AT16" t="s">
-        <v>9</v>
+      <c r="AT16" s="1">
+        <v>1</v>
       </c>
       <c r="AU16" t="s">
         <v>227</v>
@@ -33925,8 +33931,8 @@
       <c r="AV16" t="s">
         <v>227</v>
       </c>
-      <c r="AW16" t="s">
-        <v>9</v>
+      <c r="AW16" s="1">
+        <v>1</v>
       </c>
       <c r="AX16" t="s">
         <v>227</v>
@@ -33934,8 +33940,8 @@
       <c r="AY16" t="s">
         <v>227</v>
       </c>
-      <c r="AZ16" t="s">
-        <v>10</v>
+      <c r="AZ16" s="1">
+        <v>2</v>
       </c>
       <c r="BA16" t="s">
         <v>227</v>
@@ -33943,8 +33949,8 @@
       <c r="BB16" t="s">
         <v>227</v>
       </c>
-      <c r="BC16" t="s">
-        <v>9</v>
+      <c r="BC16" s="1">
+        <v>1</v>
       </c>
       <c r="BD16" t="s">
         <v>227</v>
@@ -33955,8 +33961,8 @@
       <c r="BF16" t="s">
         <v>227</v>
       </c>
-      <c r="BG16" t="s">
-        <v>12</v>
+      <c r="BG16" s="1">
+        <v>4</v>
       </c>
       <c r="BH16" t="s">
         <v>227</v>
@@ -33976,20 +33982,20 @@
       <c r="BM16" t="s">
         <v>227</v>
       </c>
-      <c r="BN16" t="s">
-        <v>11</v>
+      <c r="BN16" s="1">
+        <v>3</v>
       </c>
       <c r="BO16" t="s">
         <v>227</v>
       </c>
-      <c r="BP16" t="s">
-        <v>9</v>
+      <c r="BP16" s="1">
+        <v>1</v>
       </c>
       <c r="BQ16" t="s">
         <v>227</v>
       </c>
-      <c r="BR16" t="s">
-        <v>11</v>
+      <c r="BR16" s="1">
+        <v>3</v>
       </c>
       <c r="BS16" t="s">
         <v>227</v>
@@ -34000,8 +34006,8 @@
       <c r="BU16" t="s">
         <v>227</v>
       </c>
-      <c r="BV16" t="s">
-        <v>11</v>
+      <c r="BV16" s="1">
+        <v>3</v>
       </c>
       <c r="BW16" t="s">
         <v>227</v>
@@ -34012,8 +34018,8 @@
       <c r="BY16" t="s">
         <v>227</v>
       </c>
-      <c r="BZ16" t="s">
-        <v>11</v>
+      <c r="BZ16" s="1">
+        <v>3</v>
       </c>
       <c r="CA16" t="s">
         <v>227</v>
@@ -34021,8 +34027,8 @@
       <c r="CB16" t="s">
         <v>227</v>
       </c>
-      <c r="CC16" t="s">
-        <v>9</v>
+      <c r="CC16" s="1">
+        <v>1</v>
       </c>
       <c r="CD16" t="s">
         <v>227</v>
@@ -34036,8 +34042,8 @@
       <c r="CG16" t="s">
         <v>227</v>
       </c>
-      <c r="CH16" t="s">
-        <v>10</v>
+      <c r="CH16" s="1">
+        <v>2</v>
       </c>
       <c r="CI16" t="s">
         <v>227</v>
@@ -34045,14 +34051,14 @@
       <c r="CJ16" t="s">
         <v>227</v>
       </c>
-      <c r="CK16" t="s">
-        <v>9</v>
+      <c r="CK16" s="1">
+        <v>1</v>
       </c>
       <c r="CL16" t="s">
         <v>227</v>
       </c>
-      <c r="CM16" t="s">
-        <v>10</v>
+      <c r="CM16" s="1">
+        <v>2</v>
       </c>
       <c r="CN16" t="s">
         <v>227</v>
@@ -34069,8 +34075,8 @@
       <c r="CR16" t="s">
         <v>227</v>
       </c>
-      <c r="CS16" t="s">
-        <v>13</v>
+      <c r="CS16" s="1">
+        <v>5</v>
       </c>
       <c r="CT16" t="s">
         <v>227</v>
@@ -34084,8 +34090,8 @@
       <c r="CW16" t="s">
         <v>227</v>
       </c>
-      <c r="CX16" t="s">
-        <v>11</v>
+      <c r="CX16" s="1">
+        <v>3</v>
       </c>
       <c r="CY16" t="s">
         <v>227</v>
@@ -34099,8 +34105,8 @@
       <c r="DB16" t="s">
         <v>227</v>
       </c>
-      <c r="DC16" t="s">
-        <v>11</v>
+      <c r="DC16" s="1">
+        <v>3</v>
       </c>
       <c r="DD16" t="s">
         <v>227</v>
@@ -34108,8 +34114,8 @@
       <c r="DE16" t="s">
         <v>227</v>
       </c>
-      <c r="DF16" t="s">
-        <v>9</v>
+      <c r="DF16" s="1">
+        <v>1</v>
       </c>
       <c r="DG16" t="s">
         <v>227</v>
@@ -34129,8 +34135,8 @@
       <c r="DL16" t="s">
         <v>227</v>
       </c>
-      <c r="DM16" t="s">
-        <v>9</v>
+      <c r="DM16" s="1">
+        <v>1</v>
       </c>
       <c r="DN16" t="s">
         <v>227</v>
@@ -34144,8 +34150,8 @@
       <c r="DQ16" t="s">
         <v>227</v>
       </c>
-      <c r="DR16" t="s">
-        <v>12</v>
+      <c r="DR16" s="1">
+        <v>4</v>
       </c>
       <c r="DS16" t="s">
         <v>227</v>
@@ -34153,8 +34159,8 @@
       <c r="DT16" t="s">
         <v>227</v>
       </c>
-      <c r="DU16" t="s">
-        <v>10</v>
+      <c r="DU16" s="1">
+        <v>2</v>
       </c>
       <c r="DV16" t="s">
         <v>227</v>
@@ -34177,16 +34183,16 @@
       <c r="EB16" t="s">
         <v>227</v>
       </c>
-      <c r="EC16" t="s">
-        <v>9</v>
+      <c r="EC16" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
+      <c r="B17" s="1">
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>227</v>
@@ -34197,14 +34203,14 @@
       <c r="E17" t="s">
         <v>227</v>
       </c>
-      <c r="F17" t="s">
-        <v>15</v>
+      <c r="F17" s="1">
+        <v>7</v>
       </c>
       <c r="G17" t="s">
         <v>227</v>
       </c>
-      <c r="H17" t="s">
-        <v>9</v>
+      <c r="H17" s="1">
+        <v>1</v>
       </c>
       <c r="I17" t="s">
         <v>227</v>
@@ -34215,11 +34221,11 @@
       <c r="K17" t="s">
         <v>227</v>
       </c>
-      <c r="L17" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" t="s">
-        <v>14</v>
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>6</v>
       </c>
       <c r="N17" t="s">
         <v>227</v>
@@ -34233,8 +34239,8 @@
       <c r="Q17" t="s">
         <v>227</v>
       </c>
-      <c r="R17" t="s">
-        <v>10</v>
+      <c r="R17" s="1">
+        <v>2</v>
       </c>
       <c r="S17" t="s">
         <v>227</v>
@@ -34245,14 +34251,14 @@
       <c r="U17" t="s">
         <v>227</v>
       </c>
-      <c r="V17" t="s">
-        <v>15</v>
+      <c r="V17" s="1">
+        <v>7</v>
       </c>
       <c r="W17" t="s">
         <v>227</v>
       </c>
-      <c r="X17" t="s">
-        <v>10</v>
+      <c r="X17" s="1">
+        <v>2</v>
       </c>
       <c r="Y17" t="s">
         <v>227</v>
@@ -34266,8 +34272,8 @@
       <c r="AB17" t="s">
         <v>227</v>
       </c>
-      <c r="AC17" t="s">
-        <v>10</v>
+      <c r="AC17" s="1">
+        <v>2</v>
       </c>
       <c r="AD17" t="s">
         <v>227</v>
@@ -34275,8 +34281,8 @@
       <c r="AE17" t="s">
         <v>227</v>
       </c>
-      <c r="AF17" t="s">
-        <v>13</v>
+      <c r="AF17" s="1">
+        <v>5</v>
       </c>
       <c r="AG17" t="s">
         <v>227</v>
@@ -34287,8 +34293,8 @@
       <c r="AI17" t="s">
         <v>227</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>11</v>
+      <c r="AJ17" s="1">
+        <v>3</v>
       </c>
       <c r="AK17" t="s">
         <v>227</v>
@@ -34296,20 +34302,20 @@
       <c r="AL17" t="s">
         <v>227</v>
       </c>
-      <c r="AM17" t="s">
-        <v>11</v>
+      <c r="AM17" s="1">
+        <v>3</v>
       </c>
       <c r="AN17" t="s">
         <v>227</v>
       </c>
-      <c r="AO17" t="s">
-        <v>10</v>
+      <c r="AO17" s="1">
+        <v>2</v>
       </c>
       <c r="AP17" t="s">
         <v>227</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>9</v>
+      <c r="AQ17" s="1">
+        <v>1</v>
       </c>
       <c r="AR17" t="s">
         <v>227</v>
@@ -34317,8 +34323,8 @@
       <c r="AS17" t="s">
         <v>227</v>
       </c>
-      <c r="AT17" t="s">
-        <v>228</v>
+      <c r="AT17" s="1">
+        <v>0</v>
       </c>
       <c r="AU17" t="s">
         <v>227</v>
@@ -34326,8 +34332,8 @@
       <c r="AV17" t="s">
         <v>227</v>
       </c>
-      <c r="AW17" t="s">
-        <v>228</v>
+      <c r="AW17" s="1">
+        <v>0</v>
       </c>
       <c r="AX17" t="s">
         <v>227</v>
@@ -34341,8 +34347,8 @@
       <c r="BA17" t="s">
         <v>227</v>
       </c>
-      <c r="BB17" t="s">
-        <v>9</v>
+      <c r="BB17" s="1">
+        <v>1</v>
       </c>
       <c r="BC17" t="s">
         <v>227</v>
@@ -34353,8 +34359,8 @@
       <c r="BE17" t="s">
         <v>227</v>
       </c>
-      <c r="BF17" t="s">
-        <v>10</v>
+      <c r="BF17" s="1">
+        <v>2</v>
       </c>
       <c r="BG17" t="s">
         <v>227</v>
@@ -34374,8 +34380,8 @@
       <c r="BL17" t="s">
         <v>227</v>
       </c>
-      <c r="BM17" t="s">
-        <v>12</v>
+      <c r="BM17" s="1">
+        <v>4</v>
       </c>
       <c r="BN17" t="s">
         <v>227</v>
@@ -34383,14 +34389,14 @@
       <c r="BO17" t="s">
         <v>227</v>
       </c>
-      <c r="BP17" t="s">
-        <v>9</v>
+      <c r="BP17" s="1">
+        <v>1</v>
       </c>
       <c r="BQ17" t="s">
         <v>227</v>
       </c>
-      <c r="BR17" t="s">
-        <v>17</v>
+      <c r="BR17" s="1">
+        <v>9</v>
       </c>
       <c r="BS17" t="s">
         <v>227</v>
@@ -34398,8 +34404,8 @@
       <c r="BT17" t="s">
         <v>227</v>
       </c>
-      <c r="BU17" t="s">
-        <v>13</v>
+      <c r="BU17" s="1">
+        <v>5</v>
       </c>
       <c r="BV17" t="s">
         <v>227</v>
@@ -34410,8 +34416,8 @@
       <c r="BX17" t="s">
         <v>227</v>
       </c>
-      <c r="BY17" t="s">
-        <v>11</v>
+      <c r="BY17" s="1">
+        <v>3</v>
       </c>
       <c r="BZ17" t="s">
         <v>227</v>
@@ -34422,8 +34428,8 @@
       <c r="CB17" t="s">
         <v>227</v>
       </c>
-      <c r="CC17" t="s">
-        <v>10</v>
+      <c r="CC17" s="1">
+        <v>2</v>
       </c>
       <c r="CD17" t="s">
         <v>227</v>
@@ -34431,8 +34437,8 @@
       <c r="CE17" t="s">
         <v>227</v>
       </c>
-      <c r="CF17" t="s">
-        <v>11</v>
+      <c r="CF17" s="1">
+        <v>3</v>
       </c>
       <c r="CG17" t="s">
         <v>227</v>
@@ -34440,8 +34446,8 @@
       <c r="CH17" t="s">
         <v>227</v>
       </c>
-      <c r="CI17" t="s">
-        <v>9</v>
+      <c r="CI17" s="1">
+        <v>1</v>
       </c>
       <c r="CJ17" t="s">
         <v>227</v>
@@ -34452,8 +34458,8 @@
       <c r="CL17" t="s">
         <v>227</v>
       </c>
-      <c r="CM17" t="s">
-        <v>10</v>
+      <c r="CM17" s="1">
+        <v>2</v>
       </c>
       <c r="CN17" t="s">
         <v>227</v>
@@ -34461,8 +34467,8 @@
       <c r="CO17" t="s">
         <v>227</v>
       </c>
-      <c r="CP17" t="s">
-        <v>15</v>
+      <c r="CP17" s="1">
+        <v>7</v>
       </c>
       <c r="CQ17" t="s">
         <v>227</v>
@@ -34470,8 +34476,8 @@
       <c r="CR17" t="s">
         <v>227</v>
       </c>
-      <c r="CS17" t="s">
-        <v>11</v>
+      <c r="CS17" s="1">
+        <v>3</v>
       </c>
       <c r="CT17" t="s">
         <v>227</v>
@@ -34488,8 +34494,8 @@
       <c r="CX17" t="s">
         <v>227</v>
       </c>
-      <c r="CY17" t="s">
-        <v>13</v>
+      <c r="CY17" s="1">
+        <v>5</v>
       </c>
       <c r="CZ17" t="s">
         <v>227</v>
@@ -34503,8 +34509,8 @@
       <c r="DC17" t="s">
         <v>227</v>
       </c>
-      <c r="DD17" t="s">
-        <v>11</v>
+      <c r="DD17" s="1">
+        <v>3</v>
       </c>
       <c r="DE17" t="s">
         <v>227</v>
@@ -34521,8 +34527,8 @@
       <c r="DI17" t="s">
         <v>227</v>
       </c>
-      <c r="DJ17" t="s">
-        <v>11</v>
+      <c r="DJ17" s="1">
+        <v>3</v>
       </c>
       <c r="DK17" t="s">
         <v>227</v>
@@ -34539,8 +34545,8 @@
       <c r="DO17" t="s">
         <v>227</v>
       </c>
-      <c r="DP17" t="s">
-        <v>10</v>
+      <c r="DP17" s="1">
+        <v>2</v>
       </c>
       <c r="DQ17" t="s">
         <v>227</v>
@@ -34554,8 +34560,8 @@
       <c r="DT17" t="s">
         <v>227</v>
       </c>
-      <c r="DU17" t="s">
-        <v>10</v>
+      <c r="DU17" s="1">
+        <v>2</v>
       </c>
       <c r="DV17" t="s">
         <v>227</v>
@@ -34563,8 +34569,8 @@
       <c r="DW17" t="s">
         <v>227</v>
       </c>
-      <c r="DX17" t="s">
-        <v>12</v>
+      <c r="DX17" s="1">
+        <v>4</v>
       </c>
       <c r="DY17" t="s">
         <v>227</v>
@@ -34575,8 +34581,8 @@
       <c r="EA17" t="s">
         <v>227</v>
       </c>
-      <c r="EB17" t="s">
-        <v>12</v>
+      <c r="EB17" s="1">
+        <v>4</v>
       </c>
       <c r="EC17" t="s">
         <v>227</v>
@@ -34589,8 +34595,8 @@
       <c r="B18" t="s">
         <v>227</v>
       </c>
-      <c r="C18" t="s">
-        <v>9</v>
+      <c r="C18" s="1">
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>227</v>
@@ -34598,8 +34604,8 @@
       <c r="E18" t="s">
         <v>227</v>
       </c>
-      <c r="F18" t="s">
-        <v>15</v>
+      <c r="F18" s="1">
+        <v>7</v>
       </c>
       <c r="G18" t="s">
         <v>227</v>
@@ -34607,8 +34613,8 @@
       <c r="H18" t="s">
         <v>227</v>
       </c>
-      <c r="I18" t="s">
-        <v>10</v>
+      <c r="I18" s="1">
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>227</v>
@@ -34616,14 +34622,14 @@
       <c r="K18" t="s">
         <v>227</v>
       </c>
-      <c r="L18" t="s">
-        <v>15</v>
+      <c r="L18" s="1">
+        <v>7</v>
       </c>
       <c r="M18" t="s">
         <v>227</v>
       </c>
-      <c r="N18" t="s">
-        <v>14</v>
+      <c r="N18" s="1">
+        <v>6</v>
       </c>
       <c r="O18" t="s">
         <v>227</v>
@@ -34637,8 +34643,8 @@
       <c r="R18" t="s">
         <v>227</v>
       </c>
-      <c r="S18" t="s">
-        <v>9</v>
+      <c r="S18" s="1">
+        <v>1</v>
       </c>
       <c r="T18" t="s">
         <v>227</v>
@@ -34646,8 +34652,8 @@
       <c r="U18" t="s">
         <v>227</v>
       </c>
-      <c r="V18" t="s">
-        <v>11</v>
+      <c r="V18" s="1">
+        <v>3</v>
       </c>
       <c r="W18" t="s">
         <v>227</v>
@@ -34658,11 +34664,11 @@
       <c r="Y18" t="s">
         <v>227</v>
       </c>
-      <c r="Z18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>10</v>
+      <c r="Z18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>2</v>
       </c>
       <c r="AB18" t="s">
         <v>227</v>
@@ -34676,8 +34682,8 @@
       <c r="AE18" t="s">
         <v>227</v>
       </c>
-      <c r="AF18" t="s">
-        <v>228</v>
+      <c r="AF18" s="1">
+        <v>0</v>
       </c>
       <c r="AG18" t="s">
         <v>227</v>
@@ -34685,8 +34691,8 @@
       <c r="AH18" t="s">
         <v>227</v>
       </c>
-      <c r="AI18" t="s">
-        <v>10</v>
+      <c r="AI18" s="1">
+        <v>2</v>
       </c>
       <c r="AJ18" t="s">
         <v>227</v>
@@ -34697,14 +34703,14 @@
       <c r="AL18" t="s">
         <v>227</v>
       </c>
-      <c r="AM18" t="s">
-        <v>10</v>
+      <c r="AM18" s="1">
+        <v>2</v>
       </c>
       <c r="AN18" t="s">
         <v>227</v>
       </c>
-      <c r="AO18" t="s">
-        <v>11</v>
+      <c r="AO18" s="1">
+        <v>3</v>
       </c>
       <c r="AP18" t="s">
         <v>227</v>
@@ -34712,8 +34718,8 @@
       <c r="AQ18" t="s">
         <v>227</v>
       </c>
-      <c r="AR18" t="s">
-        <v>10</v>
+      <c r="AR18" s="1">
+        <v>2</v>
       </c>
       <c r="AS18" t="s">
         <v>227</v>
@@ -34721,8 +34727,8 @@
       <c r="AT18" t="s">
         <v>227</v>
       </c>
-      <c r="AU18" t="s">
-        <v>10</v>
+      <c r="AU18" s="1">
+        <v>2</v>
       </c>
       <c r="AV18" t="s">
         <v>227</v>
@@ -34736,8 +34742,8 @@
       <c r="AY18" t="s">
         <v>227</v>
       </c>
-      <c r="AZ18" t="s">
-        <v>11</v>
+      <c r="AZ18" s="1">
+        <v>3</v>
       </c>
       <c r="BA18" t="s">
         <v>227</v>
@@ -34748,8 +34754,8 @@
       <c r="BC18" t="s">
         <v>227</v>
       </c>
-      <c r="BD18" t="s">
-        <v>10</v>
+      <c r="BD18" s="1">
+        <v>2</v>
       </c>
       <c r="BE18" t="s">
         <v>227</v>
@@ -34757,8 +34763,8 @@
       <c r="BF18" t="s">
         <v>227</v>
       </c>
-      <c r="BG18" t="s">
-        <v>12</v>
+      <c r="BG18" s="1">
+        <v>4</v>
       </c>
       <c r="BH18" t="s">
         <v>227</v>
@@ -34781,14 +34787,14 @@
       <c r="BN18" t="s">
         <v>227</v>
       </c>
-      <c r="BO18" t="s">
-        <v>12</v>
+      <c r="BO18" s="1">
+        <v>4</v>
       </c>
       <c r="BP18" t="s">
         <v>227</v>
       </c>
-      <c r="BQ18" t="s">
-        <v>9</v>
+      <c r="BQ18" s="1">
+        <v>1</v>
       </c>
       <c r="BR18" t="s">
         <v>227</v>
@@ -34796,20 +34802,20 @@
       <c r="BS18" t="s">
         <v>227</v>
       </c>
-      <c r="BT18" t="s">
-        <v>9</v>
+      <c r="BT18" s="1">
+        <v>1</v>
       </c>
       <c r="BU18" t="s">
         <v>227</v>
       </c>
-      <c r="BV18" t="s">
-        <v>10</v>
+      <c r="BV18" s="1">
+        <v>2</v>
       </c>
       <c r="BW18" t="s">
         <v>227</v>
       </c>
-      <c r="BX18" t="s">
-        <v>11</v>
+      <c r="BX18" s="1">
+        <v>3</v>
       </c>
       <c r="BY18" t="s">
         <v>227</v>
@@ -34826,8 +34832,8 @@
       <c r="CC18" t="s">
         <v>227</v>
       </c>
-      <c r="CD18" t="s">
-        <v>11</v>
+      <c r="CD18" s="1">
+        <v>3</v>
       </c>
       <c r="CE18" t="s">
         <v>227</v>
@@ -34838,8 +34844,8 @@
       <c r="CG18" t="s">
         <v>227</v>
       </c>
-      <c r="CH18" t="s">
-        <v>12</v>
+      <c r="CH18" s="1">
+        <v>4</v>
       </c>
       <c r="CI18" t="s">
         <v>227</v>
@@ -34850,14 +34856,14 @@
       <c r="CK18" t="s">
         <v>227</v>
       </c>
-      <c r="CL18" t="s">
-        <v>9</v>
+      <c r="CL18" s="1">
+        <v>1</v>
       </c>
       <c r="CM18" t="s">
         <v>227</v>
       </c>
-      <c r="CN18" t="s">
-        <v>13</v>
+      <c r="CN18" s="1">
+        <v>5</v>
       </c>
       <c r="CO18" t="s">
         <v>227</v>
@@ -34871,8 +34877,8 @@
       <c r="CR18" t="s">
         <v>227</v>
       </c>
-      <c r="CS18" t="s">
-        <v>11</v>
+      <c r="CS18" s="1">
+        <v>3</v>
       </c>
       <c r="CT18" t="s">
         <v>227</v>
@@ -34883,14 +34889,14 @@
       <c r="CV18" t="s">
         <v>227</v>
       </c>
-      <c r="CW18" t="s">
-        <v>10</v>
+      <c r="CW18" s="1">
+        <v>2</v>
       </c>
       <c r="CX18" t="s">
         <v>227</v>
       </c>
-      <c r="CY18" t="s">
-        <v>12</v>
+      <c r="CY18" s="1">
+        <v>4</v>
       </c>
       <c r="CZ18" t="s">
         <v>227</v>
@@ -34901,14 +34907,14 @@
       <c r="DB18" t="s">
         <v>227</v>
       </c>
-      <c r="DC18" t="s">
-        <v>12</v>
+      <c r="DC18" s="1">
+        <v>4</v>
       </c>
       <c r="DD18" t="s">
         <v>227</v>
       </c>
-      <c r="DE18" t="s">
-        <v>12</v>
+      <c r="DE18" s="1">
+        <v>4</v>
       </c>
       <c r="DF18" t="s">
         <v>227</v>
@@ -34922,8 +34928,8 @@
       <c r="DI18" t="s">
         <v>227</v>
       </c>
-      <c r="DJ18" t="s">
-        <v>11</v>
+      <c r="DJ18" s="1">
+        <v>3</v>
       </c>
       <c r="DK18" t="s">
         <v>227</v>
@@ -34946,8 +34952,8 @@
       <c r="DQ18" t="s">
         <v>227</v>
       </c>
-      <c r="DR18" t="s">
-        <v>12</v>
+      <c r="DR18" s="1">
+        <v>4</v>
       </c>
       <c r="DS18" t="s">
         <v>227</v>
@@ -34955,8 +34961,8 @@
       <c r="DT18" t="s">
         <v>227</v>
       </c>
-      <c r="DU18" t="s">
-        <v>12</v>
+      <c r="DU18" s="1">
+        <v>4</v>
       </c>
       <c r="DV18" t="s">
         <v>227</v>
@@ -34979,8 +34985,8 @@
       <c r="EB18" t="s">
         <v>227</v>
       </c>
-      <c r="EC18" t="s">
-        <v>10</v>
+      <c r="EC18" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:133" x14ac:dyDescent="0.25">
@@ -34990,14 +34996,14 @@
       <c r="B19" t="s">
         <v>227</v>
       </c>
-      <c r="C19" t="s">
-        <v>11</v>
+      <c r="C19" s="1">
+        <v>3</v>
       </c>
       <c r="D19" t="s">
         <v>227</v>
       </c>
-      <c r="E19" t="s">
-        <v>15</v>
+      <c r="E19" s="1">
+        <v>7</v>
       </c>
       <c r="F19" t="s">
         <v>227</v>
@@ -35005,8 +35011,8 @@
       <c r="G19" t="s">
         <v>227</v>
       </c>
-      <c r="H19" t="s">
-        <v>14</v>
+      <c r="H19" s="1">
+        <v>6</v>
       </c>
       <c r="I19" t="s">
         <v>227</v>
@@ -35017,8 +35023,8 @@
       <c r="K19" t="s">
         <v>227</v>
       </c>
-      <c r="L19" t="s">
-        <v>10</v>
+      <c r="L19" s="1">
+        <v>2</v>
       </c>
       <c r="M19" t="s">
         <v>227</v>
@@ -35026,8 +35032,8 @@
       <c r="N19" t="s">
         <v>227</v>
       </c>
-      <c r="O19" t="s">
-        <v>228</v>
+      <c r="O19" s="1">
+        <v>0</v>
       </c>
       <c r="P19" t="s">
         <v>227</v>
@@ -35038,8 +35044,8 @@
       <c r="R19" t="s">
         <v>227</v>
       </c>
-      <c r="S19" t="s">
-        <v>10</v>
+      <c r="S19" s="1">
+        <v>2</v>
       </c>
       <c r="T19" t="s">
         <v>227</v>
@@ -35050,8 +35056,8 @@
       <c r="V19" t="s">
         <v>227</v>
       </c>
-      <c r="W19" t="s">
-        <v>10</v>
+      <c r="W19" s="1">
+        <v>2</v>
       </c>
       <c r="X19" t="s">
         <v>227</v>
@@ -35059,11 +35065,11 @@
       <c r="Y19" t="s">
         <v>227</v>
       </c>
-      <c r="Z19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>9</v>
+      <c r="Z19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1</v>
       </c>
       <c r="AB19" t="s">
         <v>227</v>
@@ -35074,8 +35080,8 @@
       <c r="AD19" t="s">
         <v>227</v>
       </c>
-      <c r="AE19" t="s">
-        <v>9</v>
+      <c r="AE19" s="1">
+        <v>1</v>
       </c>
       <c r="AF19" t="s">
         <v>227</v>
@@ -35086,8 +35092,8 @@
       <c r="AH19" t="s">
         <v>227</v>
       </c>
-      <c r="AI19" t="s">
-        <v>14</v>
+      <c r="AI19" s="1">
+        <v>6</v>
       </c>
       <c r="AJ19" t="s">
         <v>227</v>
@@ -35095,14 +35101,14 @@
       <c r="AK19" t="s">
         <v>227</v>
       </c>
-      <c r="AL19" t="s">
-        <v>11</v>
+      <c r="AL19" s="1">
+        <v>3</v>
       </c>
       <c r="AM19" t="s">
         <v>227</v>
       </c>
-      <c r="AN19" t="s">
-        <v>10</v>
+      <c r="AN19" s="1">
+        <v>2</v>
       </c>
       <c r="AO19" t="s">
         <v>227</v>
@@ -35113,8 +35119,8 @@
       <c r="AQ19" t="s">
         <v>227</v>
       </c>
-      <c r="AR19" t="s">
-        <v>11</v>
+      <c r="AR19" s="1">
+        <v>3</v>
       </c>
       <c r="AS19" t="s">
         <v>227</v>
@@ -35122,14 +35128,14 @@
       <c r="AT19" t="s">
         <v>227</v>
       </c>
-      <c r="AU19" t="s">
-        <v>10</v>
+      <c r="AU19" s="1">
+        <v>2</v>
       </c>
       <c r="AV19" t="s">
         <v>227</v>
       </c>
-      <c r="AW19" t="s">
-        <v>13</v>
+      <c r="AW19" s="1">
+        <v>5</v>
       </c>
       <c r="AX19" t="s">
         <v>227</v>
@@ -35137,8 +35143,8 @@
       <c r="AY19" t="s">
         <v>227</v>
       </c>
-      <c r="AZ19" t="s">
-        <v>12</v>
+      <c r="AZ19" s="1">
+        <v>4</v>
       </c>
       <c r="BA19" t="s">
         <v>227</v>
@@ -35155,8 +35161,8 @@
       <c r="BE19" t="s">
         <v>227</v>
       </c>
-      <c r="BF19" t="s">
-        <v>13</v>
+      <c r="BF19" s="1">
+        <v>5</v>
       </c>
       <c r="BG19" t="s">
         <v>227</v>
@@ -35164,8 +35170,8 @@
       <c r="BH19" t="s">
         <v>227</v>
       </c>
-      <c r="BI19" t="s">
-        <v>11</v>
+      <c r="BI19" s="1">
+        <v>3</v>
       </c>
       <c r="BJ19" t="s">
         <v>227</v>
@@ -35176,8 +35182,8 @@
       <c r="BL19" t="s">
         <v>227</v>
       </c>
-      <c r="BM19" t="s">
-        <v>13</v>
+      <c r="BM19" s="1">
+        <v>5</v>
       </c>
       <c r="BN19" t="s">
         <v>227</v>
@@ -35185,14 +35191,14 @@
       <c r="BO19" t="s">
         <v>227</v>
       </c>
-      <c r="BP19" t="s">
-        <v>12</v>
+      <c r="BP19" s="1">
+        <v>4</v>
       </c>
       <c r="BQ19" t="s">
         <v>227</v>
       </c>
-      <c r="BR19" t="s">
-        <v>11</v>
+      <c r="BR19" s="1">
+        <v>3</v>
       </c>
       <c r="BS19" t="s">
         <v>227</v>
@@ -35203,8 +35209,8 @@
       <c r="BU19" t="s">
         <v>227</v>
       </c>
-      <c r="BV19" t="s">
-        <v>10</v>
+      <c r="BV19" s="1">
+        <v>2</v>
       </c>
       <c r="BW19" t="s">
         <v>227</v>
@@ -35212,8 +35218,8 @@
       <c r="BX19" t="s">
         <v>227</v>
       </c>
-      <c r="BY19" t="s">
-        <v>10</v>
+      <c r="BY19" s="1">
+        <v>2</v>
       </c>
       <c r="BZ19" t="s">
         <v>227</v>
@@ -35224,8 +35230,8 @@
       <c r="CB19" t="s">
         <v>227</v>
       </c>
-      <c r="CC19" t="s">
-        <v>228</v>
+      <c r="CC19" s="1">
+        <v>0</v>
       </c>
       <c r="CD19" t="s">
         <v>227</v>
@@ -35236,8 +35242,8 @@
       <c r="CF19" t="s">
         <v>227</v>
       </c>
-      <c r="CG19" t="s">
-        <v>9</v>
+      <c r="CG19" s="1">
+        <v>1</v>
       </c>
       <c r="CH19" t="s">
         <v>227</v>
@@ -35251,14 +35257,14 @@
       <c r="CK19" t="s">
         <v>227</v>
       </c>
-      <c r="CL19" t="s">
-        <v>9</v>
+      <c r="CL19" s="1">
+        <v>1</v>
       </c>
       <c r="CM19" t="s">
         <v>227</v>
       </c>
-      <c r="CN19" t="s">
-        <v>228</v>
+      <c r="CN19" s="1">
+        <v>0</v>
       </c>
       <c r="CO19" t="s">
         <v>227</v>
@@ -35269,8 +35275,8 @@
       <c r="CQ19" t="s">
         <v>227</v>
       </c>
-      <c r="CR19" t="s">
-        <v>9</v>
+      <c r="CR19" s="1">
+        <v>1</v>
       </c>
       <c r="CS19" t="s">
         <v>227</v>
@@ -35287,8 +35293,8 @@
       <c r="CW19" t="s">
         <v>227</v>
       </c>
-      <c r="CX19" t="s">
-        <v>15</v>
+      <c r="CX19" s="1">
+        <v>7</v>
       </c>
       <c r="CY19" t="s">
         <v>227</v>
@@ -35305,8 +35311,8 @@
       <c r="DC19" t="s">
         <v>227</v>
       </c>
-      <c r="DD19" t="s">
-        <v>11</v>
+      <c r="DD19" s="1">
+        <v>3</v>
       </c>
       <c r="DE19" t="s">
         <v>227</v>
@@ -35326,8 +35332,8 @@
       <c r="DJ19" t="s">
         <v>227</v>
       </c>
-      <c r="DK19" t="s">
-        <v>11</v>
+      <c r="DK19" s="1">
+        <v>3</v>
       </c>
       <c r="DL19" t="s">
         <v>227</v>
@@ -35335,8 +35341,8 @@
       <c r="DM19" t="s">
         <v>227</v>
       </c>
-      <c r="DN19" t="s">
-        <v>12</v>
+      <c r="DN19" s="1">
+        <v>4</v>
       </c>
       <c r="DO19" t="s">
         <v>227</v>
@@ -35350,8 +35356,8 @@
       <c r="DR19" t="s">
         <v>227</v>
       </c>
-      <c r="DS19" t="s">
-        <v>10</v>
+      <c r="DS19" s="1">
+        <v>2</v>
       </c>
       <c r="DT19" t="s">
         <v>227</v>
@@ -35359,8 +35365,8 @@
       <c r="DU19" t="s">
         <v>227</v>
       </c>
-      <c r="DV19" t="s">
-        <v>12</v>
+      <c r="DV19" s="1">
+        <v>4</v>
       </c>
       <c r="DW19" t="s">
         <v>227</v>
@@ -35380,16 +35386,16 @@
       <c r="EB19" t="s">
         <v>227</v>
       </c>
-      <c r="EC19" t="s">
-        <v>11</v>
+      <c r="EC19" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
+      <c r="B20" s="1">
+        <v>2</v>
       </c>
       <c r="C20" t="s">
         <v>227</v>
@@ -35397,8 +35403,8 @@
       <c r="D20" t="s">
         <v>227</v>
       </c>
-      <c r="E20" t="s">
-        <v>11</v>
+      <c r="E20" s="1">
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>227</v>
@@ -35409,8 +35415,8 @@
       <c r="H20" t="s">
         <v>227</v>
       </c>
-      <c r="I20" t="s">
-        <v>12</v>
+      <c r="I20" s="1">
+        <v>4</v>
       </c>
       <c r="J20" t="s">
         <v>227</v>
@@ -35418,14 +35424,14 @@
       <c r="K20" t="s">
         <v>227</v>
       </c>
-      <c r="L20" t="s">
-        <v>11</v>
+      <c r="L20" s="1">
+        <v>3</v>
       </c>
       <c r="M20" t="s">
         <v>227</v>
       </c>
-      <c r="N20" t="s">
-        <v>14</v>
+      <c r="N20" s="1">
+        <v>6</v>
       </c>
       <c r="O20" t="s">
         <v>227</v>
@@ -35433,8 +35439,8 @@
       <c r="P20" t="s">
         <v>227</v>
       </c>
-      <c r="Q20" t="s">
-        <v>10</v>
+      <c r="Q20" s="1">
+        <v>2</v>
       </c>
       <c r="R20" t="s">
         <v>227</v>
@@ -35445,8 +35451,8 @@
       <c r="T20" t="s">
         <v>227</v>
       </c>
-      <c r="U20" t="s">
-        <v>11</v>
+      <c r="U20" s="1">
+        <v>3</v>
       </c>
       <c r="V20" t="s">
         <v>227</v>
@@ -35457,8 +35463,8 @@
       <c r="X20" t="s">
         <v>227</v>
       </c>
-      <c r="Y20" t="s">
-        <v>9</v>
+      <c r="Y20" s="1">
+        <v>1</v>
       </c>
       <c r="Z20" t="s">
         <v>227</v>
@@ -35466,8 +35472,8 @@
       <c r="AA20" t="s">
         <v>227</v>
       </c>
-      <c r="AB20" t="s">
-        <v>9</v>
+      <c r="AB20" s="1">
+        <v>1</v>
       </c>
       <c r="AC20" t="s">
         <v>227</v>
@@ -35481,11 +35487,11 @@
       <c r="AF20" t="s">
         <v>227</v>
       </c>
-      <c r="AG20" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>12</v>
+      <c r="AG20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>4</v>
       </c>
       <c r="AI20" t="s">
         <v>227</v>
@@ -35493,8 +35499,8 @@
       <c r="AJ20" t="s">
         <v>227</v>
       </c>
-      <c r="AK20" t="s">
-        <v>11</v>
+      <c r="AK20" s="1">
+        <v>3</v>
       </c>
       <c r="AL20" t="s">
         <v>227</v>
@@ -35505,8 +35511,8 @@
       <c r="AN20" t="s">
         <v>227</v>
       </c>
-      <c r="AO20" t="s">
-        <v>10</v>
+      <c r="AO20" s="1">
+        <v>2</v>
       </c>
       <c r="AP20" t="s">
         <v>227</v>
@@ -35517,26 +35523,26 @@
       <c r="AR20" t="s">
         <v>227</v>
       </c>
-      <c r="AS20" t="s">
-        <v>11</v>
+      <c r="AS20" s="1">
+        <v>3</v>
       </c>
       <c r="AT20" t="s">
         <v>227</v>
       </c>
-      <c r="AU20" t="s">
-        <v>12</v>
+      <c r="AU20" s="1">
+        <v>4</v>
       </c>
       <c r="AV20" t="s">
         <v>227</v>
       </c>
-      <c r="AW20" t="s">
-        <v>228</v>
+      <c r="AW20" s="1">
+        <v>0</v>
       </c>
       <c r="AX20" t="s">
         <v>227</v>
       </c>
-      <c r="AY20" t="s">
-        <v>9</v>
+      <c r="AY20" s="1">
+        <v>1</v>
       </c>
       <c r="AZ20" t="s">
         <v>227</v>
@@ -35556,8 +35562,8 @@
       <c r="BE20" t="s">
         <v>227</v>
       </c>
-      <c r="BF20" t="s">
-        <v>9</v>
+      <c r="BF20" s="1">
+        <v>1</v>
       </c>
       <c r="BG20" t="s">
         <v>227</v>
@@ -35565,8 +35571,8 @@
       <c r="BH20" t="s">
         <v>227</v>
       </c>
-      <c r="BI20" t="s">
-        <v>11</v>
+      <c r="BI20" s="1">
+        <v>3</v>
       </c>
       <c r="BJ20" t="s">
         <v>227</v>
@@ -35577,8 +35583,8 @@
       <c r="BL20" t="s">
         <v>227</v>
       </c>
-      <c r="BM20" t="s">
-        <v>13</v>
+      <c r="BM20" s="1">
+        <v>5</v>
       </c>
       <c r="BN20" t="s">
         <v>227</v>
@@ -35589,20 +35595,20 @@
       <c r="BP20" t="s">
         <v>227</v>
       </c>
-      <c r="BQ20" t="s">
-        <v>12</v>
+      <c r="BQ20" s="1">
+        <v>4</v>
       </c>
       <c r="BR20" t="s">
         <v>227</v>
       </c>
-      <c r="BS20" t="s">
-        <v>12</v>
+      <c r="BS20" s="1">
+        <v>4</v>
       </c>
       <c r="BT20" t="s">
         <v>227</v>
       </c>
-      <c r="BU20" t="s">
-        <v>228</v>
+      <c r="BU20" s="1">
+        <v>0</v>
       </c>
       <c r="BV20" t="s">
         <v>227</v>
@@ -35616,8 +35622,8 @@
       <c r="BY20" t="s">
         <v>227</v>
       </c>
-      <c r="BZ20" t="s">
-        <v>11</v>
+      <c r="BZ20" s="1">
+        <v>3</v>
       </c>
       <c r="CA20" t="s">
         <v>227</v>
@@ -35628,8 +35634,8 @@
       <c r="CC20" t="s">
         <v>227</v>
       </c>
-      <c r="CD20" t="s">
-        <v>11</v>
+      <c r="CD20" s="1">
+        <v>3</v>
       </c>
       <c r="CE20" t="s">
         <v>227</v>
@@ -35637,8 +35643,8 @@
       <c r="CF20" t="s">
         <v>227</v>
       </c>
-      <c r="CG20" t="s">
-        <v>11</v>
+      <c r="CG20" s="1">
+        <v>3</v>
       </c>
       <c r="CH20" t="s">
         <v>227</v>
@@ -35661,8 +35667,8 @@
       <c r="CN20" t="s">
         <v>227</v>
       </c>
-      <c r="CO20" t="s">
-        <v>10</v>
+      <c r="CO20" s="1">
+        <v>2</v>
       </c>
       <c r="CP20" t="s">
         <v>227</v>
@@ -35673,8 +35679,8 @@
       <c r="CR20" t="s">
         <v>227</v>
       </c>
-      <c r="CS20" t="s">
-        <v>9</v>
+      <c r="CS20" s="1">
+        <v>1</v>
       </c>
       <c r="CT20" t="s">
         <v>227</v>
@@ -35685,8 +35691,8 @@
       <c r="CV20" t="s">
         <v>227</v>
       </c>
-      <c r="CW20" t="s">
-        <v>14</v>
+      <c r="CW20" s="1">
+        <v>6</v>
       </c>
       <c r="CX20" t="s">
         <v>227</v>
@@ -35694,8 +35700,8 @@
       <c r="CY20" t="s">
         <v>227</v>
       </c>
-      <c r="CZ20" t="s">
-        <v>13</v>
+      <c r="CZ20" s="1">
+        <v>5</v>
       </c>
       <c r="DA20" t="s">
         <v>227</v>
@@ -35703,8 +35709,8 @@
       <c r="DB20" t="s">
         <v>227</v>
       </c>
-      <c r="DC20" t="s">
-        <v>13</v>
+      <c r="DC20" s="1">
+        <v>5</v>
       </c>
       <c r="DD20" t="s">
         <v>227</v>
@@ -35712,8 +35718,8 @@
       <c r="DE20" t="s">
         <v>227</v>
       </c>
-      <c r="DF20" t="s">
-        <v>13</v>
+      <c r="DF20" s="1">
+        <v>5</v>
       </c>
       <c r="DG20" t="s">
         <v>227</v>
@@ -35733,8 +35739,8 @@
       <c r="DL20" t="s">
         <v>227</v>
       </c>
-      <c r="DM20" t="s">
-        <v>9</v>
+      <c r="DM20" s="1">
+        <v>1</v>
       </c>
       <c r="DN20" t="s">
         <v>227</v>
@@ -35751,8 +35757,8 @@
       <c r="DR20" t="s">
         <v>227</v>
       </c>
-      <c r="DS20" t="s">
-        <v>11</v>
+      <c r="DS20" s="1">
+        <v>3</v>
       </c>
       <c r="DT20" t="s">
         <v>227</v>
@@ -35760,8 +35766,8 @@
       <c r="DU20" t="s">
         <v>227</v>
       </c>
-      <c r="DV20" t="s">
-        <v>9</v>
+      <c r="DV20" s="1">
+        <v>1</v>
       </c>
       <c r="DW20" t="s">
         <v>227</v>
@@ -35778,8 +35784,8 @@
       <c r="EA20" t="s">
         <v>227</v>
       </c>
-      <c r="EB20" t="s">
-        <v>10</v>
+      <c r="EB20" s="1">
+        <v>2</v>
       </c>
       <c r="EC20" t="s">
         <v>227</v>
@@ -35795,8 +35801,8 @@
       <c r="C21" t="s">
         <v>227</v>
       </c>
-      <c r="D21" t="s">
-        <v>10</v>
+      <c r="D21" s="1">
+        <v>2</v>
       </c>
       <c r="E21" t="s">
         <v>227</v>
@@ -35804,14 +35810,14 @@
       <c r="F21" t="s">
         <v>227</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
+      <c r="G21" s="1">
+        <v>4</v>
       </c>
       <c r="H21" t="s">
         <v>227</v>
       </c>
-      <c r="I21" t="s">
-        <v>12</v>
+      <c r="I21" s="1">
+        <v>4</v>
       </c>
       <c r="J21" t="s">
         <v>227</v>
@@ -35819,8 +35825,8 @@
       <c r="K21" t="s">
         <v>227</v>
       </c>
-      <c r="L21" t="s">
-        <v>9</v>
+      <c r="L21" s="1">
+        <v>1</v>
       </c>
       <c r="M21" t="s">
         <v>227</v>
@@ -35828,8 +35834,8 @@
       <c r="N21" t="s">
         <v>227</v>
       </c>
-      <c r="O21" t="s">
-        <v>9</v>
+      <c r="O21" s="1">
+        <v>1</v>
       </c>
       <c r="P21" t="s">
         <v>227</v>
@@ -35837,14 +35843,14 @@
       <c r="Q21" t="s">
         <v>227</v>
       </c>
-      <c r="R21" t="s">
-        <v>10</v>
+      <c r="R21" s="1">
+        <v>2</v>
       </c>
       <c r="S21" t="s">
         <v>227</v>
       </c>
-      <c r="T21" t="s">
-        <v>10</v>
+      <c r="T21" s="1">
+        <v>2</v>
       </c>
       <c r="U21" t="s">
         <v>227</v>
@@ -35861,8 +35867,8 @@
       <c r="Y21" t="s">
         <v>227</v>
       </c>
-      <c r="Z21" t="s">
-        <v>9</v>
+      <c r="Z21" s="1">
+        <v>1</v>
       </c>
       <c r="AA21" t="s">
         <v>227</v>
@@ -35870,8 +35876,8 @@
       <c r="AB21" t="s">
         <v>227</v>
       </c>
-      <c r="AC21" t="s">
-        <v>10</v>
+      <c r="AC21" s="1">
+        <v>2</v>
       </c>
       <c r="AD21" t="s">
         <v>227</v>
@@ -35879,8 +35885,8 @@
       <c r="AE21" t="s">
         <v>227</v>
       </c>
-      <c r="AF21" t="s">
-        <v>11</v>
+      <c r="AF21" s="1">
+        <v>3</v>
       </c>
       <c r="AG21" t="s">
         <v>227</v>
@@ -35888,8 +35894,8 @@
       <c r="AH21" t="s">
         <v>227</v>
       </c>
-      <c r="AI21" t="s">
-        <v>12</v>
+      <c r="AI21" s="1">
+        <v>4</v>
       </c>
       <c r="AJ21" t="s">
         <v>227</v>
@@ -35897,14 +35903,14 @@
       <c r="AK21" t="s">
         <v>227</v>
       </c>
-      <c r="AL21" t="s">
-        <v>9</v>
+      <c r="AL21" s="1">
+        <v>1</v>
       </c>
       <c r="AM21" t="s">
         <v>227</v>
       </c>
-      <c r="AN21" t="s">
-        <v>11</v>
+      <c r="AN21" s="1">
+        <v>3</v>
       </c>
       <c r="AO21" t="s">
         <v>227</v>
@@ -35918,20 +35924,20 @@
       <c r="AR21" t="s">
         <v>227</v>
       </c>
-      <c r="AS21" t="s">
-        <v>11</v>
+      <c r="AS21" s="1">
+        <v>3</v>
       </c>
       <c r="AT21" t="s">
         <v>227</v>
       </c>
-      <c r="AU21" t="s">
-        <v>10</v>
+      <c r="AU21" s="1">
+        <v>2</v>
       </c>
       <c r="AV21" t="s">
         <v>227</v>
       </c>
-      <c r="AW21" t="s">
-        <v>9</v>
+      <c r="AW21" s="1">
+        <v>1</v>
       </c>
       <c r="AX21" t="s">
         <v>227</v>
@@ -35939,8 +35945,8 @@
       <c r="AY21" t="s">
         <v>227</v>
       </c>
-      <c r="AZ21" t="s">
-        <v>14</v>
+      <c r="AZ21" s="1">
+        <v>6</v>
       </c>
       <c r="BA21" t="s">
         <v>227</v>
@@ -35948,8 +35954,8 @@
       <c r="BB21" t="s">
         <v>227</v>
       </c>
-      <c r="BC21" t="s">
-        <v>11</v>
+      <c r="BC21" s="1">
+        <v>3</v>
       </c>
       <c r="BD21" t="s">
         <v>227</v>
@@ -35957,8 +35963,8 @@
       <c r="BE21" t="s">
         <v>227</v>
       </c>
-      <c r="BF21" t="s">
-        <v>13</v>
+      <c r="BF21" s="1">
+        <v>5</v>
       </c>
       <c r="BG21" t="s">
         <v>227</v>
@@ -35981,20 +35987,20 @@
       <c r="BM21" t="s">
         <v>227</v>
       </c>
-      <c r="BN21" t="s">
-        <v>228</v>
+      <c r="BN21" s="1">
+        <v>0</v>
       </c>
       <c r="BO21" t="s">
         <v>227</v>
       </c>
-      <c r="BP21" t="s">
-        <v>9</v>
+      <c r="BP21" s="1">
+        <v>1</v>
       </c>
       <c r="BQ21" t="s">
         <v>227</v>
       </c>
-      <c r="BR21" t="s">
-        <v>11</v>
+      <c r="BR21" s="1">
+        <v>3</v>
       </c>
       <c r="BS21" t="s">
         <v>227</v>
@@ -36005,8 +36011,8 @@
       <c r="BU21" t="s">
         <v>227</v>
       </c>
-      <c r="BV21" t="s">
-        <v>228</v>
+      <c r="BV21" s="1">
+        <v>0</v>
       </c>
       <c r="BW21" t="s">
         <v>227</v>
@@ -36014,8 +36020,8 @@
       <c r="BX21" t="s">
         <v>227</v>
       </c>
-      <c r="BY21" t="s">
-        <v>11</v>
+      <c r="BY21" s="1">
+        <v>3</v>
       </c>
       <c r="BZ21" t="s">
         <v>227</v>
@@ -36023,8 +36029,8 @@
       <c r="CA21" t="s">
         <v>227</v>
       </c>
-      <c r="CB21" t="s">
-        <v>9</v>
+      <c r="CB21" s="1">
+        <v>1</v>
       </c>
       <c r="CC21" t="s">
         <v>227</v>
@@ -36038,8 +36044,8 @@
       <c r="CF21" t="s">
         <v>227</v>
       </c>
-      <c r="CG21" t="s">
-        <v>10</v>
+      <c r="CG21" s="1">
+        <v>2</v>
       </c>
       <c r="CH21" t="s">
         <v>227</v>
@@ -36047,8 +36053,8 @@
       <c r="CI21" t="s">
         <v>227</v>
       </c>
-      <c r="CJ21" t="s">
-        <v>13</v>
+      <c r="CJ21" s="1">
+        <v>5</v>
       </c>
       <c r="CK21" t="s">
         <v>227</v>
@@ -36056,8 +36062,8 @@
       <c r="CL21" t="s">
         <v>227</v>
       </c>
-      <c r="CM21" t="s">
-        <v>228</v>
+      <c r="CM21" s="1">
+        <v>0</v>
       </c>
       <c r="CN21" t="s">
         <v>227</v>
@@ -36077,8 +36083,8 @@
       <c r="CS21" t="s">
         <v>227</v>
       </c>
-      <c r="CT21" t="s">
-        <v>9</v>
+      <c r="CT21" s="1">
+        <v>1</v>
       </c>
       <c r="CU21" t="s">
         <v>227</v>
@@ -36095,11 +36101,11 @@
       <c r="CY21" t="s">
         <v>227</v>
       </c>
-      <c r="CZ21" t="s">
-        <v>13</v>
-      </c>
-      <c r="DA21" t="s">
-        <v>9</v>
+      <c r="CZ21" s="1">
+        <v>5</v>
+      </c>
+      <c r="DA21" s="1">
+        <v>1</v>
       </c>
       <c r="DB21" t="s">
         <v>227</v>
@@ -36113,8 +36119,8 @@
       <c r="DE21" t="s">
         <v>227</v>
       </c>
-      <c r="DF21" t="s">
-        <v>9</v>
+      <c r="DF21" s="1">
+        <v>1</v>
       </c>
       <c r="DG21" t="s">
         <v>227</v>
@@ -36137,8 +36143,8 @@
       <c r="DM21" t="s">
         <v>227</v>
       </c>
-      <c r="DN21" t="s">
-        <v>12</v>
+      <c r="DN21" s="1">
+        <v>4</v>
       </c>
       <c r="DO21" t="s">
         <v>227</v>
@@ -36152,8 +36158,8 @@
       <c r="DR21" t="s">
         <v>227</v>
       </c>
-      <c r="DS21" t="s">
-        <v>10</v>
+      <c r="DS21" s="1">
+        <v>2</v>
       </c>
       <c r="DT21" t="s">
         <v>227</v>
@@ -36161,8 +36167,8 @@
       <c r="DU21" t="s">
         <v>227</v>
       </c>
-      <c r="DV21" t="s">
-        <v>11</v>
+      <c r="DV21" s="1">
+        <v>3</v>
       </c>
       <c r="DW21" t="s">
         <v>227</v>
@@ -36182,11 +36188,23 @@
       <c r="EB21" t="s">
         <v>227</v>
       </c>
-      <c r="EC21" t="s">
-        <v>10</v>
+      <c r="EC21" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:EC21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -36196,7 +36214,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A14" activeCellId="1" sqref="A18:XFD18 A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39544,8 +39562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" activeCellId="1" sqref="A6:XFD6 A11:XFD11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A21" activeCellId="1" sqref="A8:XFD8 A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
